--- a/DataAgregation/age-clusters.xlsx
+++ b/DataAgregation/age-clusters.xlsx
@@ -5,18 +5,121 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Revenue" sheetId="1" r:id="rId1"/>
+    <sheet name="Revenue" sheetId="1" r:id="rId3"/>
+    <sheet name="MAU" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>13-24</t>
+  </si>
+  <si>
+    <t>25-37</t>
+  </si>
+  <si>
+    <t>38-51</t>
+  </si>
+  <si>
+    <t>52-64</t>
+  </si>
+  <si>
+    <t>01.01.2018</t>
+  </si>
+  <si>
+    <t>02.01.2018</t>
+  </si>
+  <si>
+    <t>03.01.2018</t>
+  </si>
+  <si>
+    <t>04.01.2018</t>
+  </si>
+  <si>
+    <t>05.01.2018</t>
+  </si>
+  <si>
+    <t>06.01.2018</t>
+  </si>
+  <si>
+    <t>07.01.2018</t>
+  </si>
+  <si>
+    <t>08.01.2018</t>
+  </si>
+  <si>
+    <t>09.01.2018</t>
+  </si>
+  <si>
+    <t>10.01.2018</t>
+  </si>
+  <si>
+    <t>11.01.2018</t>
+  </si>
+  <si>
+    <t>12.01.2018</t>
+  </si>
+  <si>
+    <t>13.01.2018</t>
+  </si>
+  <si>
+    <t>14.01.2018</t>
+  </si>
+  <si>
+    <t>15.01.2018</t>
+  </si>
+  <si>
+    <t>16.01.2018</t>
+  </si>
+  <si>
+    <t>17.01.2018</t>
+  </si>
+  <si>
+    <t>18.01.2018</t>
+  </si>
+  <si>
+    <t>19.01.2018</t>
+  </si>
+  <si>
+    <t>20.01.2018</t>
+  </si>
+  <si>
+    <t>21.01.2018</t>
+  </si>
+  <si>
+    <t>22.01.2018</t>
+  </si>
+  <si>
+    <t>23.01.2018</t>
+  </si>
+  <si>
+    <t>24.01.2018</t>
+  </si>
+  <si>
+    <t>25.01.2018</t>
+  </si>
+  <si>
+    <t>26.01.2018</t>
+  </si>
+  <si>
+    <t>27.01.2018</t>
+  </si>
+  <si>
+    <t>28.01.2018</t>
+  </si>
+  <si>
+    <t>29.01.2018</t>
+  </si>
+  <si>
+    <t>30.01.2018</t>
+  </si>
+  <si>
     <t>13-23</t>
   </si>
   <si>
@@ -27,96 +130,6 @@
   </si>
   <si>
     <t>50-64</t>
-  </si>
-  <si>
-    <t>01.01.2018</t>
-  </si>
-  <si>
-    <t>02.01.2018</t>
-  </si>
-  <si>
-    <t>03.01.2018</t>
-  </si>
-  <si>
-    <t>04.01.2018</t>
-  </si>
-  <si>
-    <t>05.01.2018</t>
-  </si>
-  <si>
-    <t>06.01.2018</t>
-  </si>
-  <si>
-    <t>07.01.2018</t>
-  </si>
-  <si>
-    <t>08.01.2018</t>
-  </si>
-  <si>
-    <t>09.01.2018</t>
-  </si>
-  <si>
-    <t>10.01.2018</t>
-  </si>
-  <si>
-    <t>11.01.2018</t>
-  </si>
-  <si>
-    <t>12.01.2018</t>
-  </si>
-  <si>
-    <t>13.01.2018</t>
-  </si>
-  <si>
-    <t>14.01.2018</t>
-  </si>
-  <si>
-    <t>15.01.2018</t>
-  </si>
-  <si>
-    <t>16.01.2018</t>
-  </si>
-  <si>
-    <t>17.01.2018</t>
-  </si>
-  <si>
-    <t>18.01.2018</t>
-  </si>
-  <si>
-    <t>19.01.2018</t>
-  </si>
-  <si>
-    <t>20.01.2018</t>
-  </si>
-  <si>
-    <t>21.01.2018</t>
-  </si>
-  <si>
-    <t>22.01.2018</t>
-  </si>
-  <si>
-    <t>23.01.2018</t>
-  </si>
-  <si>
-    <t>24.01.2018</t>
-  </si>
-  <si>
-    <t>25.01.2018</t>
-  </si>
-  <si>
-    <t>26.01.2018</t>
-  </si>
-  <si>
-    <t>27.01.2018</t>
-  </si>
-  <si>
-    <t>28.01.2018</t>
-  </si>
-  <si>
-    <t>29.01.2018</t>
-  </si>
-  <si>
-    <t>30.01.2018</t>
   </si>
 </sst>
 </file>
@@ -190,16 +203,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>1626</v>
+        <v>1814</v>
       </c>
       <c r="C2" s="0">
-        <v>1795</v>
+        <v>1797</v>
       </c>
       <c r="D2" s="0">
-        <v>2012</v>
+        <v>2127</v>
       </c>
       <c r="E2" s="0">
-        <v>2725</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="3">
@@ -207,16 +220,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>3352</v>
+        <v>3858</v>
       </c>
       <c r="C3" s="0">
-        <v>4455</v>
+        <v>4316</v>
       </c>
       <c r="D3" s="0">
-        <v>4194</v>
+        <v>4710</v>
       </c>
       <c r="E3" s="0">
-        <v>4458</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="4">
@@ -224,16 +237,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>4974</v>
+        <v>5371</v>
       </c>
       <c r="C4" s="0">
-        <v>5787</v>
+        <v>5685</v>
       </c>
       <c r="D4" s="0">
-        <v>5722</v>
+        <v>6212</v>
       </c>
       <c r="E4" s="0">
-        <v>6368</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="5">
@@ -241,16 +254,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>7474</v>
+        <v>8003</v>
       </c>
       <c r="C5" s="0">
-        <v>7875</v>
+        <v>7758</v>
       </c>
       <c r="D5" s="0">
-        <v>6758</v>
+        <v>7819</v>
       </c>
       <c r="E5" s="0">
-        <v>10179</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="6">
@@ -258,16 +271,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>8723</v>
+        <v>9475</v>
       </c>
       <c r="C6" s="0">
-        <v>10463</v>
+        <v>10259</v>
       </c>
       <c r="D6" s="0">
-        <v>10044</v>
+        <v>10571</v>
       </c>
       <c r="E6" s="0">
-        <v>11097</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="7">
@@ -275,16 +288,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>10340</v>
+        <v>11365</v>
       </c>
       <c r="C7" s="0">
-        <v>13025</v>
+        <v>12863</v>
       </c>
       <c r="D7" s="0">
-        <v>11128</v>
+        <v>11839</v>
       </c>
       <c r="E7" s="0">
-        <v>14165</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="8">
@@ -292,16 +305,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>10688</v>
+        <v>11545</v>
       </c>
       <c r="C8" s="0">
-        <v>12384</v>
+        <v>12504</v>
       </c>
       <c r="D8" s="0">
-        <v>13356</v>
+        <v>14394</v>
       </c>
       <c r="E8" s="0">
-        <v>16016</v>
+        <v>14001</v>
       </c>
     </row>
     <row r="9">
@@ -309,16 +322,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>12960</v>
+        <v>13874</v>
       </c>
       <c r="C9" s="0">
-        <v>15836</v>
+        <v>15890</v>
       </c>
       <c r="D9" s="0">
-        <v>16027</v>
+        <v>17473</v>
       </c>
       <c r="E9" s="0">
-        <v>18982</v>
+        <v>16568</v>
       </c>
     </row>
     <row r="10">
@@ -326,16 +339,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>14875</v>
+        <v>16245</v>
       </c>
       <c r="C10" s="0">
-        <v>18325</v>
+        <v>18371</v>
       </c>
       <c r="D10" s="0">
-        <v>17847</v>
+        <v>18845</v>
       </c>
       <c r="E10" s="0">
-        <v>18596</v>
+        <v>16182</v>
       </c>
     </row>
     <row r="11">
@@ -343,16 +356,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>17569</v>
+        <v>19136</v>
       </c>
       <c r="C11" s="0">
-        <v>19474</v>
+        <v>19262</v>
       </c>
       <c r="D11" s="0">
-        <v>19617</v>
+        <v>21615</v>
       </c>
       <c r="E11" s="0">
-        <v>21739</v>
+        <v>18386</v>
       </c>
     </row>
     <row r="12">
@@ -360,16 +373,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>19790</v>
+        <v>21625</v>
       </c>
       <c r="C12" s="0">
-        <v>21928</v>
+        <v>21596</v>
       </c>
       <c r="D12" s="0">
-        <v>20957</v>
+        <v>23349</v>
       </c>
       <c r="E12" s="0">
-        <v>26898</v>
+        <v>23003</v>
       </c>
     </row>
     <row r="13">
@@ -377,16 +390,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>21260</v>
+        <v>22608</v>
       </c>
       <c r="C13" s="0">
-        <v>23804</v>
+        <v>24374</v>
       </c>
       <c r="D13" s="0">
-        <v>23986</v>
+        <v>25209</v>
       </c>
       <c r="E13" s="0">
-        <v>26205</v>
+        <v>23064</v>
       </c>
     </row>
     <row r="14">
@@ -394,16 +407,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>21084</v>
+        <v>22981</v>
       </c>
       <c r="C14" s="0">
-        <v>24049</v>
+        <v>24155</v>
       </c>
       <c r="D14" s="0">
-        <v>25192</v>
+        <v>26827</v>
       </c>
       <c r="E14" s="0">
-        <v>29646</v>
+        <v>26008</v>
       </c>
     </row>
     <row r="15">
@@ -411,16 +424,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>22326</v>
+        <v>24850</v>
       </c>
       <c r="C15" s="0">
-        <v>26743</v>
+        <v>26512</v>
       </c>
       <c r="D15" s="0">
-        <v>28147</v>
+        <v>29664</v>
       </c>
       <c r="E15" s="0">
-        <v>32545</v>
+        <v>28735</v>
       </c>
     </row>
     <row r="16">
@@ -428,16 +441,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>25817</v>
+        <v>27991</v>
       </c>
       <c r="C16" s="0">
-        <v>27948</v>
+        <v>28150</v>
       </c>
       <c r="D16" s="0">
-        <v>29671</v>
+        <v>31084</v>
       </c>
       <c r="E16" s="0">
-        <v>33072</v>
+        <v>29283</v>
       </c>
     </row>
     <row r="17">
@@ -445,16 +458,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>25660</v>
+        <v>28260</v>
       </c>
       <c r="C17" s="0">
-        <v>30393</v>
+        <v>30483</v>
       </c>
       <c r="D17" s="0">
-        <v>31692</v>
+        <v>34088</v>
       </c>
       <c r="E17" s="0">
-        <v>36799</v>
+        <v>31713</v>
       </c>
     </row>
     <row r="18">
@@ -462,16 +475,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>31511</v>
+        <v>33646</v>
       </c>
       <c r="C18" s="0">
-        <v>31626</v>
+        <v>32694</v>
       </c>
       <c r="D18" s="0">
-        <v>35279</v>
+        <v>37791</v>
       </c>
       <c r="E18" s="0">
-        <v>38181</v>
+        <v>32466</v>
       </c>
     </row>
     <row r="19">
@@ -479,16 +492,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>31588</v>
+        <v>34595</v>
       </c>
       <c r="C19" s="0">
-        <v>37996</v>
+        <v>37974</v>
       </c>
       <c r="D19" s="0">
-        <v>35032</v>
+        <v>37437</v>
       </c>
       <c r="E19" s="0">
-        <v>40643</v>
+        <v>35253</v>
       </c>
     </row>
     <row r="20">
@@ -496,16 +509,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>31737</v>
+        <v>34141</v>
       </c>
       <c r="C20" s="0">
-        <v>37348</v>
+        <v>37723</v>
       </c>
       <c r="D20" s="0">
-        <v>39546</v>
+        <v>42573</v>
       </c>
       <c r="E20" s="0">
-        <v>44645</v>
+        <v>38839</v>
       </c>
     </row>
     <row r="21">
@@ -513,16 +526,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>34063</v>
+        <v>36586</v>
       </c>
       <c r="C21" s="0">
-        <v>40305</v>
+        <v>40646</v>
       </c>
       <c r="D21" s="0">
-        <v>39721</v>
+        <v>42674</v>
       </c>
       <c r="E21" s="0">
-        <v>46316</v>
+        <v>40499</v>
       </c>
     </row>
     <row r="22">
@@ -530,16 +543,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>37515</v>
+        <v>40775</v>
       </c>
       <c r="C22" s="0">
-        <v>41682</v>
+        <v>41687</v>
       </c>
       <c r="D22" s="0">
-        <v>42016</v>
+        <v>45286</v>
       </c>
       <c r="E22" s="0">
-        <v>47539</v>
+        <v>41004</v>
       </c>
     </row>
     <row r="23">
@@ -547,16 +560,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>37221</v>
+        <v>40885</v>
       </c>
       <c r="C23" s="0">
-        <v>41860</v>
+        <v>41202</v>
       </c>
       <c r="D23" s="0">
-        <v>45189</v>
+        <v>48443</v>
       </c>
       <c r="E23" s="0">
-        <v>50859</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="24">
@@ -564,16 +577,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>37603</v>
+        <v>41177</v>
       </c>
       <c r="C24" s="0">
-        <v>46755</v>
+        <v>46975</v>
       </c>
       <c r="D24" s="0">
-        <v>43630</v>
+        <v>45623</v>
       </c>
       <c r="E24" s="0">
-        <v>52490</v>
+        <v>46703</v>
       </c>
     </row>
     <row r="25">
@@ -581,16 +594,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>40698</v>
+        <v>45135</v>
       </c>
       <c r="C25" s="0">
-        <v>47870</v>
+        <v>47309</v>
       </c>
       <c r="D25" s="0">
-        <v>48921</v>
+        <v>52660</v>
       </c>
       <c r="E25" s="0">
-        <v>56057</v>
+        <v>48442</v>
       </c>
     </row>
     <row r="26">
@@ -598,16 +611,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>41241</v>
+        <v>45115</v>
       </c>
       <c r="C26" s="0">
-        <v>50019</v>
+        <v>49834</v>
       </c>
       <c r="D26" s="0">
-        <v>49334</v>
+        <v>53413</v>
       </c>
       <c r="E26" s="0">
-        <v>57907</v>
+        <v>50139</v>
       </c>
     </row>
     <row r="27">
@@ -615,16 +628,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>43684</v>
+        <v>47990</v>
       </c>
       <c r="C27" s="0">
-        <v>52282</v>
+        <v>51474</v>
       </c>
       <c r="D27" s="0">
-        <v>53228</v>
+        <v>57929</v>
       </c>
       <c r="E27" s="0">
-        <v>59454</v>
+        <v>51255</v>
       </c>
     </row>
     <row r="28">
@@ -632,16 +645,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>45753</v>
+        <v>49393</v>
       </c>
       <c r="C28" s="0">
-        <v>51624</v>
+        <v>51961</v>
       </c>
       <c r="D28" s="0">
-        <v>55219</v>
+        <v>59570</v>
       </c>
       <c r="E28" s="0">
-        <v>61942</v>
+        <v>53614</v>
       </c>
     </row>
     <row r="29">
@@ -649,16 +662,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>47319</v>
+        <v>51719</v>
       </c>
       <c r="C29" s="0">
-        <v>57744</v>
+        <v>57883</v>
       </c>
       <c r="D29" s="0">
-        <v>56952</v>
+        <v>61612</v>
       </c>
       <c r="E29" s="0">
-        <v>65950</v>
+        <v>56751</v>
       </c>
     </row>
     <row r="30">
@@ -666,16 +679,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>48955</v>
+        <v>53491</v>
       </c>
       <c r="C30" s="0">
-        <v>57238</v>
+        <v>57542</v>
       </c>
       <c r="D30" s="0">
-        <v>58790</v>
+        <v>61848</v>
       </c>
       <c r="E30" s="0">
-        <v>65776</v>
+        <v>57878</v>
       </c>
     </row>
     <row r="31">
@@ -683,16 +696,57 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>51595</v>
+        <v>56501</v>
       </c>
       <c r="C31" s="0">
-        <v>61259</v>
+        <v>60879</v>
       </c>
       <c r="D31" s="0">
-        <v>60889</v>
+        <v>65159</v>
       </c>
       <c r="E31" s="0">
-        <v>73384</v>
+        <v>64588</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>749879</v>
+      </c>
+      <c r="B2" s="0">
+        <v>885663</v>
+      </c>
+      <c r="C2" s="0">
+        <v>884181</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1020137</v>
       </c>
     </row>
   </sheetData>

--- a/DataAgregation/age-clusters.xlsx
+++ b/DataAgregation/age-clusters.xlsx
@@ -5,29 +5,31 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Revenue" sheetId="1" r:id="rId3"/>
-    <sheet name="MAU" sheetId="2" r:id="rId4"/>
+    <sheet name="DAU" sheetId="12" r:id="rId18"/>
+    <sheet name="New Users" sheetId="13" r:id="rId20"/>
+    <sheet name="Revenue" sheetId="14" r:id="rId21"/>
+    <sheet name="MAU" sheetId="15" r:id="rId22"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>13-24</t>
-  </si>
-  <si>
-    <t>25-37</t>
-  </si>
-  <si>
-    <t>38-51</t>
-  </si>
-  <si>
-    <t>52-64</t>
+    <t>13-25</t>
+  </si>
+  <si>
+    <t>26-39</t>
+  </si>
+  <si>
+    <t>40-52</t>
+  </si>
+  <si>
+    <t>53-64</t>
   </si>
   <si>
     <t>01.01.2018</t>
@@ -130,6 +132,18 @@
   </si>
   <si>
     <t>50-64</t>
+  </si>
+  <si>
+    <t>13-26</t>
+  </si>
+  <si>
+    <t>27-40</t>
+  </si>
+  <si>
+    <t>41-53</t>
+  </si>
+  <si>
+    <t>54-64</t>
   </si>
 </sst>
 </file>
@@ -173,7 +187,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -186,16 +200,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -203,16 +217,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>1814</v>
+        <v>3791</v>
       </c>
       <c r="C2" s="0">
-        <v>1797</v>
+        <v>3886</v>
       </c>
       <c r="D2" s="0">
-        <v>2127</v>
+        <v>3506</v>
       </c>
       <c r="E2" s="0">
-        <v>2420</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="3">
@@ -220,16 +234,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>3858</v>
+        <v>7702</v>
       </c>
       <c r="C3" s="0">
-        <v>4316</v>
+        <v>7593</v>
       </c>
       <c r="D3" s="0">
-        <v>4710</v>
+        <v>7040</v>
       </c>
       <c r="E3" s="0">
-        <v>3575</v>
+        <v>5969</v>
       </c>
     </row>
     <row r="4">
@@ -237,16 +251,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>5371</v>
+        <v>11307</v>
       </c>
       <c r="C4" s="0">
-        <v>5685</v>
+        <v>11428</v>
       </c>
       <c r="D4" s="0">
-        <v>6212</v>
+        <v>10434</v>
       </c>
       <c r="E4" s="0">
-        <v>5583</v>
+        <v>9067</v>
       </c>
     </row>
     <row r="5">
@@ -254,16 +268,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>8003</v>
+        <v>15367</v>
       </c>
       <c r="C5" s="0">
-        <v>7758</v>
+        <v>15125</v>
       </c>
       <c r="D5" s="0">
-        <v>7819</v>
+        <v>14059</v>
       </c>
       <c r="E5" s="0">
-        <v>8706</v>
+        <v>11762</v>
       </c>
     </row>
     <row r="6">
@@ -271,16 +285,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>9475</v>
+        <v>18819</v>
       </c>
       <c r="C6" s="0">
-        <v>10259</v>
+        <v>18923</v>
       </c>
       <c r="D6" s="0">
-        <v>10571</v>
+        <v>17398</v>
       </c>
       <c r="E6" s="0">
-        <v>10022</v>
+        <v>14819</v>
       </c>
     </row>
     <row r="7">
@@ -288,16 +302,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>11365</v>
+        <v>22676</v>
       </c>
       <c r="C7" s="0">
-        <v>12863</v>
+        <v>22728</v>
       </c>
       <c r="D7" s="0">
-        <v>11839</v>
+        <v>20868</v>
       </c>
       <c r="E7" s="0">
-        <v>12591</v>
+        <v>17570</v>
       </c>
     </row>
     <row r="8">
@@ -305,16 +319,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>11545</v>
+        <v>26282</v>
       </c>
       <c r="C8" s="0">
-        <v>12504</v>
+        <v>26518</v>
       </c>
       <c r="D8" s="0">
-        <v>14394</v>
+        <v>24605</v>
       </c>
       <c r="E8" s="0">
-        <v>14001</v>
+        <v>20664</v>
       </c>
     </row>
     <row r="9">
@@ -322,16 +336,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>13874</v>
+        <v>30476</v>
       </c>
       <c r="C9" s="0">
-        <v>15890</v>
+        <v>30158</v>
       </c>
       <c r="D9" s="0">
-        <v>17473</v>
+        <v>27880</v>
       </c>
       <c r="E9" s="0">
-        <v>16568</v>
+        <v>23820</v>
       </c>
     </row>
     <row r="10">
@@ -339,16 +353,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>16245</v>
+        <v>34001</v>
       </c>
       <c r="C10" s="0">
-        <v>18371</v>
+        <v>33959</v>
       </c>
       <c r="D10" s="0">
-        <v>18845</v>
+        <v>31654</v>
       </c>
       <c r="E10" s="0">
-        <v>16182</v>
+        <v>26819</v>
       </c>
     </row>
     <row r="11">
@@ -356,16 +370,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>19136</v>
+        <v>37843</v>
       </c>
       <c r="C11" s="0">
-        <v>19262</v>
+        <v>37903</v>
       </c>
       <c r="D11" s="0">
-        <v>21615</v>
+        <v>35217</v>
       </c>
       <c r="E11" s="0">
-        <v>18386</v>
+        <v>29504</v>
       </c>
     </row>
     <row r="12">
@@ -373,16 +387,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>21625</v>
+        <v>41674</v>
       </c>
       <c r="C12" s="0">
-        <v>21596</v>
+        <v>41366</v>
       </c>
       <c r="D12" s="0">
-        <v>23349</v>
+        <v>38648</v>
       </c>
       <c r="E12" s="0">
-        <v>23003</v>
+        <v>32679</v>
       </c>
     </row>
     <row r="13">
@@ -390,16 +404,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>22608</v>
+        <v>45812</v>
       </c>
       <c r="C13" s="0">
-        <v>24374</v>
+        <v>45594</v>
       </c>
       <c r="D13" s="0">
-        <v>25209</v>
+        <v>41818</v>
       </c>
       <c r="E13" s="0">
-        <v>23064</v>
+        <v>35578</v>
       </c>
     </row>
     <row r="14">
@@ -407,16 +421,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>22981</v>
+        <v>49135</v>
       </c>
       <c r="C14" s="0">
-        <v>24155</v>
+        <v>49398</v>
       </c>
       <c r="D14" s="0">
-        <v>26827</v>
+        <v>45451</v>
       </c>
       <c r="E14" s="0">
-        <v>26008</v>
+        <v>38504</v>
       </c>
     </row>
     <row r="15">
@@ -424,16 +438,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>24850</v>
+        <v>52790</v>
       </c>
       <c r="C15" s="0">
-        <v>26512</v>
+        <v>52933</v>
       </c>
       <c r="D15" s="0">
-        <v>29664</v>
+        <v>49070</v>
       </c>
       <c r="E15" s="0">
-        <v>28735</v>
+        <v>41562</v>
       </c>
     </row>
     <row r="16">
@@ -441,16 +455,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>27991</v>
+        <v>56935</v>
       </c>
       <c r="C16" s="0">
-        <v>28150</v>
+        <v>56557</v>
       </c>
       <c r="D16" s="0">
-        <v>31084</v>
+        <v>52478</v>
       </c>
       <c r="E16" s="0">
-        <v>29283</v>
+        <v>44725</v>
       </c>
     </row>
     <row r="17">
@@ -458,16 +472,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>28260</v>
+        <v>60829</v>
       </c>
       <c r="C17" s="0">
-        <v>30483</v>
+        <v>60482</v>
       </c>
       <c r="D17" s="0">
-        <v>34088</v>
+        <v>56329</v>
       </c>
       <c r="E17" s="0">
-        <v>31713</v>
+        <v>46976</v>
       </c>
     </row>
     <row r="18">
@@ -475,16 +489,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>33646</v>
+        <v>64409</v>
       </c>
       <c r="C18" s="0">
-        <v>32694</v>
+        <v>64251</v>
       </c>
       <c r="D18" s="0">
-        <v>37791</v>
+        <v>59477</v>
       </c>
       <c r="E18" s="0">
-        <v>32466</v>
+        <v>50449</v>
       </c>
     </row>
     <row r="19">
@@ -492,16 +506,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>34595</v>
+        <v>68350</v>
       </c>
       <c r="C19" s="0">
-        <v>37974</v>
+        <v>68295</v>
       </c>
       <c r="D19" s="0">
-        <v>37437</v>
+        <v>63140</v>
       </c>
       <c r="E19" s="0">
-        <v>35253</v>
+        <v>53322</v>
       </c>
     </row>
     <row r="20">
@@ -509,16 +523,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>34141</v>
+        <v>72045</v>
       </c>
       <c r="C20" s="0">
-        <v>37723</v>
+        <v>71651</v>
       </c>
       <c r="D20" s="0">
-        <v>42573</v>
+        <v>66582</v>
       </c>
       <c r="E20" s="0">
-        <v>38839</v>
+        <v>56820</v>
       </c>
     </row>
     <row r="21">
@@ -526,16 +540,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>36586</v>
+        <v>75735</v>
       </c>
       <c r="C21" s="0">
-        <v>40646</v>
+        <v>75864</v>
       </c>
       <c r="D21" s="0">
-        <v>42674</v>
+        <v>70079</v>
       </c>
       <c r="E21" s="0">
-        <v>40499</v>
+        <v>59558</v>
       </c>
     </row>
     <row r="22">
@@ -543,16 +557,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>40775</v>
+        <v>79440</v>
       </c>
       <c r="C22" s="0">
-        <v>41687</v>
+        <v>79133</v>
       </c>
       <c r="D22" s="0">
-        <v>45286</v>
+        <v>73654</v>
       </c>
       <c r="E22" s="0">
-        <v>41004</v>
+        <v>62580</v>
       </c>
     </row>
     <row r="23">
@@ -560,16 +574,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>40885</v>
+        <v>83808</v>
       </c>
       <c r="C23" s="0">
-        <v>41202</v>
+        <v>83155</v>
       </c>
       <c r="D23" s="0">
-        <v>48443</v>
+        <v>77278</v>
       </c>
       <c r="E23" s="0">
-        <v>44599</v>
+        <v>65075</v>
       </c>
     </row>
     <row r="24">
@@ -577,16 +591,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>41177</v>
+        <v>87187</v>
       </c>
       <c r="C24" s="0">
-        <v>46975</v>
+        <v>87186</v>
       </c>
       <c r="D24" s="0">
-        <v>45623</v>
+        <v>80548</v>
       </c>
       <c r="E24" s="0">
-        <v>46703</v>
+        <v>68096</v>
       </c>
     </row>
     <row r="25">
@@ -594,16 +608,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>45135</v>
+        <v>91135</v>
       </c>
       <c r="C25" s="0">
-        <v>47309</v>
+        <v>90992</v>
       </c>
       <c r="D25" s="0">
-        <v>52660</v>
+        <v>83680</v>
       </c>
       <c r="E25" s="0">
-        <v>48442</v>
+        <v>71468</v>
       </c>
     </row>
     <row r="26">
@@ -611,16 +625,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>45115</v>
+        <v>94665</v>
       </c>
       <c r="C26" s="0">
-        <v>49834</v>
+        <v>94877</v>
       </c>
       <c r="D26" s="0">
-        <v>53413</v>
+        <v>87985</v>
       </c>
       <c r="E26" s="0">
-        <v>50139</v>
+        <v>74241</v>
       </c>
     </row>
     <row r="27">
@@ -628,16 +642,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>47990</v>
+        <v>98566</v>
       </c>
       <c r="C27" s="0">
-        <v>51474</v>
+        <v>98572</v>
       </c>
       <c r="D27" s="0">
-        <v>57929</v>
+        <v>91253</v>
       </c>
       <c r="E27" s="0">
-        <v>51255</v>
+        <v>77067</v>
       </c>
     </row>
     <row r="28">
@@ -645,16 +659,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>49393</v>
+        <v>102531</v>
       </c>
       <c r="C28" s="0">
-        <v>51961</v>
+        <v>101920</v>
       </c>
       <c r="D28" s="0">
-        <v>59570</v>
+        <v>94892</v>
       </c>
       <c r="E28" s="0">
-        <v>53614</v>
+        <v>80218</v>
       </c>
     </row>
     <row r="29">
@@ -662,16 +676,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>51719</v>
+        <v>105988</v>
       </c>
       <c r="C29" s="0">
-        <v>57883</v>
+        <v>106174</v>
       </c>
       <c r="D29" s="0">
-        <v>61612</v>
+        <v>97837</v>
       </c>
       <c r="E29" s="0">
-        <v>56751</v>
+        <v>83125</v>
       </c>
     </row>
     <row r="30">
@@ -679,16 +693,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>53491</v>
+        <v>109606</v>
       </c>
       <c r="C30" s="0">
-        <v>57542</v>
+        <v>109622</v>
       </c>
       <c r="D30" s="0">
-        <v>61848</v>
+        <v>101832</v>
       </c>
       <c r="E30" s="0">
-        <v>57878</v>
+        <v>86606</v>
       </c>
     </row>
     <row r="31">
@@ -696,16 +710,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>56501</v>
+        <v>113673</v>
       </c>
       <c r="C31" s="0">
-        <v>60879</v>
+        <v>113875</v>
       </c>
       <c r="D31" s="0">
-        <v>65159</v>
+        <v>105253</v>
       </c>
       <c r="E31" s="0">
-        <v>64588</v>
+        <v>88779</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +727,1087 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3791</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3886</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3506</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0">
+        <v>6567</v>
+      </c>
+      <c r="C3" s="0">
+        <v>6418</v>
+      </c>
+      <c r="D3" s="0">
+        <v>6009</v>
+      </c>
+      <c r="E3" s="0">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0">
+        <v>10501</v>
+      </c>
+      <c r="C4" s="0">
+        <v>10620</v>
+      </c>
+      <c r="D4" s="0">
+        <v>9713</v>
+      </c>
+      <c r="E4" s="0">
+        <v>8447</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0">
+        <v>13392</v>
+      </c>
+      <c r="C5" s="0">
+        <v>13114</v>
+      </c>
+      <c r="D5" s="0">
+        <v>12238</v>
+      </c>
+      <c r="E5" s="0">
+        <v>10204</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0">
+        <v>16632</v>
+      </c>
+      <c r="C6" s="0">
+        <v>16699</v>
+      </c>
+      <c r="D6" s="0">
+        <v>15394</v>
+      </c>
+      <c r="E6" s="0">
+        <v>13146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0">
+        <v>18152</v>
+      </c>
+      <c r="C7" s="0">
+        <v>18158</v>
+      </c>
+      <c r="D7" s="0">
+        <v>16609</v>
+      </c>
+      <c r="E7" s="0">
+        <v>14106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0">
+        <v>21602</v>
+      </c>
+      <c r="C8" s="0">
+        <v>21760</v>
+      </c>
+      <c r="D8" s="0">
+        <v>20249</v>
+      </c>
+      <c r="E8" s="0">
+        <v>17001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0">
+        <v>23051</v>
+      </c>
+      <c r="C9" s="0">
+        <v>22558</v>
+      </c>
+      <c r="D9" s="0">
+        <v>21146</v>
+      </c>
+      <c r="E9" s="0">
+        <v>17852</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0">
+        <v>25328</v>
+      </c>
+      <c r="C10" s="0">
+        <v>25104</v>
+      </c>
+      <c r="D10" s="0">
+        <v>23591</v>
+      </c>
+      <c r="E10" s="0">
+        <v>19817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0">
+        <v>26249</v>
+      </c>
+      <c r="C11" s="0">
+        <v>25998</v>
+      </c>
+      <c r="D11" s="0">
+        <v>24301</v>
+      </c>
+      <c r="E11" s="0">
+        <v>20245</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0">
+        <v>29473</v>
+      </c>
+      <c r="C12" s="0">
+        <v>29241</v>
+      </c>
+      <c r="D12" s="0">
+        <v>27367</v>
+      </c>
+      <c r="E12" s="0">
+        <v>23210</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0">
+        <v>29226</v>
+      </c>
+      <c r="C13" s="0">
+        <v>29040</v>
+      </c>
+      <c r="D13" s="0">
+        <v>26900</v>
+      </c>
+      <c r="E13" s="0">
+        <v>22785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0">
+        <v>32523</v>
+      </c>
+      <c r="C14" s="0">
+        <v>32695</v>
+      </c>
+      <c r="D14" s="0">
+        <v>30204</v>
+      </c>
+      <c r="E14" s="0">
+        <v>25525</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0">
+        <v>31672</v>
+      </c>
+      <c r="C15" s="0">
+        <v>31774</v>
+      </c>
+      <c r="D15" s="0">
+        <v>29442</v>
+      </c>
+      <c r="E15" s="0">
+        <v>24785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0">
+        <v>35266</v>
+      </c>
+      <c r="C16" s="0">
+        <v>35122</v>
+      </c>
+      <c r="D16" s="0">
+        <v>32458</v>
+      </c>
+      <c r="E16" s="0">
+        <v>27633</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0">
+        <v>35548</v>
+      </c>
+      <c r="C17" s="0">
+        <v>35446</v>
+      </c>
+      <c r="D17" s="0">
+        <v>33093</v>
+      </c>
+      <c r="E17" s="0">
+        <v>27645</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0">
+        <v>37239</v>
+      </c>
+      <c r="C18" s="0">
+        <v>37037</v>
+      </c>
+      <c r="D18" s="0">
+        <v>34535</v>
+      </c>
+      <c r="E18" s="0">
+        <v>29152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="0">
+        <v>38095</v>
+      </c>
+      <c r="C19" s="0">
+        <v>38174</v>
+      </c>
+      <c r="D19" s="0">
+        <v>35221</v>
+      </c>
+      <c r="E19" s="0">
+        <v>29994</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0">
+        <v>38888</v>
+      </c>
+      <c r="C20" s="0">
+        <v>38836</v>
+      </c>
+      <c r="D20" s="0">
+        <v>35798</v>
+      </c>
+      <c r="E20" s="0">
+        <v>30679</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0">
+        <v>40740</v>
+      </c>
+      <c r="C21" s="0">
+        <v>40974</v>
+      </c>
+      <c r="D21" s="0">
+        <v>37927</v>
+      </c>
+      <c r="E21" s="0">
+        <v>32285</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="0">
+        <v>40024</v>
+      </c>
+      <c r="C22" s="0">
+        <v>40383</v>
+      </c>
+      <c r="D22" s="0">
+        <v>37416</v>
+      </c>
+      <c r="E22" s="0">
+        <v>31958</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="0">
+        <v>42196</v>
+      </c>
+      <c r="C23" s="0">
+        <v>41653</v>
+      </c>
+      <c r="D23" s="0">
+        <v>38790</v>
+      </c>
+      <c r="E23" s="0">
+        <v>32729</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0">
+        <v>42821</v>
+      </c>
+      <c r="C24" s="0">
+        <v>43122</v>
+      </c>
+      <c r="D24" s="0">
+        <v>39748</v>
+      </c>
+      <c r="E24" s="0">
+        <v>33533</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="0">
+        <v>43243</v>
+      </c>
+      <c r="C25" s="0">
+        <v>43641</v>
+      </c>
+      <c r="D25" s="0">
+        <v>39807</v>
+      </c>
+      <c r="E25" s="0">
+        <v>34287</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="0">
+        <v>44532</v>
+      </c>
+      <c r="C26" s="0">
+        <v>45052</v>
+      </c>
+      <c r="D26" s="0">
+        <v>41775</v>
+      </c>
+      <c r="E26" s="0">
+        <v>35057</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="0">
+        <v>44313</v>
+      </c>
+      <c r="C27" s="0">
+        <v>44396</v>
+      </c>
+      <c r="D27" s="0">
+        <v>41547</v>
+      </c>
+      <c r="E27" s="0">
+        <v>34524</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="0">
+        <v>45437</v>
+      </c>
+      <c r="C28" s="0">
+        <v>45455</v>
+      </c>
+      <c r="D28" s="0">
+        <v>42095</v>
+      </c>
+      <c r="E28" s="0">
+        <v>35484</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="0">
+        <v>45021</v>
+      </c>
+      <c r="C29" s="0">
+        <v>44912</v>
+      </c>
+      <c r="D29" s="0">
+        <v>41474</v>
+      </c>
+      <c r="E29" s="0">
+        <v>35312</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="0">
+        <v>46677</v>
+      </c>
+      <c r="C30" s="0">
+        <v>46500</v>
+      </c>
+      <c r="D30" s="0">
+        <v>43141</v>
+      </c>
+      <c r="E30" s="0">
+        <v>36552</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="0">
+        <v>45788</v>
+      </c>
+      <c r="C31" s="0">
+        <v>45962</v>
+      </c>
+      <c r="D31" s="0">
+        <v>42517</v>
+      </c>
+      <c r="E31" s="0">
+        <v>36028</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2118</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1943</v>
+      </c>
+      <c r="D2" s="0">
+        <v>2216</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0">
+        <v>4495</v>
+      </c>
+      <c r="C3" s="0">
+        <v>4532</v>
+      </c>
+      <c r="D3" s="0">
+        <v>4356</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0">
+        <v>6527</v>
+      </c>
+      <c r="C4" s="0">
+        <v>5868</v>
+      </c>
+      <c r="D4" s="0">
+        <v>5723</v>
+      </c>
+      <c r="E4" s="0">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0">
+        <v>8778</v>
+      </c>
+      <c r="C5" s="0">
+        <v>8398</v>
+      </c>
+      <c r="D5" s="0">
+        <v>7611</v>
+      </c>
+      <c r="E5" s="0">
+        <v>7499</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0">
+        <v>11043</v>
+      </c>
+      <c r="C6" s="0">
+        <v>11234</v>
+      </c>
+      <c r="D6" s="0">
+        <v>9578</v>
+      </c>
+      <c r="E6" s="0">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0">
+        <v>13307</v>
+      </c>
+      <c r="C7" s="0">
+        <v>13544</v>
+      </c>
+      <c r="D7" s="0">
+        <v>11224</v>
+      </c>
+      <c r="E7" s="0">
+        <v>10583</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0">
+        <v>13338</v>
+      </c>
+      <c r="C8" s="0">
+        <v>13505</v>
+      </c>
+      <c r="D8" s="0">
+        <v>13831</v>
+      </c>
+      <c r="E8" s="0">
+        <v>11770</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0">
+        <v>15853</v>
+      </c>
+      <c r="C9" s="0">
+        <v>17897</v>
+      </c>
+      <c r="D9" s="0">
+        <v>16121</v>
+      </c>
+      <c r="E9" s="0">
+        <v>13934</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0">
+        <v>19619</v>
+      </c>
+      <c r="C10" s="0">
+        <v>18877</v>
+      </c>
+      <c r="D10" s="0">
+        <v>17476</v>
+      </c>
+      <c r="E10" s="0">
+        <v>13671</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0">
+        <v>22748</v>
+      </c>
+      <c r="C11" s="0">
+        <v>20317</v>
+      </c>
+      <c r="D11" s="0">
+        <v>19229</v>
+      </c>
+      <c r="E11" s="0">
+        <v>16105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0">
+        <v>24957</v>
+      </c>
+      <c r="C12" s="0">
+        <v>23094</v>
+      </c>
+      <c r="D12" s="0">
+        <v>21767</v>
+      </c>
+      <c r="E12" s="0">
+        <v>19755</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0">
+        <v>26175</v>
+      </c>
+      <c r="C13" s="0">
+        <v>26387</v>
+      </c>
+      <c r="D13" s="0">
+        <v>22719</v>
+      </c>
+      <c r="E13" s="0">
+        <v>19974</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0">
+        <v>26465</v>
+      </c>
+      <c r="C14" s="0">
+        <v>26229</v>
+      </c>
+      <c r="D14" s="0">
+        <v>25928</v>
+      </c>
+      <c r="E14" s="0">
+        <v>21349</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0">
+        <v>28989</v>
+      </c>
+      <c r="C15" s="0">
+        <v>28434</v>
+      </c>
+      <c r="D15" s="0">
+        <v>28085</v>
+      </c>
+      <c r="E15" s="0">
+        <v>24253</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0">
+        <v>32510</v>
+      </c>
+      <c r="C16" s="0">
+        <v>30790</v>
+      </c>
+      <c r="D16" s="0">
+        <v>28335</v>
+      </c>
+      <c r="E16" s="0">
+        <v>24873</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0">
+        <v>32601</v>
+      </c>
+      <c r="C17" s="0">
+        <v>33116</v>
+      </c>
+      <c r="D17" s="0">
+        <v>31450</v>
+      </c>
+      <c r="E17" s="0">
+        <v>27377</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0">
+        <v>38339</v>
+      </c>
+      <c r="C18" s="0">
+        <v>35270</v>
+      </c>
+      <c r="D18" s="0">
+        <v>36335</v>
+      </c>
+      <c r="E18" s="0">
+        <v>26653</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="0">
+        <v>39719</v>
+      </c>
+      <c r="C19" s="0">
+        <v>40964</v>
+      </c>
+      <c r="D19" s="0">
+        <v>34013</v>
+      </c>
+      <c r="E19" s="0">
+        <v>30563</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0">
+        <v>39273</v>
+      </c>
+      <c r="C20" s="0">
+        <v>41373</v>
+      </c>
+      <c r="D20" s="0">
+        <v>39036</v>
+      </c>
+      <c r="E20" s="0">
+        <v>33594</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0">
+        <v>42909</v>
+      </c>
+      <c r="C21" s="0">
+        <v>43715</v>
+      </c>
+      <c r="D21" s="0">
+        <v>39681</v>
+      </c>
+      <c r="E21" s="0">
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="0">
+        <v>47191</v>
+      </c>
+      <c r="C22" s="0">
+        <v>46144</v>
+      </c>
+      <c r="D22" s="0">
+        <v>40408</v>
+      </c>
+      <c r="E22" s="0">
+        <v>35009</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="0">
+        <v>46877</v>
+      </c>
+      <c r="C23" s="0">
+        <v>45965</v>
+      </c>
+      <c r="D23" s="0">
+        <v>44314</v>
+      </c>
+      <c r="E23" s="0">
+        <v>37973</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0">
+        <v>48386</v>
+      </c>
+      <c r="C24" s="0">
+        <v>49705</v>
+      </c>
+      <c r="D24" s="0">
+        <v>43470</v>
+      </c>
+      <c r="E24" s="0">
+        <v>38917</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="0">
+        <v>52119</v>
+      </c>
+      <c r="C25" s="0">
+        <v>51968</v>
+      </c>
+      <c r="D25" s="0">
+        <v>48816</v>
+      </c>
+      <c r="E25" s="0">
+        <v>40643</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="0">
+        <v>52163</v>
+      </c>
+      <c r="C26" s="0">
+        <v>54169</v>
+      </c>
+      <c r="D26" s="0">
+        <v>49317</v>
+      </c>
+      <c r="E26" s="0">
+        <v>42852</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="0">
+        <v>55533</v>
+      </c>
+      <c r="C27" s="0">
+        <v>55666</v>
+      </c>
+      <c r="D27" s="0">
+        <v>54076</v>
+      </c>
+      <c r="E27" s="0">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="0">
+        <v>57372</v>
+      </c>
+      <c r="C28" s="0">
+        <v>56329</v>
+      </c>
+      <c r="D28" s="0">
+        <v>55281</v>
+      </c>
+      <c r="E28" s="0">
+        <v>45556</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="0">
+        <v>60953</v>
+      </c>
+      <c r="C29" s="0">
+        <v>61868</v>
+      </c>
+      <c r="D29" s="0">
+        <v>56923</v>
+      </c>
+      <c r="E29" s="0">
+        <v>48221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="0">
+        <v>61566</v>
+      </c>
+      <c r="C30" s="0">
+        <v>63148</v>
+      </c>
+      <c r="D30" s="0">
+        <v>57601</v>
+      </c>
+      <c r="E30" s="0">
+        <v>48444</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="0">
+        <v>64761</v>
+      </c>
+      <c r="C31" s="0">
+        <v>67593</v>
+      </c>
+      <c r="D31" s="0">
+        <v>60003</v>
+      </c>
+      <c r="E31" s="0">
+        <v>54770</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -723,30 +1817,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>749879</v>
+        <v>953987</v>
       </c>
       <c r="B2" s="0">
-        <v>885663</v>
+        <v>953730</v>
       </c>
       <c r="C2" s="0">
-        <v>884181</v>
+        <v>884011</v>
       </c>
       <c r="D2" s="0">
-        <v>1020137</v>
+        <v>748132</v>
       </c>
     </row>
   </sheetData>

--- a/DataAgregation/age-clusters.xlsx
+++ b/DataAgregation/age-clusters.xlsx
@@ -5,28 +5,28 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="DAU" sheetId="12" r:id="rId18"/>
-    <sheet name="New Users" sheetId="13" r:id="rId20"/>
-    <sheet name="Revenue" sheetId="14" r:id="rId21"/>
-    <sheet name="MAU" sheetId="15" r:id="rId22"/>
+    <sheet name="DAU" sheetId="24" r:id="rId33"/>
+    <sheet name="New Users" sheetId="25" r:id="rId35"/>
+    <sheet name="Revenue" sheetId="26" r:id="rId36"/>
+    <sheet name="MAU" sheetId="27" r:id="rId38"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>13-25</t>
-  </si>
-  <si>
-    <t>26-39</t>
-  </si>
-  <si>
-    <t>40-52</t>
+    <t>13-24</t>
+  </si>
+  <si>
+    <t>25-38</t>
+  </si>
+  <si>
+    <t>39-52</t>
   </si>
   <si>
     <t>53-64</t>
@@ -120,18 +120,6 @@
   </si>
   <si>
     <t>30.01.2018</t>
-  </si>
-  <si>
-    <t>13-23</t>
-  </si>
-  <si>
-    <t>24-36</t>
-  </si>
-  <si>
-    <t>37-49</t>
-  </si>
-  <si>
-    <t>50-64</t>
   </si>
   <si>
     <t>13-26</t>
@@ -187,7 +175,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -200,16 +188,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -727,7 +715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -740,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -1267,7 +1255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -1280,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -1297,16 +1285,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>2118</v>
+        <v>1814</v>
       </c>
       <c r="C2" s="0">
-        <v>1943</v>
+        <v>1988</v>
       </c>
       <c r="D2" s="0">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="E2" s="0">
-        <v>1881</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="3">
@@ -1314,16 +1302,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>4495</v>
+        <v>3858</v>
       </c>
       <c r="C3" s="0">
-        <v>4532</v>
+        <v>4634</v>
       </c>
       <c r="D3" s="0">
-        <v>4356</v>
+        <v>4614</v>
       </c>
       <c r="E3" s="0">
-        <v>3076</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="4">
@@ -1331,16 +1319,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>6527</v>
+        <v>5371</v>
       </c>
       <c r="C4" s="0">
-        <v>5868</v>
+        <v>6149</v>
       </c>
       <c r="D4" s="0">
-        <v>5723</v>
+        <v>6108</v>
       </c>
       <c r="E4" s="0">
-        <v>4733</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="5">
@@ -1348,16 +1336,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>8778</v>
+        <v>8003</v>
       </c>
       <c r="C5" s="0">
-        <v>8398</v>
+        <v>8159</v>
       </c>
       <c r="D5" s="0">
-        <v>7611</v>
+        <v>8068</v>
       </c>
       <c r="E5" s="0">
-        <v>7499</v>
+        <v>8056</v>
       </c>
     </row>
     <row r="6">
@@ -1365,16 +1353,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>11043</v>
+        <v>9475</v>
       </c>
       <c r="C6" s="0">
-        <v>11234</v>
+        <v>11190</v>
       </c>
       <c r="D6" s="0">
-        <v>9578</v>
+        <v>10526</v>
       </c>
       <c r="E6" s="0">
-        <v>8472</v>
+        <v>9136</v>
       </c>
     </row>
     <row r="7">
@@ -1382,16 +1370,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>13307</v>
+        <v>11365</v>
       </c>
       <c r="C7" s="0">
-        <v>13544</v>
+        <v>14003</v>
       </c>
       <c r="D7" s="0">
-        <v>11224</v>
+        <v>11535</v>
       </c>
       <c r="E7" s="0">
-        <v>10583</v>
+        <v>11755</v>
       </c>
     </row>
     <row r="8">
@@ -1399,16 +1387,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>13338</v>
+        <v>11545</v>
       </c>
       <c r="C8" s="0">
-        <v>13505</v>
+        <v>13527</v>
       </c>
       <c r="D8" s="0">
-        <v>13831</v>
+        <v>14331</v>
       </c>
       <c r="E8" s="0">
-        <v>11770</v>
+        <v>13041</v>
       </c>
     </row>
     <row r="9">
@@ -1416,16 +1404,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>15853</v>
+        <v>13874</v>
       </c>
       <c r="C9" s="0">
-        <v>17897</v>
+        <v>17162</v>
       </c>
       <c r="D9" s="0">
-        <v>16121</v>
+        <v>17332</v>
       </c>
       <c r="E9" s="0">
-        <v>13934</v>
+        <v>15437</v>
       </c>
     </row>
     <row r="10">
@@ -1433,16 +1421,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>19619</v>
+        <v>16245</v>
       </c>
       <c r="C10" s="0">
-        <v>18877</v>
+        <v>19649</v>
       </c>
       <c r="D10" s="0">
-        <v>17476</v>
+        <v>19033</v>
       </c>
       <c r="E10" s="0">
-        <v>13671</v>
+        <v>14716</v>
       </c>
     </row>
     <row r="11">
@@ -1450,16 +1438,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>22748</v>
+        <v>19136</v>
       </c>
       <c r="C11" s="0">
-        <v>20317</v>
+        <v>20676</v>
       </c>
       <c r="D11" s="0">
-        <v>19229</v>
+        <v>21334</v>
       </c>
       <c r="E11" s="0">
-        <v>16105</v>
+        <v>17253</v>
       </c>
     </row>
     <row r="12">
@@ -1467,16 +1455,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>24957</v>
+        <v>21625</v>
       </c>
       <c r="C12" s="0">
-        <v>23094</v>
+        <v>23426</v>
       </c>
       <c r="D12" s="0">
-        <v>21767</v>
+        <v>22869</v>
       </c>
       <c r="E12" s="0">
-        <v>19755</v>
+        <v>21653</v>
       </c>
     </row>
     <row r="13">
@@ -1484,16 +1472,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>26175</v>
+        <v>22608</v>
       </c>
       <c r="C13" s="0">
-        <v>26387</v>
+        <v>26218</v>
       </c>
       <c r="D13" s="0">
-        <v>22719</v>
+        <v>25077</v>
       </c>
       <c r="E13" s="0">
-        <v>19974</v>
+        <v>21352</v>
       </c>
     </row>
     <row r="14">
@@ -1501,16 +1489,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>26465</v>
+        <v>22981</v>
       </c>
       <c r="C14" s="0">
-        <v>26229</v>
+        <v>25777</v>
       </c>
       <c r="D14" s="0">
-        <v>25928</v>
+        <v>27485</v>
       </c>
       <c r="E14" s="0">
-        <v>21349</v>
+        <v>23728</v>
       </c>
     </row>
     <row r="15">
@@ -1518,16 +1506,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>28989</v>
+        <v>24850</v>
       </c>
       <c r="C15" s="0">
-        <v>28434</v>
+        <v>28469</v>
       </c>
       <c r="D15" s="0">
-        <v>28085</v>
+        <v>29964</v>
       </c>
       <c r="E15" s="0">
-        <v>24253</v>
+        <v>26478</v>
       </c>
     </row>
     <row r="16">
@@ -1535,16 +1523,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>32510</v>
+        <v>27991</v>
       </c>
       <c r="C16" s="0">
-        <v>30790</v>
+        <v>30257</v>
       </c>
       <c r="D16" s="0">
-        <v>28335</v>
+        <v>31238</v>
       </c>
       <c r="E16" s="0">
-        <v>24873</v>
+        <v>27022</v>
       </c>
     </row>
     <row r="17">
@@ -1552,16 +1540,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>32601</v>
+        <v>28260</v>
       </c>
       <c r="C17" s="0">
-        <v>33116</v>
+        <v>32795</v>
       </c>
       <c r="D17" s="0">
-        <v>31450</v>
+        <v>34141</v>
       </c>
       <c r="E17" s="0">
-        <v>27377</v>
+        <v>29348</v>
       </c>
     </row>
     <row r="18">
@@ -1569,16 +1557,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>38339</v>
+        <v>33646</v>
       </c>
       <c r="C18" s="0">
-        <v>35270</v>
+        <v>35554</v>
       </c>
       <c r="D18" s="0">
-        <v>36335</v>
+        <v>37675</v>
       </c>
       <c r="E18" s="0">
-        <v>26653</v>
+        <v>29722</v>
       </c>
     </row>
     <row r="19">
@@ -1586,16 +1574,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>39719</v>
+        <v>34595</v>
       </c>
       <c r="C19" s="0">
-        <v>40964</v>
+        <v>40595</v>
       </c>
       <c r="D19" s="0">
-        <v>34013</v>
+        <v>37125</v>
       </c>
       <c r="E19" s="0">
-        <v>30563</v>
+        <v>32944</v>
       </c>
     </row>
     <row r="20">
@@ -1603,16 +1591,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>39273</v>
+        <v>34141</v>
       </c>
       <c r="C20" s="0">
-        <v>41373</v>
+        <v>40661</v>
       </c>
       <c r="D20" s="0">
-        <v>39036</v>
+        <v>42326</v>
       </c>
       <c r="E20" s="0">
-        <v>33594</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="21">
@@ -1620,16 +1608,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>42909</v>
+        <v>36586</v>
       </c>
       <c r="C21" s="0">
-        <v>43715</v>
+        <v>44057</v>
       </c>
       <c r="D21" s="0">
-        <v>39681</v>
+        <v>42470</v>
       </c>
       <c r="E21" s="0">
-        <v>34100</v>
+        <v>37292</v>
       </c>
     </row>
     <row r="22">
@@ -1637,16 +1625,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>47191</v>
+        <v>40775</v>
       </c>
       <c r="C22" s="0">
-        <v>46144</v>
+        <v>45303</v>
       </c>
       <c r="D22" s="0">
-        <v>40408</v>
+        <v>44598</v>
       </c>
       <c r="E22" s="0">
-        <v>35009</v>
+        <v>38076</v>
       </c>
     </row>
     <row r="23">
@@ -1654,16 +1642,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>46877</v>
+        <v>40885</v>
       </c>
       <c r="C23" s="0">
-        <v>45965</v>
+        <v>44304</v>
       </c>
       <c r="D23" s="0">
-        <v>44314</v>
+        <v>49117</v>
       </c>
       <c r="E23" s="0">
-        <v>37973</v>
+        <v>40823</v>
       </c>
     </row>
     <row r="24">
@@ -1671,16 +1659,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>48386</v>
+        <v>41177</v>
       </c>
       <c r="C24" s="0">
-        <v>49705</v>
+        <v>50020</v>
       </c>
       <c r="D24" s="0">
-        <v>43470</v>
+        <v>46553</v>
       </c>
       <c r="E24" s="0">
-        <v>38917</v>
+        <v>42728</v>
       </c>
     </row>
     <row r="25">
@@ -1688,16 +1676,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>52119</v>
+        <v>45135</v>
       </c>
       <c r="C25" s="0">
-        <v>51968</v>
+        <v>51127</v>
       </c>
       <c r="D25" s="0">
-        <v>48816</v>
+        <v>53057</v>
       </c>
       <c r="E25" s="0">
-        <v>40643</v>
+        <v>44227</v>
       </c>
     </row>
     <row r="26">
@@ -1705,16 +1693,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>52163</v>
+        <v>45115</v>
       </c>
       <c r="C26" s="0">
-        <v>54169</v>
+        <v>53853</v>
       </c>
       <c r="D26" s="0">
-        <v>49317</v>
+        <v>52998</v>
       </c>
       <c r="E26" s="0">
-        <v>42852</v>
+        <v>46535</v>
       </c>
     </row>
     <row r="27">
@@ -1722,16 +1710,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>55533</v>
+        <v>47990</v>
       </c>
       <c r="C27" s="0">
-        <v>55666</v>
+        <v>55380</v>
       </c>
       <c r="D27" s="0">
-        <v>54076</v>
+        <v>58141</v>
       </c>
       <c r="E27" s="0">
-        <v>43373</v>
+        <v>47137</v>
       </c>
     </row>
     <row r="28">
@@ -1739,16 +1727,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>57372</v>
+        <v>49393</v>
       </c>
       <c r="C28" s="0">
-        <v>56329</v>
+        <v>56084</v>
       </c>
       <c r="D28" s="0">
-        <v>55281</v>
+        <v>59512</v>
       </c>
       <c r="E28" s="0">
-        <v>45556</v>
+        <v>49549</v>
       </c>
     </row>
     <row r="29">
@@ -1756,16 +1744,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>60953</v>
+        <v>51719</v>
       </c>
       <c r="C29" s="0">
-        <v>61868</v>
+        <v>62125</v>
       </c>
       <c r="D29" s="0">
-        <v>56923</v>
+        <v>61858</v>
       </c>
       <c r="E29" s="0">
-        <v>48221</v>
+        <v>52263</v>
       </c>
     </row>
     <row r="30">
@@ -1773,16 +1761,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>61566</v>
+        <v>53491</v>
       </c>
       <c r="C30" s="0">
-        <v>63148</v>
+        <v>62242</v>
       </c>
       <c r="D30" s="0">
-        <v>57601</v>
+        <v>62005</v>
       </c>
       <c r="E30" s="0">
-        <v>48444</v>
+        <v>53021</v>
       </c>
     </row>
     <row r="31">
@@ -1790,16 +1778,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>64761</v>
+        <v>56501</v>
       </c>
       <c r="C31" s="0">
-        <v>67593</v>
+        <v>65772</v>
       </c>
       <c r="D31" s="0">
-        <v>60003</v>
+        <v>65187</v>
       </c>
       <c r="E31" s="0">
-        <v>54770</v>
+        <v>59667</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +1795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1817,30 +1805,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>953987</v>
+        <v>818063</v>
       </c>
       <c r="B2" s="0">
-        <v>953730</v>
+        <v>953926</v>
       </c>
       <c r="C2" s="0">
-        <v>884011</v>
+        <v>951615</v>
       </c>
       <c r="D2" s="0">
-        <v>748132</v>
+        <v>816256</v>
       </c>
     </row>
   </sheetData>

--- a/DataAgregation/age-clusters.xlsx
+++ b/DataAgregation/age-clusters.xlsx
@@ -9,13 +9,14 @@
     <sheet name="New Users" sheetId="25" r:id="rId35"/>
     <sheet name="Revenue" sheetId="26" r:id="rId36"/>
     <sheet name="MAU" sheetId="27" r:id="rId38"/>
+    <sheet name="Items Statistic" sheetId="28" r:id="rId39"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Date</t>
   </si>
@@ -132,6 +133,369 @@
   </si>
   <si>
     <t>54-64</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>13-23</t>
+  </si>
+  <si>
+    <t>24-36</t>
+  </si>
+  <si>
+    <t>37-49</t>
+  </si>
+  <si>
+    <t>50-64</t>
+  </si>
+  <si>
+    <t>A Pony</t>
+  </si>
+  <si>
+    <t>Anarchist Cookbook</t>
+  </si>
+  <si>
+    <t>Best Friend</t>
+  </si>
+  <si>
+    <t>Black Hole</t>
+  </si>
+  <si>
+    <t>Blank Card</t>
+  </si>
+  <si>
+    <t>Blood Rights</t>
+  </si>
+  <si>
+    <t>Book of Revelations</t>
+  </si>
+  <si>
+    <t>Book of Secrets</t>
+  </si>
+  <si>
+    <t>Book of Shadows</t>
+  </si>
+  <si>
+    <t>Book of the Dead</t>
+  </si>
+  <si>
+    <t>Box of Friends</t>
+  </si>
+  <si>
+    <t>Box of Spiders</t>
+  </si>
+  <si>
+    <t>Breath of Life</t>
+  </si>
+  <si>
+    <t>Broken Shovel</t>
+  </si>
+  <si>
+    <t>Brown Nugget</t>
+  </si>
+  <si>
+    <t>Butter Bean</t>
+  </si>
+  <si>
+    <t>Clicker</t>
+  </si>
+  <si>
+    <t>Compost</t>
+  </si>
+  <si>
+    <t>Converter</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>Crack the Sky</t>
+  </si>
+  <si>
+    <t>Crooked Penny</t>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+  </si>
+  <si>
+    <t>D Infinity</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D100</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>Dads Key</t>
+  </si>
+  <si>
+    <t>Dataminer</t>
+  </si>
+  <si>
+    <t>Dead Sea Scrolls</t>
+  </si>
+  <si>
+    <t>Deck of Cards</t>
+  </si>
+  <si>
+    <t>Delirious</t>
+  </si>
+  <si>
+    <t>Diplopia</t>
+  </si>
+  <si>
+    <t>Doctors Remote</t>
+  </si>
+  <si>
+    <t>Dull Razor</t>
+  </si>
+  <si>
+    <t>Edens Soul</t>
+  </si>
+  <si>
+    <t>Flush!</t>
+  </si>
+  <si>
+    <t>Forget Me Now</t>
+  </si>
+  <si>
+    <t>Friendly Ball</t>
+  </si>
+  <si>
+    <t>Glass Cannon</t>
+  </si>
+  <si>
+    <t>Glowing Hour Glass</t>
+  </si>
+  <si>
+    <t>Guppys Head</t>
+  </si>
+  <si>
+    <t>Guppys Paw</t>
+  </si>
+  <si>
+    <t>Head of Krampus</t>
+  </si>
+  <si>
+    <t>How to Jump</t>
+  </si>
+  <si>
+    <t>IV Bag</t>
+  </si>
+  <si>
+    <t>Jar of Flies</t>
+  </si>
+  <si>
+    <t>Kamikaze!</t>
+  </si>
+  <si>
+    <t>Kidney Bean</t>
+  </si>
+  <si>
+    <t>Lemon Mishap</t>
+  </si>
+  <si>
+    <t>Magic Fingers</t>
+  </si>
+  <si>
+    <t>Mama Mega!</t>
+  </si>
+  <si>
+    <t>Mega Bean</t>
+  </si>
+  <si>
+    <t>Mega Blast</t>
+  </si>
+  <si>
+    <t>Metronome</t>
+  </si>
+  <si>
+    <t>Mine Crafter</t>
+  </si>
+  <si>
+    <t>Moms Bottle of Pills</t>
+  </si>
+  <si>
+    <t>Moms Box</t>
+  </si>
+  <si>
+    <t>Moms Shovel</t>
+  </si>
+  <si>
+    <t>Monster Manual</t>
+  </si>
+  <si>
+    <t>Monstros Tooth</t>
+  </si>
+  <si>
+    <t>Moving Box</t>
+  </si>
+  <si>
+    <t>Mr. Boom</t>
+  </si>
+  <si>
+    <t>Mr. ME!</t>
+  </si>
+  <si>
+    <t>My Little Unicorn</t>
+  </si>
+  <si>
+    <t>Mystery Gift</t>
+  </si>
+  <si>
+    <t>Notched Axe</t>
+  </si>
+  <si>
+    <t>Pandoras Box</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Placebo</t>
+  </si>
+  <si>
+    <t>Plan C</t>
+  </si>
+  <si>
+    <t>Portable Slot</t>
+  </si>
+  <si>
+    <t>Potato Peeler</t>
+  </si>
+  <si>
+    <t>Prayer Card</t>
+  </si>
+  <si>
+    <t>Razor Blade</t>
+  </si>
+  <si>
+    <t>Remote Detonator</t>
+  </si>
+  <si>
+    <t>Sacrificial Altar</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>Sharp Straw</t>
+  </si>
+  <si>
+    <t>Shoop Da Whoop!</t>
+  </si>
+  <si>
+    <t>Sprinkler</t>
+  </si>
+  <si>
+    <t>Tammys Head</t>
+  </si>
+  <si>
+    <t>Tear Detonator</t>
+  </si>
+  <si>
+    <t>Telekinesis</t>
+  </si>
+  <si>
+    <t>Telepathy for Dummies</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Teleport 2.0</t>
+  </si>
+  <si>
+    <t>The Bean</t>
+  </si>
+  <si>
+    <t>The Book of Belial</t>
+  </si>
+  <si>
+    <t>The Book of Sin</t>
+  </si>
+  <si>
+    <t>The Boomerang</t>
+  </si>
+  <si>
+    <t>The Candle</t>
+  </si>
+  <si>
+    <t>The D6</t>
+  </si>
+  <si>
+    <t>The Gamekid</t>
+  </si>
+  <si>
+    <t>The Hourglass</t>
+  </si>
+  <si>
+    <t>The Jar</t>
+  </si>
+  <si>
+    <t>The Nail</t>
+  </si>
+  <si>
+    <t>The Necronomicon</t>
+  </si>
+  <si>
+    <t>The Pinking Shears</t>
+  </si>
+  <si>
+    <t>Undefined</t>
+  </si>
+  <si>
+    <t>Unicorn Stump</t>
+  </si>
+  <si>
+    <t>Ventricle Razor</t>
+  </si>
+  <si>
+    <t>Void</t>
+  </si>
+  <si>
+    <t>Wait What?</t>
+  </si>
+  <si>
+    <t>We Need to Go Deeper!</t>
+  </si>
+  <si>
+    <t>White Pony</t>
+  </si>
+  <si>
+    <t>Wooden Nickel</t>
+  </si>
+  <si>
+    <t>Yum Heart</t>
   </si>
 </sst>
 </file>
@@ -1834,4 +2198,3703 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:J115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1705</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1966</v>
+      </c>
+      <c r="E3" s="0">
+        <v>2426</v>
+      </c>
+      <c r="F3" s="0">
+        <v>272800</v>
+      </c>
+      <c r="G3" s="0">
+        <v>323040</v>
+      </c>
+      <c r="H3" s="0">
+        <v>314560</v>
+      </c>
+      <c r="I3" s="0">
+        <v>388160</v>
+      </c>
+      <c r="J3" s="0">
+        <v>112514.1443322785</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="0">
+        <v>12041</v>
+      </c>
+      <c r="C4" s="0">
+        <v>13873</v>
+      </c>
+      <c r="D4" s="0">
+        <v>14002</v>
+      </c>
+      <c r="E4" s="0">
+        <v>16098</v>
+      </c>
+      <c r="F4" s="0">
+        <v>120410</v>
+      </c>
+      <c r="G4" s="0">
+        <v>138730</v>
+      </c>
+      <c r="H4" s="0">
+        <v>140020</v>
+      </c>
+      <c r="I4" s="0">
+        <v>160980</v>
+      </c>
+      <c r="J4" s="0">
+        <v>48533.122929872865</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1341</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1627</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1492</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1828</v>
+      </c>
+      <c r="F5" s="0">
+        <v>871650</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1057550</v>
+      </c>
+      <c r="H5" s="0">
+        <v>969800</v>
+      </c>
+      <c r="I5" s="0">
+        <v>1188200</v>
+      </c>
+      <c r="J5" s="0">
+        <v>354134.76436482684</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1347</v>
+      </c>
+      <c r="C6" s="0">
+        <v>1663</v>
+      </c>
+      <c r="D6" s="0">
+        <v>1597</v>
+      </c>
+      <c r="E6" s="0">
+        <v>1923</v>
+      </c>
+      <c r="F6" s="0">
+        <v>686970</v>
+      </c>
+      <c r="G6" s="0">
+        <v>848130</v>
+      </c>
+      <c r="H6" s="0">
+        <v>814470</v>
+      </c>
+      <c r="I6" s="0">
+        <v>980730</v>
+      </c>
+      <c r="J6" s="0">
+        <v>288551.9675669178</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1535</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1841</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1833</v>
+      </c>
+      <c r="E7" s="0">
+        <v>2101</v>
+      </c>
+      <c r="F7" s="0">
+        <v>368400</v>
+      </c>
+      <c r="G7" s="0">
+        <v>441840</v>
+      </c>
+      <c r="H7" s="0">
+        <v>439920</v>
+      </c>
+      <c r="I7" s="0">
+        <v>504240</v>
+      </c>
+      <c r="J7" s="0">
+        <v>152010.7703464421</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2971</v>
+      </c>
+      <c r="C8" s="0">
+        <v>3508</v>
+      </c>
+      <c r="D8" s="0">
+        <v>3497</v>
+      </c>
+      <c r="E8" s="0">
+        <v>4096</v>
+      </c>
+      <c r="F8" s="0">
+        <v>297100</v>
+      </c>
+      <c r="G8" s="0">
+        <v>350800</v>
+      </c>
+      <c r="H8" s="0">
+        <v>349700</v>
+      </c>
+      <c r="I8" s="0">
+        <v>409600</v>
+      </c>
+      <c r="J8" s="0">
+        <v>121927.42312030277</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2300</v>
+      </c>
+      <c r="C9" s="0">
+        <v>2642</v>
+      </c>
+      <c r="D9" s="0">
+        <v>2670</v>
+      </c>
+      <c r="E9" s="0">
+        <v>3080</v>
+      </c>
+      <c r="F9" s="0">
+        <v>276000</v>
+      </c>
+      <c r="G9" s="0">
+        <v>317040</v>
+      </c>
+      <c r="H9" s="0">
+        <v>320400</v>
+      </c>
+      <c r="I9" s="0">
+        <v>369600</v>
+      </c>
+      <c r="J9" s="0">
+        <v>111168.75329949813</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="0">
+        <v>1342</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1555</v>
+      </c>
+      <c r="D10" s="0">
+        <v>1574</v>
+      </c>
+      <c r="E10" s="0">
+        <v>1772</v>
+      </c>
+      <c r="F10" s="0">
+        <v>885720</v>
+      </c>
+      <c r="G10" s="0">
+        <v>1026300</v>
+      </c>
+      <c r="H10" s="0">
+        <v>1038840</v>
+      </c>
+      <c r="I10" s="0">
+        <v>1169520</v>
+      </c>
+      <c r="J10" s="0">
+        <v>357007.142722546</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="0">
+        <v>1362</v>
+      </c>
+      <c r="C11" s="0">
+        <v>1587</v>
+      </c>
+      <c r="D11" s="0">
+        <v>1701</v>
+      </c>
+      <c r="E11" s="0">
+        <v>1864</v>
+      </c>
+      <c r="F11" s="0">
+        <v>681000</v>
+      </c>
+      <c r="G11" s="0">
+        <v>793500</v>
+      </c>
+      <c r="H11" s="0">
+        <v>850500</v>
+      </c>
+      <c r="I11" s="0">
+        <v>932000</v>
+      </c>
+      <c r="J11" s="0">
+        <v>282200.52097981924</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="0">
+        <v>12053</v>
+      </c>
+      <c r="C12" s="0">
+        <v>14129</v>
+      </c>
+      <c r="D12" s="0">
+        <v>14275</v>
+      </c>
+      <c r="E12" s="0">
+        <v>16331</v>
+      </c>
+      <c r="F12" s="0">
+        <v>241060</v>
+      </c>
+      <c r="G12" s="0">
+        <v>282580</v>
+      </c>
+      <c r="H12" s="0">
+        <v>285500</v>
+      </c>
+      <c r="I12" s="0">
+        <v>326620</v>
+      </c>
+      <c r="J12" s="0">
+        <v>98406.91923405693</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2598</v>
+      </c>
+      <c r="C13" s="0">
+        <v>2980</v>
+      </c>
+      <c r="D13" s="0">
+        <v>2860</v>
+      </c>
+      <c r="E13" s="0">
+        <v>3513</v>
+      </c>
+      <c r="F13" s="0">
+        <v>285780</v>
+      </c>
+      <c r="G13" s="0">
+        <v>327800</v>
+      </c>
+      <c r="H13" s="0">
+        <v>314600</v>
+      </c>
+      <c r="I13" s="0">
+        <v>386430</v>
+      </c>
+      <c r="J13" s="0">
+        <v>113904.486794699</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="0">
+        <v>1546</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1889</v>
+      </c>
+      <c r="D14" s="0">
+        <v>1730</v>
+      </c>
+      <c r="E14" s="0">
+        <v>2067</v>
+      </c>
+      <c r="F14" s="0">
+        <v>417420</v>
+      </c>
+      <c r="G14" s="0">
+        <v>510030</v>
+      </c>
+      <c r="H14" s="0">
+        <v>467100</v>
+      </c>
+      <c r="I14" s="0">
+        <v>558090</v>
+      </c>
+      <c r="J14" s="0">
+        <v>169186.66397046918</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="0">
+        <v>1361</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1662</v>
+      </c>
+      <c r="D15" s="0">
+        <v>1612</v>
+      </c>
+      <c r="E15" s="0">
+        <v>1884</v>
+      </c>
+      <c r="F15" s="0">
+        <v>544400</v>
+      </c>
+      <c r="G15" s="0">
+        <v>664800</v>
+      </c>
+      <c r="H15" s="0">
+        <v>644800</v>
+      </c>
+      <c r="I15" s="0">
+        <v>753600</v>
+      </c>
+      <c r="J15" s="0">
+        <v>225937.15397536173</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1402</v>
+      </c>
+      <c r="C16" s="0">
+        <v>1699</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1630</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1850</v>
+      </c>
+      <c r="F16" s="0">
+        <v>588840</v>
+      </c>
+      <c r="G16" s="0">
+        <v>713580</v>
+      </c>
+      <c r="H16" s="0">
+        <v>684600</v>
+      </c>
+      <c r="I16" s="0">
+        <v>777000</v>
+      </c>
+      <c r="J16" s="0">
+        <v>239487.55651262682</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1412</v>
+      </c>
+      <c r="C17" s="0">
+        <v>1664</v>
+      </c>
+      <c r="D17" s="0">
+        <v>1589</v>
+      </c>
+      <c r="E17" s="0">
+        <v>1896</v>
+      </c>
+      <c r="F17" s="0">
+        <v>776600</v>
+      </c>
+      <c r="G17" s="0">
+        <v>915200</v>
+      </c>
+      <c r="H17" s="0">
+        <v>873950</v>
+      </c>
+      <c r="I17" s="0">
+        <v>1042800</v>
+      </c>
+      <c r="J17" s="0">
+        <v>312665.1656831164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="0">
+        <v>8392</v>
+      </c>
+      <c r="C18" s="0">
+        <v>9923</v>
+      </c>
+      <c r="D18" s="0">
+        <v>9825</v>
+      </c>
+      <c r="E18" s="0">
+        <v>11356</v>
+      </c>
+      <c r="F18" s="0">
+        <v>503520</v>
+      </c>
+      <c r="G18" s="0">
+        <v>595380</v>
+      </c>
+      <c r="H18" s="0">
+        <v>589500</v>
+      </c>
+      <c r="I18" s="0">
+        <v>681360</v>
+      </c>
+      <c r="J18" s="0">
+        <v>205328.0556687648</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1405</v>
+      </c>
+      <c r="C19" s="0">
+        <v>1759</v>
+      </c>
+      <c r="D19" s="0">
+        <v>1627</v>
+      </c>
+      <c r="E19" s="0">
+        <v>1906</v>
+      </c>
+      <c r="F19" s="0">
+        <v>505800</v>
+      </c>
+      <c r="G19" s="0">
+        <v>633240</v>
+      </c>
+      <c r="H19" s="0">
+        <v>585720</v>
+      </c>
+      <c r="I19" s="0">
+        <v>686160</v>
+      </c>
+      <c r="J19" s="0">
+        <v>208891.65779464325</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="0">
+        <v>1294</v>
+      </c>
+      <c r="C20" s="0">
+        <v>1551</v>
+      </c>
+      <c r="D20" s="0">
+        <v>1553</v>
+      </c>
+      <c r="E20" s="0">
+        <v>1796</v>
+      </c>
+      <c r="F20" s="0">
+        <v>815220</v>
+      </c>
+      <c r="G20" s="0">
+        <v>977130</v>
+      </c>
+      <c r="H20" s="0">
+        <v>978390</v>
+      </c>
+      <c r="I20" s="0">
+        <v>1131480</v>
+      </c>
+      <c r="J20" s="0">
+        <v>338106.7654517308</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="0">
+        <v>1296</v>
+      </c>
+      <c r="C21" s="0">
+        <v>1540</v>
+      </c>
+      <c r="D21" s="0">
+        <v>1556</v>
+      </c>
+      <c r="E21" s="0">
+        <v>1816</v>
+      </c>
+      <c r="F21" s="0">
+        <v>907200</v>
+      </c>
+      <c r="G21" s="0">
+        <v>1078000</v>
+      </c>
+      <c r="H21" s="0">
+        <v>1089200</v>
+      </c>
+      <c r="I21" s="0">
+        <v>1271200</v>
+      </c>
+      <c r="J21" s="0">
+        <v>376525.843196822</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="0">
+        <v>1484</v>
+      </c>
+      <c r="C22" s="0">
+        <v>1706</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1730</v>
+      </c>
+      <c r="E22" s="0">
+        <v>2017</v>
+      </c>
+      <c r="F22" s="0">
+        <v>504560</v>
+      </c>
+      <c r="G22" s="0">
+        <v>580040</v>
+      </c>
+      <c r="H22" s="0">
+        <v>588200</v>
+      </c>
+      <c r="I22" s="0">
+        <v>685780</v>
+      </c>
+      <c r="J22" s="0">
+        <v>204355.20333072194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="0">
+        <v>11994</v>
+      </c>
+      <c r="C23" s="0">
+        <v>14091</v>
+      </c>
+      <c r="D23" s="0">
+        <v>14116</v>
+      </c>
+      <c r="E23" s="0">
+        <v>16159</v>
+      </c>
+      <c r="F23" s="0">
+        <v>479760</v>
+      </c>
+      <c r="G23" s="0">
+        <v>563640</v>
+      </c>
+      <c r="H23" s="0">
+        <v>564640</v>
+      </c>
+      <c r="I23" s="0">
+        <v>646360</v>
+      </c>
+      <c r="J23" s="0">
+        <v>195331.32691974888</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="0">
+        <v>1650</v>
+      </c>
+      <c r="C24" s="0">
+        <v>1969</v>
+      </c>
+      <c r="D24" s="0">
+        <v>1871</v>
+      </c>
+      <c r="E24" s="0">
+        <v>2282</v>
+      </c>
+      <c r="F24" s="0">
+        <v>313500</v>
+      </c>
+      <c r="G24" s="0">
+        <v>374110</v>
+      </c>
+      <c r="H24" s="0">
+        <v>355490</v>
+      </c>
+      <c r="I24" s="0">
+        <v>433580</v>
+      </c>
+      <c r="J24" s="0">
+        <v>127947.73631183086</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="0">
+        <v>1349</v>
+      </c>
+      <c r="C25" s="0">
+        <v>1592</v>
+      </c>
+      <c r="D25" s="0">
+        <v>1589</v>
+      </c>
+      <c r="E25" s="0">
+        <v>1831</v>
+      </c>
+      <c r="F25" s="0">
+        <v>944300</v>
+      </c>
+      <c r="G25" s="0">
+        <v>1114400</v>
+      </c>
+      <c r="H25" s="0">
+        <v>1112300</v>
+      </c>
+      <c r="I25" s="0">
+        <v>1281700</v>
+      </c>
+      <c r="J25" s="0">
+        <v>385803.2657026764</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1423</v>
+      </c>
+      <c r="C26" s="0">
+        <v>1640</v>
+      </c>
+      <c r="D26" s="0">
+        <v>1606</v>
+      </c>
+      <c r="E26" s="0">
+        <v>1798</v>
+      </c>
+      <c r="F26" s="0">
+        <v>868030</v>
+      </c>
+      <c r="G26" s="0">
+        <v>1000400</v>
+      </c>
+      <c r="H26" s="0">
+        <v>979660</v>
+      </c>
+      <c r="I26" s="0">
+        <v>1096780</v>
+      </c>
+      <c r="J26" s="0">
+        <v>341808.1661186817</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="0">
+        <v>1466</v>
+      </c>
+      <c r="C27" s="0">
+        <v>1644</v>
+      </c>
+      <c r="D27" s="0">
+        <v>1595</v>
+      </c>
+      <c r="E27" s="0">
+        <v>1986</v>
+      </c>
+      <c r="F27" s="0">
+        <v>498440</v>
+      </c>
+      <c r="G27" s="0">
+        <v>558960</v>
+      </c>
+      <c r="H27" s="0">
+        <v>542300</v>
+      </c>
+      <c r="I27" s="0">
+        <v>675240</v>
+      </c>
+      <c r="J27" s="0">
+        <v>197111.17761698063</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1348</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1590</v>
+      </c>
+      <c r="D28" s="0">
+        <v>1663</v>
+      </c>
+      <c r="E28" s="0">
+        <v>1901</v>
+      </c>
+      <c r="F28" s="0">
+        <v>768360</v>
+      </c>
+      <c r="G28" s="0">
+        <v>906300</v>
+      </c>
+      <c r="H28" s="0">
+        <v>947910</v>
+      </c>
+      <c r="I28" s="0">
+        <v>1083570</v>
+      </c>
+      <c r="J28" s="0">
+        <v>321115.0773021237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="0">
+        <v>1476</v>
+      </c>
+      <c r="C29" s="0">
+        <v>1803</v>
+      </c>
+      <c r="D29" s="0">
+        <v>1763</v>
+      </c>
+      <c r="E29" s="0">
+        <v>2076</v>
+      </c>
+      <c r="F29" s="0">
+        <v>398520</v>
+      </c>
+      <c r="G29" s="0">
+        <v>486810</v>
+      </c>
+      <c r="H29" s="0">
+        <v>476010</v>
+      </c>
+      <c r="I29" s="0">
+        <v>560520</v>
+      </c>
+      <c r="J29" s="0">
+        <v>166517.91077295505</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="0">
+        <v>1711</v>
+      </c>
+      <c r="C30" s="0">
+        <v>2006</v>
+      </c>
+      <c r="D30" s="0">
+        <v>1959</v>
+      </c>
+      <c r="E30" s="0">
+        <v>2369</v>
+      </c>
+      <c r="F30" s="0">
+        <v>273760</v>
+      </c>
+      <c r="G30" s="0">
+        <v>320960</v>
+      </c>
+      <c r="H30" s="0">
+        <v>313440</v>
+      </c>
+      <c r="I30" s="0">
+        <v>379040</v>
+      </c>
+      <c r="J30" s="0">
+        <v>111531.10784352878</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1365</v>
+      </c>
+      <c r="C31" s="0">
+        <v>1592</v>
+      </c>
+      <c r="D31" s="0">
+        <v>1513</v>
+      </c>
+      <c r="E31" s="0">
+        <v>1919</v>
+      </c>
+      <c r="F31" s="0">
+        <v>900900</v>
+      </c>
+      <c r="G31" s="0">
+        <v>1050720</v>
+      </c>
+      <c r="H31" s="0">
+        <v>998580</v>
+      </c>
+      <c r="I31" s="0">
+        <v>1266540</v>
+      </c>
+      <c r="J31" s="0">
+        <v>365359.4320323235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="0">
+        <v>1441</v>
+      </c>
+      <c r="C32" s="0">
+        <v>1698</v>
+      </c>
+      <c r="D32" s="0">
+        <v>1685</v>
+      </c>
+      <c r="E32" s="0">
+        <v>2004</v>
+      </c>
+      <c r="F32" s="0">
+        <v>504350</v>
+      </c>
+      <c r="G32" s="0">
+        <v>594300</v>
+      </c>
+      <c r="H32" s="0">
+        <v>589750</v>
+      </c>
+      <c r="I32" s="0">
+        <v>701400</v>
+      </c>
+      <c r="J32" s="0">
+        <v>207063.72976994567</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="0">
+        <v>1703</v>
+      </c>
+      <c r="C33" s="0">
+        <v>2037</v>
+      </c>
+      <c r="D33" s="0">
+        <v>2081</v>
+      </c>
+      <c r="E33" s="0">
+        <v>2363</v>
+      </c>
+      <c r="F33" s="0">
+        <v>272480</v>
+      </c>
+      <c r="G33" s="0">
+        <v>325920</v>
+      </c>
+      <c r="H33" s="0">
+        <v>332960</v>
+      </c>
+      <c r="I33" s="0">
+        <v>378080</v>
+      </c>
+      <c r="J33" s="0">
+        <v>113455.50643510903</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1611</v>
+      </c>
+      <c r="C34" s="0">
+        <v>1793</v>
+      </c>
+      <c r="D34" s="0">
+        <v>1818</v>
+      </c>
+      <c r="E34" s="0">
+        <v>2073</v>
+      </c>
+      <c r="F34" s="0">
+        <v>386640</v>
+      </c>
+      <c r="G34" s="0">
+        <v>430320</v>
+      </c>
+      <c r="H34" s="0">
+        <v>436320</v>
+      </c>
+      <c r="I34" s="0">
+        <v>497520</v>
+      </c>
+      <c r="J34" s="0">
+        <v>151697.1367459884</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="0">
+        <v>1413</v>
+      </c>
+      <c r="C35" s="0">
+        <v>1675</v>
+      </c>
+      <c r="D35" s="0">
+        <v>1679</v>
+      </c>
+      <c r="E35" s="0">
+        <v>1916</v>
+      </c>
+      <c r="F35" s="0">
+        <v>607590</v>
+      </c>
+      <c r="G35" s="0">
+        <v>720250</v>
+      </c>
+      <c r="H35" s="0">
+        <v>721970</v>
+      </c>
+      <c r="I35" s="0">
+        <v>823880</v>
+      </c>
+      <c r="J35" s="0">
+        <v>248991.56489937237</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="0">
+        <v>1364</v>
+      </c>
+      <c r="C36" s="0">
+        <v>1641</v>
+      </c>
+      <c r="D36" s="0">
+        <v>1587</v>
+      </c>
+      <c r="E36" s="0">
+        <v>1849</v>
+      </c>
+      <c r="F36" s="0">
+        <v>777480</v>
+      </c>
+      <c r="G36" s="0">
+        <v>935370</v>
+      </c>
+      <c r="H36" s="0">
+        <v>904590</v>
+      </c>
+      <c r="I36" s="0">
+        <v>1053930</v>
+      </c>
+      <c r="J36" s="0">
+        <v>318109.34523274266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="0">
+        <v>1346</v>
+      </c>
+      <c r="C37" s="0">
+        <v>1537</v>
+      </c>
+      <c r="D37" s="0">
+        <v>1602</v>
+      </c>
+      <c r="E37" s="0">
+        <v>1844</v>
+      </c>
+      <c r="F37" s="0">
+        <v>726840</v>
+      </c>
+      <c r="G37" s="0">
+        <v>829980</v>
+      </c>
+      <c r="H37" s="0">
+        <v>865080</v>
+      </c>
+      <c r="I37" s="0">
+        <v>995760</v>
+      </c>
+      <c r="J37" s="0">
+        <v>296127.97947195574</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="0">
+        <v>1365</v>
+      </c>
+      <c r="C38" s="0">
+        <v>1640</v>
+      </c>
+      <c r="D38" s="0">
+        <v>1741</v>
+      </c>
+      <c r="E38" s="0">
+        <v>1929</v>
+      </c>
+      <c r="F38" s="0">
+        <v>641550</v>
+      </c>
+      <c r="G38" s="0">
+        <v>770800</v>
+      </c>
+      <c r="H38" s="0">
+        <v>818270</v>
+      </c>
+      <c r="I38" s="0">
+        <v>906630</v>
+      </c>
+      <c r="J38" s="0">
+        <v>271824.03898214444</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="0">
+        <v>1486</v>
+      </c>
+      <c r="C39" s="0">
+        <v>1766</v>
+      </c>
+      <c r="D39" s="0">
+        <v>1809</v>
+      </c>
+      <c r="E39" s="0">
+        <v>2135</v>
+      </c>
+      <c r="F39" s="0">
+        <v>401220</v>
+      </c>
+      <c r="G39" s="0">
+        <v>476820</v>
+      </c>
+      <c r="H39" s="0">
+        <v>488430</v>
+      </c>
+      <c r="I39" s="0">
+        <v>576450</v>
+      </c>
+      <c r="J39" s="0">
+        <v>168343.8603453572</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="0">
+        <v>1351</v>
+      </c>
+      <c r="C40" s="0">
+        <v>1615</v>
+      </c>
+      <c r="D40" s="0">
+        <v>1645</v>
+      </c>
+      <c r="E40" s="0">
+        <v>1841</v>
+      </c>
+      <c r="F40" s="0">
+        <v>634970</v>
+      </c>
+      <c r="G40" s="0">
+        <v>759050</v>
+      </c>
+      <c r="H40" s="0">
+        <v>773150</v>
+      </c>
+      <c r="I40" s="0">
+        <v>865270</v>
+      </c>
+      <c r="J40" s="0">
+        <v>262743.0734389629</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="0">
+        <v>1399</v>
+      </c>
+      <c r="C41" s="0">
+        <v>1662</v>
+      </c>
+      <c r="D41" s="0">
+        <v>1682</v>
+      </c>
+      <c r="E41" s="0">
+        <v>1959</v>
+      </c>
+      <c r="F41" s="0">
+        <v>475660</v>
+      </c>
+      <c r="G41" s="0">
+        <v>565080</v>
+      </c>
+      <c r="H41" s="0">
+        <v>571880</v>
+      </c>
+      <c r="I41" s="0">
+        <v>666060</v>
+      </c>
+      <c r="J41" s="0">
+        <v>197438.08671692197</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="0">
+        <v>1385</v>
+      </c>
+      <c r="C42" s="0">
+        <v>1734</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1719</v>
+      </c>
+      <c r="E42" s="0">
+        <v>2002</v>
+      </c>
+      <c r="F42" s="0">
+        <v>457050</v>
+      </c>
+      <c r="G42" s="0">
+        <v>572220</v>
+      </c>
+      <c r="H42" s="0">
+        <v>567270</v>
+      </c>
+      <c r="I42" s="0">
+        <v>660660</v>
+      </c>
+      <c r="J42" s="0">
+        <v>195572.43759552372</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="0">
+        <v>1409</v>
+      </c>
+      <c r="C43" s="0">
+        <v>1577</v>
+      </c>
+      <c r="D43" s="0">
+        <v>1615</v>
+      </c>
+      <c r="E43" s="0">
+        <v>1874</v>
+      </c>
+      <c r="F43" s="0">
+        <v>704500</v>
+      </c>
+      <c r="G43" s="0">
+        <v>788500</v>
+      </c>
+      <c r="H43" s="0">
+        <v>807500</v>
+      </c>
+      <c r="I43" s="0">
+        <v>937000</v>
+      </c>
+      <c r="J43" s="0">
+        <v>280512.65137033025</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="0">
+        <v>12050</v>
+      </c>
+      <c r="C44" s="0">
+        <v>14039</v>
+      </c>
+      <c r="D44" s="0">
+        <v>14073</v>
+      </c>
+      <c r="E44" s="0">
+        <v>16215</v>
+      </c>
+      <c r="F44" s="0">
+        <v>120500</v>
+      </c>
+      <c r="G44" s="0">
+        <v>140390</v>
+      </c>
+      <c r="H44" s="0">
+        <v>140730</v>
+      </c>
+      <c r="I44" s="0">
+        <v>162150</v>
+      </c>
+      <c r="J44" s="0">
+        <v>48847.40392478979</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="0">
+        <v>1449</v>
+      </c>
+      <c r="C45" s="0">
+        <v>1621</v>
+      </c>
+      <c r="D45" s="0">
+        <v>1729</v>
+      </c>
+      <c r="E45" s="0">
+        <v>1913</v>
+      </c>
+      <c r="F45" s="0">
+        <v>463680</v>
+      </c>
+      <c r="G45" s="0">
+        <v>518720</v>
+      </c>
+      <c r="H45" s="0">
+        <v>553280</v>
+      </c>
+      <c r="I45" s="0">
+        <v>612160</v>
+      </c>
+      <c r="J45" s="0">
+        <v>186099.91453047429</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="0">
+        <v>1417</v>
+      </c>
+      <c r="C46" s="0">
+        <v>1665</v>
+      </c>
+      <c r="D46" s="0">
+        <v>1599</v>
+      </c>
+      <c r="E46" s="0">
+        <v>1882</v>
+      </c>
+      <c r="F46" s="0">
+        <v>580970</v>
+      </c>
+      <c r="G46" s="0">
+        <v>682650</v>
+      </c>
+      <c r="H46" s="0">
+        <v>655590</v>
+      </c>
+      <c r="I46" s="0">
+        <v>771620</v>
+      </c>
+      <c r="J46" s="0">
+        <v>233148.47554186502</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="0">
+        <v>1356</v>
+      </c>
+      <c r="C47" s="0">
+        <v>1633</v>
+      </c>
+      <c r="D47" s="0">
+        <v>1661</v>
+      </c>
+      <c r="E47" s="0">
+        <v>1869</v>
+      </c>
+      <c r="F47" s="0">
+        <v>623760</v>
+      </c>
+      <c r="G47" s="0">
+        <v>751180</v>
+      </c>
+      <c r="H47" s="0">
+        <v>764060</v>
+      </c>
+      <c r="I47" s="0">
+        <v>859740</v>
+      </c>
+      <c r="J47" s="0">
+        <v>259827.43993354874</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="0">
+        <v>1312</v>
+      </c>
+      <c r="C48" s="0">
+        <v>1533</v>
+      </c>
+      <c r="D48" s="0">
+        <v>1523</v>
+      </c>
+      <c r="E48" s="0">
+        <v>1808</v>
+      </c>
+      <c r="F48" s="0">
+        <v>892160</v>
+      </c>
+      <c r="G48" s="0">
+        <v>1042440</v>
+      </c>
+      <c r="H48" s="0">
+        <v>1035640</v>
+      </c>
+      <c r="I48" s="0">
+        <v>1229440</v>
+      </c>
+      <c r="J48" s="0">
+        <v>363880.6401889421</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="0">
+        <v>1424</v>
+      </c>
+      <c r="C49" s="0">
+        <v>1646</v>
+      </c>
+      <c r="D49" s="0">
+        <v>1617</v>
+      </c>
+      <c r="E49" s="0">
+        <v>1835</v>
+      </c>
+      <c r="F49" s="0">
+        <v>840160</v>
+      </c>
+      <c r="G49" s="0">
+        <v>971140</v>
+      </c>
+      <c r="H49" s="0">
+        <v>954030</v>
+      </c>
+      <c r="I49" s="0">
+        <v>1082650</v>
+      </c>
+      <c r="J49" s="0">
+        <v>333406.577565266</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="0">
+        <v>1396</v>
+      </c>
+      <c r="C50" s="0">
+        <v>1588</v>
+      </c>
+      <c r="D50" s="0">
+        <v>1601</v>
+      </c>
+      <c r="E50" s="0">
+        <v>1889</v>
+      </c>
+      <c r="F50" s="0">
+        <v>809680</v>
+      </c>
+      <c r="G50" s="0">
+        <v>921040</v>
+      </c>
+      <c r="H50" s="0">
+        <v>928580</v>
+      </c>
+      <c r="I50" s="0">
+        <v>1095620</v>
+      </c>
+      <c r="J50" s="0">
+        <v>325345.0547523477</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="0">
+        <v>2957</v>
+      </c>
+      <c r="C51" s="0">
+        <v>3532</v>
+      </c>
+      <c r="D51" s="0">
+        <v>3494</v>
+      </c>
+      <c r="E51" s="0">
+        <v>4211</v>
+      </c>
+      <c r="F51" s="0">
+        <v>59140</v>
+      </c>
+      <c r="G51" s="0">
+        <v>70640</v>
+      </c>
+      <c r="H51" s="0">
+        <v>69880</v>
+      </c>
+      <c r="I51" s="0">
+        <v>84220</v>
+      </c>
+      <c r="J51" s="0">
+        <v>24596.83983073827</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="0">
+        <v>1316</v>
+      </c>
+      <c r="C52" s="0">
+        <v>1504</v>
+      </c>
+      <c r="D52" s="0">
+        <v>1515</v>
+      </c>
+      <c r="E52" s="0">
+        <v>1752</v>
+      </c>
+      <c r="F52" s="0">
+        <v>868560</v>
+      </c>
+      <c r="G52" s="0">
+        <v>992640</v>
+      </c>
+      <c r="H52" s="0">
+        <v>999900</v>
+      </c>
+      <c r="I52" s="0">
+        <v>1156320</v>
+      </c>
+      <c r="J52" s="0">
+        <v>348090.6609435969</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="0">
+        <v>1301</v>
+      </c>
+      <c r="C53" s="0">
+        <v>1598</v>
+      </c>
+      <c r="D53" s="0">
+        <v>1539</v>
+      </c>
+      <c r="E53" s="0">
+        <v>1748</v>
+      </c>
+      <c r="F53" s="0">
+        <v>845650</v>
+      </c>
+      <c r="G53" s="0">
+        <v>1038700</v>
+      </c>
+      <c r="H53" s="0">
+        <v>1000350</v>
+      </c>
+      <c r="I53" s="0">
+        <v>1136200</v>
+      </c>
+      <c r="J53" s="0">
+        <v>348391.0410796082</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="0">
+        <v>1361</v>
+      </c>
+      <c r="C54" s="0">
+        <v>1614</v>
+      </c>
+      <c r="D54" s="0">
+        <v>1691</v>
+      </c>
+      <c r="E54" s="0">
+        <v>1866</v>
+      </c>
+      <c r="F54" s="0">
+        <v>585230</v>
+      </c>
+      <c r="G54" s="0">
+        <v>694020</v>
+      </c>
+      <c r="H54" s="0">
+        <v>727130</v>
+      </c>
+      <c r="I54" s="0">
+        <v>802380</v>
+      </c>
+      <c r="J54" s="0">
+        <v>243367.37345594072</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="0">
+        <v>1360</v>
+      </c>
+      <c r="C55" s="0">
+        <v>1648</v>
+      </c>
+      <c r="D55" s="0">
+        <v>1699</v>
+      </c>
+      <c r="E55" s="0">
+        <v>1951</v>
+      </c>
+      <c r="F55" s="0">
+        <v>503200</v>
+      </c>
+      <c r="G55" s="0">
+        <v>609760</v>
+      </c>
+      <c r="H55" s="0">
+        <v>628630</v>
+      </c>
+      <c r="I55" s="0">
+        <v>721870</v>
+      </c>
+      <c r="J55" s="0">
+        <v>213447.55458587132</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="0">
+        <v>3615</v>
+      </c>
+      <c r="C56" s="0">
+        <v>4251</v>
+      </c>
+      <c r="D56" s="0">
+        <v>4265</v>
+      </c>
+      <c r="E56" s="0">
+        <v>4945</v>
+      </c>
+      <c r="F56" s="0">
+        <v>325350</v>
+      </c>
+      <c r="G56" s="0">
+        <v>382590</v>
+      </c>
+      <c r="H56" s="0">
+        <v>383850</v>
+      </c>
+      <c r="I56" s="0">
+        <v>445050</v>
+      </c>
+      <c r="J56" s="0">
+        <v>133159.32260347833</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="0">
+        <v>1379</v>
+      </c>
+      <c r="C57" s="0">
+        <v>1626</v>
+      </c>
+      <c r="D57" s="0">
+        <v>1605</v>
+      </c>
+      <c r="E57" s="0">
+        <v>1854</v>
+      </c>
+      <c r="F57" s="0">
+        <v>537810</v>
+      </c>
+      <c r="G57" s="0">
+        <v>634140</v>
+      </c>
+      <c r="H57" s="0">
+        <v>625950</v>
+      </c>
+      <c r="I57" s="0">
+        <v>723060</v>
+      </c>
+      <c r="J57" s="0">
+        <v>218427.0695463138</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="0">
+        <v>1389</v>
+      </c>
+      <c r="C58" s="0">
+        <v>1640</v>
+      </c>
+      <c r="D58" s="0">
+        <v>1591</v>
+      </c>
+      <c r="E58" s="0">
+        <v>1902</v>
+      </c>
+      <c r="F58" s="0">
+        <v>708390</v>
+      </c>
+      <c r="G58" s="0">
+        <v>836400</v>
+      </c>
+      <c r="H58" s="0">
+        <v>811410</v>
+      </c>
+      <c r="I58" s="0">
+        <v>970020</v>
+      </c>
+      <c r="J58" s="0">
+        <v>288195.44939980615</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="0">
+        <v>1377</v>
+      </c>
+      <c r="C59" s="0">
+        <v>1675</v>
+      </c>
+      <c r="D59" s="0">
+        <v>1669</v>
+      </c>
+      <c r="E59" s="0">
+        <v>1898</v>
+      </c>
+      <c r="F59" s="0">
+        <v>743580</v>
+      </c>
+      <c r="G59" s="0">
+        <v>904500</v>
+      </c>
+      <c r="H59" s="0">
+        <v>901260</v>
+      </c>
+      <c r="I59" s="0">
+        <v>1024920</v>
+      </c>
+      <c r="J59" s="0">
+        <v>309693.9122626296</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="0">
+        <v>1376</v>
+      </c>
+      <c r="C60" s="0">
+        <v>1657</v>
+      </c>
+      <c r="D60" s="0">
+        <v>1617</v>
+      </c>
+      <c r="E60" s="0">
+        <v>1841</v>
+      </c>
+      <c r="F60" s="0">
+        <v>715520</v>
+      </c>
+      <c r="G60" s="0">
+        <v>861640</v>
+      </c>
+      <c r="H60" s="0">
+        <v>840840</v>
+      </c>
+      <c r="I60" s="0">
+        <v>957320</v>
+      </c>
+      <c r="J60" s="0">
+        <v>292450.39054636523</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="0">
+        <v>1422</v>
+      </c>
+      <c r="C61" s="0">
+        <v>1777</v>
+      </c>
+      <c r="D61" s="0">
+        <v>1750</v>
+      </c>
+      <c r="E61" s="0">
+        <v>2010</v>
+      </c>
+      <c r="F61" s="0">
+        <v>412380</v>
+      </c>
+      <c r="G61" s="0">
+        <v>515330</v>
+      </c>
+      <c r="H61" s="0">
+        <v>507500</v>
+      </c>
+      <c r="I61" s="0">
+        <v>582900</v>
+      </c>
+      <c r="J61" s="0">
+        <v>174859.61596184573</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="0">
+        <v>1385</v>
+      </c>
+      <c r="C62" s="0">
+        <v>1771</v>
+      </c>
+      <c r="D62" s="0">
+        <v>1709</v>
+      </c>
+      <c r="E62" s="0">
+        <v>1952</v>
+      </c>
+      <c r="F62" s="0">
+        <v>470900</v>
+      </c>
+      <c r="G62" s="0">
+        <v>602140</v>
+      </c>
+      <c r="H62" s="0">
+        <v>581060</v>
+      </c>
+      <c r="I62" s="0">
+        <v>663680</v>
+      </c>
+      <c r="J62" s="0">
+        <v>200821.59459782593</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="0">
+        <v>1735</v>
+      </c>
+      <c r="C63" s="0">
+        <v>1943</v>
+      </c>
+      <c r="D63" s="0">
+        <v>2099</v>
+      </c>
+      <c r="E63" s="0">
+        <v>2267</v>
+      </c>
+      <c r="F63" s="0">
+        <v>294950</v>
+      </c>
+      <c r="G63" s="0">
+        <v>330310</v>
+      </c>
+      <c r="H63" s="0">
+        <v>356830</v>
+      </c>
+      <c r="I63" s="0">
+        <v>385390</v>
+      </c>
+      <c r="J63" s="0">
+        <v>118485.71953093051</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="0">
+        <v>1410</v>
+      </c>
+      <c r="C64" s="0">
+        <v>1670</v>
+      </c>
+      <c r="D64" s="0">
+        <v>1617</v>
+      </c>
+      <c r="E64" s="0">
+        <v>1878</v>
+      </c>
+      <c r="F64" s="0">
+        <v>747300</v>
+      </c>
+      <c r="G64" s="0">
+        <v>885100</v>
+      </c>
+      <c r="H64" s="0">
+        <v>857010</v>
+      </c>
+      <c r="I64" s="0">
+        <v>995340</v>
+      </c>
+      <c r="J64" s="0">
+        <v>301933.0461902694</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="0">
+        <v>1372</v>
+      </c>
+      <c r="C65" s="0">
+        <v>1524</v>
+      </c>
+      <c r="D65" s="0">
+        <v>1621</v>
+      </c>
+      <c r="E65" s="0">
+        <v>1770</v>
+      </c>
+      <c r="F65" s="0">
+        <v>644840</v>
+      </c>
+      <c r="G65" s="0">
+        <v>716280</v>
+      </c>
+      <c r="H65" s="0">
+        <v>761870</v>
+      </c>
+      <c r="I65" s="0">
+        <v>831900</v>
+      </c>
+      <c r="J65" s="0">
+        <v>256026.21572733883</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" s="0">
+        <v>1352</v>
+      </c>
+      <c r="C66" s="0">
+        <v>1673</v>
+      </c>
+      <c r="D66" s="0">
+        <v>1521</v>
+      </c>
+      <c r="E66" s="0">
+        <v>1942</v>
+      </c>
+      <c r="F66" s="0">
+        <v>608400</v>
+      </c>
+      <c r="G66" s="0">
+        <v>752850</v>
+      </c>
+      <c r="H66" s="0">
+        <v>684450</v>
+      </c>
+      <c r="I66" s="0">
+        <v>873900</v>
+      </c>
+      <c r="J66" s="0">
+        <v>252971.6865074702</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="0">
+        <v>1434</v>
+      </c>
+      <c r="C67" s="0">
+        <v>1587</v>
+      </c>
+      <c r="D67" s="0">
+        <v>1675</v>
+      </c>
+      <c r="E67" s="0">
+        <v>1911</v>
+      </c>
+      <c r="F67" s="0">
+        <v>616620</v>
+      </c>
+      <c r="G67" s="0">
+        <v>682410</v>
+      </c>
+      <c r="H67" s="0">
+        <v>720250</v>
+      </c>
+      <c r="I67" s="0">
+        <v>821730</v>
+      </c>
+      <c r="J67" s="0">
+        <v>246158.62238998822</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="0">
+        <v>11893</v>
+      </c>
+      <c r="C68" s="0">
+        <v>14164</v>
+      </c>
+      <c r="D68" s="0">
+        <v>14030</v>
+      </c>
+      <c r="E68" s="0">
+        <v>16273</v>
+      </c>
+      <c r="F68" s="0">
+        <v>118930</v>
+      </c>
+      <c r="G68" s="0">
+        <v>141640</v>
+      </c>
+      <c r="H68" s="0">
+        <v>140300</v>
+      </c>
+      <c r="I68" s="0">
+        <v>162730</v>
+      </c>
+      <c r="J68" s="0">
+        <v>48832.86090533279</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="0">
+        <v>2089</v>
+      </c>
+      <c r="C69" s="0">
+        <v>2439</v>
+      </c>
+      <c r="D69" s="0">
+        <v>2372</v>
+      </c>
+      <c r="E69" s="0">
+        <v>2821</v>
+      </c>
+      <c r="F69" s="0">
+        <v>271570</v>
+      </c>
+      <c r="G69" s="0">
+        <v>317070</v>
+      </c>
+      <c r="H69" s="0">
+        <v>308360</v>
+      </c>
+      <c r="I69" s="0">
+        <v>366730</v>
+      </c>
+      <c r="J69" s="0">
+        <v>109496.81055626296</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="0">
+        <v>1363</v>
+      </c>
+      <c r="C70" s="0">
+        <v>1581</v>
+      </c>
+      <c r="D70" s="0">
+        <v>1667</v>
+      </c>
+      <c r="E70" s="0">
+        <v>1888</v>
+      </c>
+      <c r="F70" s="0">
+        <v>667870</v>
+      </c>
+      <c r="G70" s="0">
+        <v>774690</v>
+      </c>
+      <c r="H70" s="0">
+        <v>816830</v>
+      </c>
+      <c r="I70" s="0">
+        <v>925120</v>
+      </c>
+      <c r="J70" s="0">
+        <v>275926.48573683086</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B71" s="0">
+        <v>1289</v>
+      </c>
+      <c r="C71" s="0">
+        <v>1537</v>
+      </c>
+      <c r="D71" s="0">
+        <v>1561</v>
+      </c>
+      <c r="E71" s="0">
+        <v>1808</v>
+      </c>
+      <c r="F71" s="0">
+        <v>876520</v>
+      </c>
+      <c r="G71" s="0">
+        <v>1045160</v>
+      </c>
+      <c r="H71" s="0">
+        <v>1061480</v>
+      </c>
+      <c r="I71" s="0">
+        <v>1229440</v>
+      </c>
+      <c r="J71" s="0">
+        <v>364992.1354745487</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="0">
+        <v>1404</v>
+      </c>
+      <c r="C72" s="0">
+        <v>1679</v>
+      </c>
+      <c r="D72" s="0">
+        <v>1631</v>
+      </c>
+      <c r="E72" s="0">
+        <v>1911</v>
+      </c>
+      <c r="F72" s="0">
+        <v>533520</v>
+      </c>
+      <c r="G72" s="0">
+        <v>638020</v>
+      </c>
+      <c r="H72" s="0">
+        <v>619780</v>
+      </c>
+      <c r="I72" s="0">
+        <v>726180</v>
+      </c>
+      <c r="J72" s="0">
+        <v>218131.52507445824</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="0">
+        <v>1801</v>
+      </c>
+      <c r="C73" s="0">
+        <v>2140</v>
+      </c>
+      <c r="D73" s="0">
+        <v>2225</v>
+      </c>
+      <c r="E73" s="0">
+        <v>2555</v>
+      </c>
+      <c r="F73" s="0">
+        <v>270150</v>
+      </c>
+      <c r="G73" s="0">
+        <v>321000</v>
+      </c>
+      <c r="H73" s="0">
+        <v>333750</v>
+      </c>
+      <c r="I73" s="0">
+        <v>383250</v>
+      </c>
+      <c r="J73" s="0">
+        <v>113344.23769676976</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B74" s="0">
+        <v>1524</v>
+      </c>
+      <c r="C74" s="0">
+        <v>1836</v>
+      </c>
+      <c r="D74" s="0">
+        <v>1862</v>
+      </c>
+      <c r="E74" s="0">
+        <v>2237</v>
+      </c>
+      <c r="F74" s="0">
+        <v>335280</v>
+      </c>
+      <c r="G74" s="0">
+        <v>403920</v>
+      </c>
+      <c r="H74" s="0">
+        <v>409640</v>
+      </c>
+      <c r="I74" s="0">
+        <v>492140</v>
+      </c>
+      <c r="J74" s="0">
+        <v>142180.40066970815</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75" s="0">
+        <v>8405</v>
+      </c>
+      <c r="C75" s="0">
+        <v>10009</v>
+      </c>
+      <c r="D75" s="0">
+        <v>9963</v>
+      </c>
+      <c r="E75" s="0">
+        <v>11207</v>
+      </c>
+      <c r="F75" s="0">
+        <v>504300</v>
+      </c>
+      <c r="G75" s="0">
+        <v>600540</v>
+      </c>
+      <c r="H75" s="0">
+        <v>597780</v>
+      </c>
+      <c r="I75" s="0">
+        <v>672420</v>
+      </c>
+      <c r="J75" s="0">
+        <v>205784.9520538077</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="0">
+        <v>1467</v>
+      </c>
+      <c r="C76" s="0">
+        <v>1613</v>
+      </c>
+      <c r="D76" s="0">
+        <v>1749</v>
+      </c>
+      <c r="E76" s="0">
+        <v>2064</v>
+      </c>
+      <c r="F76" s="0">
+        <v>440100</v>
+      </c>
+      <c r="G76" s="0">
+        <v>483900</v>
+      </c>
+      <c r="H76" s="0">
+        <v>524700</v>
+      </c>
+      <c r="I76" s="0">
+        <v>619200</v>
+      </c>
+      <c r="J76" s="0">
+        <v>179173.86775519195</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="0">
+        <v>1341</v>
+      </c>
+      <c r="C77" s="0">
+        <v>1573</v>
+      </c>
+      <c r="D77" s="0">
+        <v>1561</v>
+      </c>
+      <c r="E77" s="0">
+        <v>1882</v>
+      </c>
+      <c r="F77" s="0">
+        <v>590040</v>
+      </c>
+      <c r="G77" s="0">
+        <v>692120</v>
+      </c>
+      <c r="H77" s="0">
+        <v>686840</v>
+      </c>
+      <c r="I77" s="0">
+        <v>828080</v>
+      </c>
+      <c r="J77" s="0">
+        <v>242352.6013198244</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="0">
+        <v>1359</v>
+      </c>
+      <c r="C78" s="0">
+        <v>1552</v>
+      </c>
+      <c r="D78" s="0">
+        <v>1601</v>
+      </c>
+      <c r="E78" s="0">
+        <v>1807</v>
+      </c>
+      <c r="F78" s="0">
+        <v>747450</v>
+      </c>
+      <c r="G78" s="0">
+        <v>853600</v>
+      </c>
+      <c r="H78" s="0">
+        <v>880550</v>
+      </c>
+      <c r="I78" s="0">
+        <v>993850</v>
+      </c>
+      <c r="J78" s="0">
+        <v>301132.2725059961</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="0">
+        <v>1367</v>
+      </c>
+      <c r="C79" s="0">
+        <v>1621</v>
+      </c>
+      <c r="D79" s="0">
+        <v>1607</v>
+      </c>
+      <c r="E79" s="0">
+        <v>1931</v>
+      </c>
+      <c r="F79" s="0">
+        <v>560470</v>
+      </c>
+      <c r="G79" s="0">
+        <v>664610</v>
+      </c>
+      <c r="H79" s="0">
+        <v>658870</v>
+      </c>
+      <c r="I79" s="0">
+        <v>791710</v>
+      </c>
+      <c r="J79" s="0">
+        <v>231834.67959989177</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" s="0">
+        <v>1872</v>
+      </c>
+      <c r="C80" s="0">
+        <v>2108</v>
+      </c>
+      <c r="D80" s="0">
+        <v>2149</v>
+      </c>
+      <c r="E80" s="0">
+        <v>2503</v>
+      </c>
+      <c r="F80" s="0">
+        <v>280800</v>
+      </c>
+      <c r="G80" s="0">
+        <v>316200</v>
+      </c>
+      <c r="H80" s="0">
+        <v>322350</v>
+      </c>
+      <c r="I80" s="0">
+        <v>375450</v>
+      </c>
+      <c r="J80" s="0">
+        <v>112189.33086084864</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="0">
+        <v>2061</v>
+      </c>
+      <c r="C81" s="0">
+        <v>2497</v>
+      </c>
+      <c r="D81" s="0">
+        <v>2413</v>
+      </c>
+      <c r="E81" s="0">
+        <v>2910</v>
+      </c>
+      <c r="F81" s="0">
+        <v>267930</v>
+      </c>
+      <c r="G81" s="0">
+        <v>324610</v>
+      </c>
+      <c r="H81" s="0">
+        <v>313690</v>
+      </c>
+      <c r="I81" s="0">
+        <v>378300</v>
+      </c>
+      <c r="J81" s="0">
+        <v>111298.32703453372</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" s="0">
+        <v>1670</v>
+      </c>
+      <c r="C82" s="0">
+        <v>1924</v>
+      </c>
+      <c r="D82" s="0">
+        <v>1984</v>
+      </c>
+      <c r="E82" s="0">
+        <v>2317</v>
+      </c>
+      <c r="F82" s="0">
+        <v>283900</v>
+      </c>
+      <c r="G82" s="0">
+        <v>327080</v>
+      </c>
+      <c r="H82" s="0">
+        <v>337280</v>
+      </c>
+      <c r="I82" s="0">
+        <v>393890</v>
+      </c>
+      <c r="J82" s="0">
+        <v>116289.17306419516</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="0">
+        <v>1657</v>
+      </c>
+      <c r="C83" s="0">
+        <v>2016</v>
+      </c>
+      <c r="D83" s="0">
+        <v>1991</v>
+      </c>
+      <c r="E83" s="0">
+        <v>2327</v>
+      </c>
+      <c r="F83" s="0">
+        <v>281690</v>
+      </c>
+      <c r="G83" s="0">
+        <v>342720</v>
+      </c>
+      <c r="H83" s="0">
+        <v>338470</v>
+      </c>
+      <c r="I83" s="0">
+        <v>395590</v>
+      </c>
+      <c r="J83" s="0">
+        <v>117703.16340049806</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="0">
+        <v>1359</v>
+      </c>
+      <c r="C84" s="0">
+        <v>1600</v>
+      </c>
+      <c r="D84" s="0">
+        <v>1628</v>
+      </c>
+      <c r="E84" s="0">
+        <v>1842</v>
+      </c>
+      <c r="F84" s="0">
+        <v>815400</v>
+      </c>
+      <c r="G84" s="0">
+        <v>960000</v>
+      </c>
+      <c r="H84" s="0">
+        <v>976800</v>
+      </c>
+      <c r="I84" s="0">
+        <v>1105200</v>
+      </c>
+      <c r="J84" s="0">
+        <v>334224.3424737674</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="0">
+        <v>1506</v>
+      </c>
+      <c r="C85" s="0">
+        <v>1818</v>
+      </c>
+      <c r="D85" s="0">
+        <v>1755</v>
+      </c>
+      <c r="E85" s="0">
+        <v>2042</v>
+      </c>
+      <c r="F85" s="0">
+        <v>451800</v>
+      </c>
+      <c r="G85" s="0">
+        <v>545400</v>
+      </c>
+      <c r="H85" s="0">
+        <v>526500</v>
+      </c>
+      <c r="I85" s="0">
+        <v>612600</v>
+      </c>
+      <c r="J85" s="0">
+        <v>185097.67757822404</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B86" s="0">
+        <v>1340</v>
+      </c>
+      <c r="C86" s="0">
+        <v>1565</v>
+      </c>
+      <c r="D86" s="0">
+        <v>1563</v>
+      </c>
+      <c r="E86" s="0">
+        <v>1803</v>
+      </c>
+      <c r="F86" s="0">
+        <v>938000</v>
+      </c>
+      <c r="G86" s="0">
+        <v>1095500</v>
+      </c>
+      <c r="H86" s="0">
+        <v>1094100</v>
+      </c>
+      <c r="I86" s="0">
+        <v>1262100</v>
+      </c>
+      <c r="J86" s="0">
+        <v>380346.4905227156</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="0">
+        <v>11965</v>
+      </c>
+      <c r="C87" s="0">
+        <v>14188</v>
+      </c>
+      <c r="D87" s="0">
+        <v>14207</v>
+      </c>
+      <c r="E87" s="0">
+        <v>16343</v>
+      </c>
+      <c r="F87" s="0">
+        <v>358950</v>
+      </c>
+      <c r="G87" s="0">
+        <v>425640</v>
+      </c>
+      <c r="H87" s="0">
+        <v>426210</v>
+      </c>
+      <c r="I87" s="0">
+        <v>490290</v>
+      </c>
+      <c r="J87" s="0">
+        <v>147390.89345209702</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="0">
+        <v>2239</v>
+      </c>
+      <c r="C88" s="0">
+        <v>2713</v>
+      </c>
+      <c r="D88" s="0">
+        <v>2597</v>
+      </c>
+      <c r="E88" s="0">
+        <v>3113</v>
+      </c>
+      <c r="F88" s="0">
+        <v>223900</v>
+      </c>
+      <c r="G88" s="0">
+        <v>271300</v>
+      </c>
+      <c r="H88" s="0">
+        <v>259700</v>
+      </c>
+      <c r="I88" s="0">
+        <v>311300</v>
+      </c>
+      <c r="J88" s="0">
+        <v>92380.38401664968</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="0">
+        <v>1835</v>
+      </c>
+      <c r="C89" s="0">
+        <v>2129</v>
+      </c>
+      <c r="D89" s="0">
+        <v>2110</v>
+      </c>
+      <c r="E89" s="0">
+        <v>2453</v>
+      </c>
+      <c r="F89" s="0">
+        <v>275250</v>
+      </c>
+      <c r="G89" s="0">
+        <v>319350</v>
+      </c>
+      <c r="H89" s="0">
+        <v>316500</v>
+      </c>
+      <c r="I89" s="0">
+        <v>367950</v>
+      </c>
+      <c r="J89" s="0">
+        <v>110821.77715617362</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B90" s="0">
+        <v>1418</v>
+      </c>
+      <c r="C90" s="0">
+        <v>1591</v>
+      </c>
+      <c r="D90" s="0">
+        <v>1667</v>
+      </c>
+      <c r="E90" s="0">
+        <v>1892</v>
+      </c>
+      <c r="F90" s="0">
+        <v>567200</v>
+      </c>
+      <c r="G90" s="0">
+        <v>636400</v>
+      </c>
+      <c r="H90" s="0">
+        <v>666800</v>
+      </c>
+      <c r="I90" s="0">
+        <v>756800</v>
+      </c>
+      <c r="J90" s="0">
+        <v>227631.30625017599</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="0">
+        <v>1317</v>
+      </c>
+      <c r="C91" s="0">
+        <v>1624</v>
+      </c>
+      <c r="D91" s="0">
+        <v>1566</v>
+      </c>
+      <c r="E91" s="0">
+        <v>1782</v>
+      </c>
+      <c r="F91" s="0">
+        <v>816540</v>
+      </c>
+      <c r="G91" s="0">
+        <v>1006880</v>
+      </c>
+      <c r="H91" s="0">
+        <v>970920</v>
+      </c>
+      <c r="I91" s="0">
+        <v>1104840</v>
+      </c>
+      <c r="J91" s="0">
+        <v>337842.83450086205</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B92" s="0">
+        <v>1416</v>
+      </c>
+      <c r="C92" s="0">
+        <v>1680</v>
+      </c>
+      <c r="D92" s="0">
+        <v>1616</v>
+      </c>
+      <c r="E92" s="0">
+        <v>1932</v>
+      </c>
+      <c r="F92" s="0">
+        <v>509760</v>
+      </c>
+      <c r="G92" s="0">
+        <v>604800</v>
+      </c>
+      <c r="H92" s="0">
+        <v>581760</v>
+      </c>
+      <c r="I92" s="0">
+        <v>695520</v>
+      </c>
+      <c r="J92" s="0">
+        <v>207241.57564861514</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" s="0">
+        <v>12075</v>
+      </c>
+      <c r="C93" s="0">
+        <v>14107</v>
+      </c>
+      <c r="D93" s="0">
+        <v>14131</v>
+      </c>
+      <c r="E93" s="0">
+        <v>16115</v>
+      </c>
+      <c r="F93" s="0">
+        <v>120750</v>
+      </c>
+      <c r="G93" s="0">
+        <v>141070</v>
+      </c>
+      <c r="H93" s="0">
+        <v>141310</v>
+      </c>
+      <c r="I93" s="0">
+        <v>161150</v>
+      </c>
+      <c r="J93" s="0">
+        <v>48891.699438122254</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="0">
+        <v>11986</v>
+      </c>
+      <c r="C94" s="0">
+        <v>14139</v>
+      </c>
+      <c r="D94" s="0">
+        <v>13958</v>
+      </c>
+      <c r="E94" s="0">
+        <v>16392</v>
+      </c>
+      <c r="F94" s="0">
+        <v>119860</v>
+      </c>
+      <c r="G94" s="0">
+        <v>141390</v>
+      </c>
+      <c r="H94" s="0">
+        <v>139580</v>
+      </c>
+      <c r="I94" s="0">
+        <v>163920</v>
+      </c>
+      <c r="J94" s="0">
+        <v>48932.32712227184</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" s="0">
+        <v>3009</v>
+      </c>
+      <c r="C95" s="0">
+        <v>3409</v>
+      </c>
+      <c r="D95" s="0">
+        <v>3480</v>
+      </c>
+      <c r="E95" s="0">
+        <v>4067</v>
+      </c>
+      <c r="F95" s="0">
+        <v>300900</v>
+      </c>
+      <c r="G95" s="0">
+        <v>340900</v>
+      </c>
+      <c r="H95" s="0">
+        <v>348000</v>
+      </c>
+      <c r="I95" s="0">
+        <v>406700</v>
+      </c>
+      <c r="J95" s="0">
+        <v>120999.47074515004</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B96" s="0">
+        <v>1335</v>
+      </c>
+      <c r="C96" s="0">
+        <v>1634</v>
+      </c>
+      <c r="D96" s="0">
+        <v>1620</v>
+      </c>
+      <c r="E96" s="0">
+        <v>1875</v>
+      </c>
+      <c r="F96" s="0">
+        <v>841050</v>
+      </c>
+      <c r="G96" s="0">
+        <v>1029420</v>
+      </c>
+      <c r="H96" s="0">
+        <v>1020600</v>
+      </c>
+      <c r="I96" s="0">
+        <v>1181250</v>
+      </c>
+      <c r="J96" s="0">
+        <v>352847.4822785258</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B97" s="0">
+        <v>3659</v>
+      </c>
+      <c r="C97" s="0">
+        <v>4206</v>
+      </c>
+      <c r="D97" s="0">
+        <v>4258</v>
+      </c>
+      <c r="E97" s="0">
+        <v>4985</v>
+      </c>
+      <c r="F97" s="0">
+        <v>329310</v>
+      </c>
+      <c r="G97" s="0">
+        <v>378540</v>
+      </c>
+      <c r="H97" s="0">
+        <v>383220</v>
+      </c>
+      <c r="I97" s="0">
+        <v>448650</v>
+      </c>
+      <c r="J97" s="0">
+        <v>133409.03547984964</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="0">
+        <v>1306</v>
+      </c>
+      <c r="C98" s="0">
+        <v>1556</v>
+      </c>
+      <c r="D98" s="0">
+        <v>1519</v>
+      </c>
+      <c r="E98" s="0">
+        <v>1775</v>
+      </c>
+      <c r="F98" s="0">
+        <v>888080</v>
+      </c>
+      <c r="G98" s="0">
+        <v>1058080</v>
+      </c>
+      <c r="H98" s="0">
+        <v>1032920</v>
+      </c>
+      <c r="I98" s="0">
+        <v>1207000</v>
+      </c>
+      <c r="J98" s="0">
+        <v>362704.8765550878</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="0">
+        <v>1755</v>
+      </c>
+      <c r="C99" s="0">
+        <v>2029</v>
+      </c>
+      <c r="D99" s="0">
+        <v>2090</v>
+      </c>
+      <c r="E99" s="0">
+        <v>2385</v>
+      </c>
+      <c r="F99" s="0">
+        <v>280800</v>
+      </c>
+      <c r="G99" s="0">
+        <v>324640</v>
+      </c>
+      <c r="H99" s="0">
+        <v>334400</v>
+      </c>
+      <c r="I99" s="0">
+        <v>381600</v>
+      </c>
+      <c r="J99" s="0">
+        <v>114496.57483503706</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="0">
+        <v>1366</v>
+      </c>
+      <c r="C100" s="0">
+        <v>1669</v>
+      </c>
+      <c r="D100" s="0">
+        <v>1649</v>
+      </c>
+      <c r="E100" s="0">
+        <v>1910</v>
+      </c>
+      <c r="F100" s="0">
+        <v>532740</v>
+      </c>
+      <c r="G100" s="0">
+        <v>650910</v>
+      </c>
+      <c r="H100" s="0">
+        <v>643110</v>
+      </c>
+      <c r="I100" s="0">
+        <v>744900</v>
+      </c>
+      <c r="J100" s="0">
+        <v>222819.0502155986</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" s="0">
+        <v>1405</v>
+      </c>
+      <c r="C101" s="0">
+        <v>1611</v>
+      </c>
+      <c r="D101" s="0">
+        <v>1612</v>
+      </c>
+      <c r="E101" s="0">
+        <v>1787</v>
+      </c>
+      <c r="F101" s="0">
+        <v>702500</v>
+      </c>
+      <c r="G101" s="0">
+        <v>805500</v>
+      </c>
+      <c r="H101" s="0">
+        <v>806000</v>
+      </c>
+      <c r="I101" s="0">
+        <v>893500</v>
+      </c>
+      <c r="J101" s="0">
+        <v>277909.3026291239</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B102" s="0">
+        <v>4745</v>
+      </c>
+      <c r="C102" s="0">
+        <v>5654</v>
+      </c>
+      <c r="D102" s="0">
+        <v>5655</v>
+      </c>
+      <c r="E102" s="0">
+        <v>6712</v>
+      </c>
+      <c r="F102" s="0">
+        <v>379600</v>
+      </c>
+      <c r="G102" s="0">
+        <v>452320</v>
+      </c>
+      <c r="H102" s="0">
+        <v>452400</v>
+      </c>
+      <c r="I102" s="0">
+        <v>536960</v>
+      </c>
+      <c r="J102" s="0">
+        <v>157803.97514393576</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="0">
+        <v>1434</v>
+      </c>
+      <c r="C103" s="0">
+        <v>1615</v>
+      </c>
+      <c r="D103" s="0">
+        <v>1645</v>
+      </c>
+      <c r="E103" s="0">
+        <v>1806</v>
+      </c>
+      <c r="F103" s="0">
+        <v>731340</v>
+      </c>
+      <c r="G103" s="0">
+        <v>823650</v>
+      </c>
+      <c r="H103" s="0">
+        <v>838950</v>
+      </c>
+      <c r="I103" s="0">
+        <v>921060</v>
+      </c>
+      <c r="J103" s="0">
+        <v>287236.3516698953</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" s="0">
+        <v>1406</v>
+      </c>
+      <c r="C104" s="0">
+        <v>1550</v>
+      </c>
+      <c r="D104" s="0">
+        <v>1550</v>
+      </c>
+      <c r="E104" s="0">
+        <v>1801</v>
+      </c>
+      <c r="F104" s="0">
+        <v>759240</v>
+      </c>
+      <c r="G104" s="0">
+        <v>837000</v>
+      </c>
+      <c r="H104" s="0">
+        <v>837000</v>
+      </c>
+      <c r="I104" s="0">
+        <v>972540</v>
+      </c>
+      <c r="J104" s="0">
+        <v>295090.6574020676</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" s="0">
+        <v>1396</v>
+      </c>
+      <c r="C105" s="0">
+        <v>1681</v>
+      </c>
+      <c r="D105" s="0">
+        <v>1661</v>
+      </c>
+      <c r="E105" s="0">
+        <v>1864</v>
+      </c>
+      <c r="F105" s="0">
+        <v>628200</v>
+      </c>
+      <c r="G105" s="0">
+        <v>756450</v>
+      </c>
+      <c r="H105" s="0">
+        <v>747450</v>
+      </c>
+      <c r="I105" s="0">
+        <v>838800</v>
+      </c>
+      <c r="J105" s="0">
+        <v>257415.4770859671</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" s="0">
+        <v>6402</v>
+      </c>
+      <c r="C106" s="0">
+        <v>7526</v>
+      </c>
+      <c r="D106" s="0">
+        <v>7485</v>
+      </c>
+      <c r="E106" s="0">
+        <v>8625</v>
+      </c>
+      <c r="F106" s="0">
+        <v>448140</v>
+      </c>
+      <c r="G106" s="0">
+        <v>526820</v>
+      </c>
+      <c r="H106" s="0">
+        <v>523950</v>
+      </c>
+      <c r="I106" s="0">
+        <v>603750</v>
+      </c>
+      <c r="J106" s="0">
+        <v>182184.2849620059</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B107" s="0">
+        <v>1508</v>
+      </c>
+      <c r="C107" s="0">
+        <v>1848</v>
+      </c>
+      <c r="D107" s="0">
+        <v>1835</v>
+      </c>
+      <c r="E107" s="0">
+        <v>2152</v>
+      </c>
+      <c r="F107" s="0">
+        <v>407160</v>
+      </c>
+      <c r="G107" s="0">
+        <v>498960</v>
+      </c>
+      <c r="H107" s="0">
+        <v>495450</v>
+      </c>
+      <c r="I107" s="0">
+        <v>581040</v>
+      </c>
+      <c r="J107" s="0">
+        <v>171783.3855028275</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B108" s="0">
+        <v>1311</v>
+      </c>
+      <c r="C108" s="0">
+        <v>1644</v>
+      </c>
+      <c r="D108" s="0">
+        <v>1657</v>
+      </c>
+      <c r="E108" s="0">
+        <v>1841</v>
+      </c>
+      <c r="F108" s="0">
+        <v>786600</v>
+      </c>
+      <c r="G108" s="0">
+        <v>986400</v>
+      </c>
+      <c r="H108" s="0">
+        <v>994200</v>
+      </c>
+      <c r="I108" s="0">
+        <v>1104600</v>
+      </c>
+      <c r="J108" s="0">
+        <v>335471.7423073774</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B109" s="0">
+        <v>1494</v>
+      </c>
+      <c r="C109" s="0">
+        <v>1677</v>
+      </c>
+      <c r="D109" s="0">
+        <v>1822</v>
+      </c>
+      <c r="E109" s="0">
+        <v>2058</v>
+      </c>
+      <c r="F109" s="0">
+        <v>433260</v>
+      </c>
+      <c r="G109" s="0">
+        <v>486330</v>
+      </c>
+      <c r="H109" s="0">
+        <v>528380</v>
+      </c>
+      <c r="I109" s="0">
+        <v>596820</v>
+      </c>
+      <c r="J109" s="0">
+        <v>177174.2124124577</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="0">
+        <v>1329</v>
+      </c>
+      <c r="C110" s="0">
+        <v>1620</v>
+      </c>
+      <c r="D110" s="0">
+        <v>1625</v>
+      </c>
+      <c r="E110" s="0">
+        <v>1907</v>
+      </c>
+      <c r="F110" s="0">
+        <v>744240</v>
+      </c>
+      <c r="G110" s="0">
+        <v>907200</v>
+      </c>
+      <c r="H110" s="0">
+        <v>910000</v>
+      </c>
+      <c r="I110" s="0">
+        <v>1067920</v>
+      </c>
+      <c r="J110" s="0">
+        <v>314462.31904466223</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="0">
+        <v>1322</v>
+      </c>
+      <c r="C111" s="0">
+        <v>1595</v>
+      </c>
+      <c r="D111" s="0">
+        <v>1442</v>
+      </c>
+      <c r="E111" s="0">
+        <v>1772</v>
+      </c>
+      <c r="F111" s="0">
+        <v>898960</v>
+      </c>
+      <c r="G111" s="0">
+        <v>1084600</v>
+      </c>
+      <c r="H111" s="0">
+        <v>980560</v>
+      </c>
+      <c r="I111" s="0">
+        <v>1204960</v>
+      </c>
+      <c r="J111" s="0">
+        <v>361229.9407013793</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B112" s="0">
+        <v>1338</v>
+      </c>
+      <c r="C112" s="0">
+        <v>1611</v>
+      </c>
+      <c r="D112" s="0">
+        <v>1713</v>
+      </c>
+      <c r="E112" s="0">
+        <v>2008</v>
+      </c>
+      <c r="F112" s="0">
+        <v>508440</v>
+      </c>
+      <c r="G112" s="0">
+        <v>612180</v>
+      </c>
+      <c r="H112" s="0">
+        <v>650940</v>
+      </c>
+      <c r="I112" s="0">
+        <v>763040</v>
+      </c>
+      <c r="J112" s="0">
+        <v>219613.35697954564</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" s="0">
+        <v>1401</v>
+      </c>
+      <c r="C113" s="0">
+        <v>1598</v>
+      </c>
+      <c r="D113" s="0">
+        <v>1640</v>
+      </c>
+      <c r="E113" s="0">
+        <v>1869</v>
+      </c>
+      <c r="F113" s="0">
+        <v>812580</v>
+      </c>
+      <c r="G113" s="0">
+        <v>926840</v>
+      </c>
+      <c r="H113" s="0">
+        <v>951200</v>
+      </c>
+      <c r="I113" s="0">
+        <v>1084020</v>
+      </c>
+      <c r="J113" s="0">
+        <v>327052.7545693647</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114" s="0">
+        <v>2555</v>
+      </c>
+      <c r="C114" s="0">
+        <v>2953</v>
+      </c>
+      <c r="D114" s="0">
+        <v>3026</v>
+      </c>
+      <c r="E114" s="0">
+        <v>3529</v>
+      </c>
+      <c r="F114" s="0">
+        <v>281050</v>
+      </c>
+      <c r="G114" s="0">
+        <v>324830</v>
+      </c>
+      <c r="H114" s="0">
+        <v>332860</v>
+      </c>
+      <c r="I114" s="0">
+        <v>388190</v>
+      </c>
+      <c r="J114" s="0">
+        <v>114971.10401061297</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="0">
+        <v>1479</v>
+      </c>
+      <c r="C115" s="0">
+        <v>1595</v>
+      </c>
+      <c r="D115" s="0">
+        <v>1641</v>
+      </c>
+      <c r="E115" s="0">
+        <v>2013</v>
+      </c>
+      <c r="F115" s="0">
+        <v>517650</v>
+      </c>
+      <c r="G115" s="0">
+        <v>558250</v>
+      </c>
+      <c r="H115" s="0">
+        <v>574350</v>
+      </c>
+      <c r="I115" s="0">
+        <v>704550</v>
+      </c>
+      <c r="J115" s="0">
+        <v>204030.53563442337</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DataAgregation/age-clusters.xlsx
+++ b/DataAgregation/age-clusters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -147,10 +147,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>13-23</t>
-  </si>
-  <si>
-    <t>24-36</t>
+    <t>25-36</t>
   </si>
   <si>
     <t>37-49</t>
@@ -2245,28 +2242,28 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>42</v>
@@ -2274,13 +2271,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0">
-        <v>1705</v>
+        <v>1866</v>
       </c>
       <c r="C3" s="0">
-        <v>2019</v>
+        <v>1858</v>
       </c>
       <c r="D3" s="0">
         <v>1966</v>
@@ -2289,10 +2286,10 @@
         <v>2426</v>
       </c>
       <c r="F3" s="0">
-        <v>272800</v>
+        <v>298560</v>
       </c>
       <c r="G3" s="0">
-        <v>323040</v>
+        <v>297280</v>
       </c>
       <c r="H3" s="0">
         <v>314560</v>
@@ -2306,13 +2303,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0">
-        <v>12041</v>
+        <v>13144</v>
       </c>
       <c r="C4" s="0">
-        <v>13873</v>
+        <v>12770</v>
       </c>
       <c r="D4" s="0">
         <v>14002</v>
@@ -2321,10 +2318,10 @@
         <v>16098</v>
       </c>
       <c r="F4" s="0">
-        <v>120410</v>
+        <v>131440</v>
       </c>
       <c r="G4" s="0">
-        <v>138730</v>
+        <v>127700</v>
       </c>
       <c r="H4" s="0">
         <v>140020</v>
@@ -2338,13 +2335,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0">
-        <v>1341</v>
+        <v>1483</v>
       </c>
       <c r="C5" s="0">
-        <v>1627</v>
+        <v>1485</v>
       </c>
       <c r="D5" s="0">
         <v>1492</v>
@@ -2353,10 +2350,10 @@
         <v>1828</v>
       </c>
       <c r="F5" s="0">
-        <v>871650</v>
+        <v>963950</v>
       </c>
       <c r="G5" s="0">
-        <v>1057550</v>
+        <v>965250</v>
       </c>
       <c r="H5" s="0">
         <v>969800</v>
@@ -2370,13 +2367,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0">
-        <v>1347</v>
+        <v>1475</v>
       </c>
       <c r="C6" s="0">
-        <v>1663</v>
+        <v>1535</v>
       </c>
       <c r="D6" s="0">
         <v>1597</v>
@@ -2385,10 +2382,10 @@
         <v>1923</v>
       </c>
       <c r="F6" s="0">
-        <v>686970</v>
+        <v>752250</v>
       </c>
       <c r="G6" s="0">
-        <v>848130</v>
+        <v>782850</v>
       </c>
       <c r="H6" s="0">
         <v>814470</v>
@@ -2402,13 +2399,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0">
-        <v>1535</v>
+        <v>1669</v>
       </c>
       <c r="C7" s="0">
-        <v>1841</v>
+        <v>1707</v>
       </c>
       <c r="D7" s="0">
         <v>1833</v>
@@ -2417,10 +2414,10 @@
         <v>2101</v>
       </c>
       <c r="F7" s="0">
-        <v>368400</v>
+        <v>400560</v>
       </c>
       <c r="G7" s="0">
-        <v>441840</v>
+        <v>409680</v>
       </c>
       <c r="H7" s="0">
         <v>439920</v>
@@ -2434,13 +2431,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0">
-        <v>2971</v>
+        <v>3241</v>
       </c>
       <c r="C8" s="0">
-        <v>3508</v>
+        <v>3238</v>
       </c>
       <c r="D8" s="0">
         <v>3497</v>
@@ -2449,10 +2446,10 @@
         <v>4096</v>
       </c>
       <c r="F8" s="0">
-        <v>297100</v>
+        <v>324100</v>
       </c>
       <c r="G8" s="0">
-        <v>350800</v>
+        <v>323800</v>
       </c>
       <c r="H8" s="0">
         <v>349700</v>
@@ -2466,13 +2463,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="0">
-        <v>2300</v>
+        <v>2487</v>
       </c>
       <c r="C9" s="0">
-        <v>2642</v>
+        <v>2455</v>
       </c>
       <c r="D9" s="0">
         <v>2670</v>
@@ -2481,10 +2478,10 @@
         <v>3080</v>
       </c>
       <c r="F9" s="0">
-        <v>276000</v>
+        <v>298440</v>
       </c>
       <c r="G9" s="0">
-        <v>317040</v>
+        <v>294600</v>
       </c>
       <c r="H9" s="0">
         <v>320400</v>
@@ -2498,13 +2495,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0">
-        <v>1342</v>
+        <v>1466</v>
       </c>
       <c r="C10" s="0">
-        <v>1555</v>
+        <v>1431</v>
       </c>
       <c r="D10" s="0">
         <v>1574</v>
@@ -2513,10 +2510,10 @@
         <v>1772</v>
       </c>
       <c r="F10" s="0">
-        <v>885720</v>
+        <v>967560</v>
       </c>
       <c r="G10" s="0">
-        <v>1026300</v>
+        <v>944460</v>
       </c>
       <c r="H10" s="0">
         <v>1038840</v>
@@ -2530,13 +2527,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="0">
-        <v>1362</v>
+        <v>1488</v>
       </c>
       <c r="C11" s="0">
-        <v>1587</v>
+        <v>1461</v>
       </c>
       <c r="D11" s="0">
         <v>1701</v>
@@ -2545,10 +2542,10 @@
         <v>1864</v>
       </c>
       <c r="F11" s="0">
-        <v>681000</v>
+        <v>744000</v>
       </c>
       <c r="G11" s="0">
-        <v>793500</v>
+        <v>730500</v>
       </c>
       <c r="H11" s="0">
         <v>850500</v>
@@ -2562,13 +2559,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="0">
-        <v>12053</v>
+        <v>13105</v>
       </c>
       <c r="C12" s="0">
-        <v>14129</v>
+        <v>13077</v>
       </c>
       <c r="D12" s="0">
         <v>14275</v>
@@ -2577,10 +2574,10 @@
         <v>16331</v>
       </c>
       <c r="F12" s="0">
-        <v>241060</v>
+        <v>262100</v>
       </c>
       <c r="G12" s="0">
-        <v>282580</v>
+        <v>261540</v>
       </c>
       <c r="H12" s="0">
         <v>285500</v>
@@ -2594,13 +2591,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="0">
-        <v>2598</v>
+        <v>2806</v>
       </c>
       <c r="C13" s="0">
-        <v>2980</v>
+        <v>2772</v>
       </c>
       <c r="D13" s="0">
         <v>2860</v>
@@ -2609,10 +2606,10 @@
         <v>3513</v>
       </c>
       <c r="F13" s="0">
-        <v>285780</v>
+        <v>308660</v>
       </c>
       <c r="G13" s="0">
-        <v>327800</v>
+        <v>304920</v>
       </c>
       <c r="H13" s="0">
         <v>314600</v>
@@ -2626,13 +2623,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0">
-        <v>1546</v>
+        <v>1700</v>
       </c>
       <c r="C14" s="0">
-        <v>1889</v>
+        <v>1735</v>
       </c>
       <c r="D14" s="0">
         <v>1730</v>
@@ -2641,10 +2638,10 @@
         <v>2067</v>
       </c>
       <c r="F14" s="0">
-        <v>417420</v>
+        <v>459000</v>
       </c>
       <c r="G14" s="0">
-        <v>510030</v>
+        <v>468450</v>
       </c>
       <c r="H14" s="0">
         <v>467100</v>
@@ -2658,13 +2655,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="0">
-        <v>1361</v>
+        <v>1482</v>
       </c>
       <c r="C15" s="0">
-        <v>1662</v>
+        <v>1541</v>
       </c>
       <c r="D15" s="0">
         <v>1612</v>
@@ -2673,10 +2670,10 @@
         <v>1884</v>
       </c>
       <c r="F15" s="0">
-        <v>544400</v>
+        <v>592800</v>
       </c>
       <c r="G15" s="0">
-        <v>664800</v>
+        <v>616400</v>
       </c>
       <c r="H15" s="0">
         <v>644800</v>
@@ -2690,13 +2687,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="0">
-        <v>1402</v>
+        <v>1514</v>
       </c>
       <c r="C16" s="0">
-        <v>1699</v>
+        <v>1587</v>
       </c>
       <c r="D16" s="0">
         <v>1630</v>
@@ -2705,10 +2702,10 @@
         <v>1850</v>
       </c>
       <c r="F16" s="0">
-        <v>588840</v>
+        <v>635880</v>
       </c>
       <c r="G16" s="0">
-        <v>713580</v>
+        <v>666540</v>
       </c>
       <c r="H16" s="0">
         <v>684600</v>
@@ -2722,13 +2719,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0">
-        <v>1412</v>
+        <v>1544</v>
       </c>
       <c r="C17" s="0">
-        <v>1664</v>
+        <v>1532</v>
       </c>
       <c r="D17" s="0">
         <v>1589</v>
@@ -2737,10 +2734,10 @@
         <v>1896</v>
       </c>
       <c r="F17" s="0">
-        <v>776600</v>
+        <v>849200</v>
       </c>
       <c r="G17" s="0">
-        <v>915200</v>
+        <v>842600</v>
       </c>
       <c r="H17" s="0">
         <v>873950</v>
@@ -2754,13 +2751,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="0">
-        <v>8392</v>
+        <v>9109</v>
       </c>
       <c r="C18" s="0">
-        <v>9923</v>
+        <v>9206</v>
       </c>
       <c r="D18" s="0">
         <v>9825</v>
@@ -2769,10 +2766,10 @@
         <v>11356</v>
       </c>
       <c r="F18" s="0">
-        <v>503520</v>
+        <v>546540</v>
       </c>
       <c r="G18" s="0">
-        <v>595380</v>
+        <v>552360</v>
       </c>
       <c r="H18" s="0">
         <v>589500</v>
@@ -2786,13 +2783,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="0">
-        <v>1405</v>
+        <v>1535</v>
       </c>
       <c r="C19" s="0">
-        <v>1759</v>
+        <v>1629</v>
       </c>
       <c r="D19" s="0">
         <v>1627</v>
@@ -2801,10 +2798,10 @@
         <v>1906</v>
       </c>
       <c r="F19" s="0">
-        <v>505800</v>
+        <v>552600</v>
       </c>
       <c r="G19" s="0">
-        <v>633240</v>
+        <v>586440</v>
       </c>
       <c r="H19" s="0">
         <v>585720</v>
@@ -2818,13 +2815,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="0">
-        <v>1294</v>
+        <v>1413</v>
       </c>
       <c r="C20" s="0">
-        <v>1551</v>
+        <v>1432</v>
       </c>
       <c r="D20" s="0">
         <v>1553</v>
@@ -2833,10 +2830,10 @@
         <v>1796</v>
       </c>
       <c r="F20" s="0">
-        <v>815220</v>
+        <v>890190</v>
       </c>
       <c r="G20" s="0">
-        <v>977130</v>
+        <v>902160</v>
       </c>
       <c r="H20" s="0">
         <v>978390</v>
@@ -2850,13 +2847,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="0">
-        <v>1296</v>
+        <v>1404</v>
       </c>
       <c r="C21" s="0">
-        <v>1540</v>
+        <v>1432</v>
       </c>
       <c r="D21" s="0">
         <v>1556</v>
@@ -2865,10 +2862,10 @@
         <v>1816</v>
       </c>
       <c r="F21" s="0">
-        <v>907200</v>
+        <v>982800</v>
       </c>
       <c r="G21" s="0">
-        <v>1078000</v>
+        <v>1002400</v>
       </c>
       <c r="H21" s="0">
         <v>1089200</v>
@@ -2882,13 +2879,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="0">
-        <v>1484</v>
+        <v>1618</v>
       </c>
       <c r="C22" s="0">
-        <v>1706</v>
+        <v>1572</v>
       </c>
       <c r="D22" s="0">
         <v>1730</v>
@@ -2897,10 +2894,10 @@
         <v>2017</v>
       </c>
       <c r="F22" s="0">
-        <v>504560</v>
+        <v>550120</v>
       </c>
       <c r="G22" s="0">
-        <v>580040</v>
+        <v>534480</v>
       </c>
       <c r="H22" s="0">
         <v>588200</v>
@@ -2914,13 +2911,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="0">
-        <v>11994</v>
+        <v>13081</v>
       </c>
       <c r="C23" s="0">
-        <v>14091</v>
+        <v>13004</v>
       </c>
       <c r="D23" s="0">
         <v>14116</v>
@@ -2929,10 +2926,10 @@
         <v>16159</v>
       </c>
       <c r="F23" s="0">
-        <v>479760</v>
+        <v>523240</v>
       </c>
       <c r="G23" s="0">
-        <v>563640</v>
+        <v>520160</v>
       </c>
       <c r="H23" s="0">
         <v>564640</v>
@@ -2946,13 +2943,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" s="0">
-        <v>1650</v>
+        <v>1786</v>
       </c>
       <c r="C24" s="0">
-        <v>1969</v>
+        <v>1833</v>
       </c>
       <c r="D24" s="0">
         <v>1871</v>
@@ -2961,10 +2958,10 @@
         <v>2282</v>
       </c>
       <c r="F24" s="0">
-        <v>313500</v>
+        <v>339340</v>
       </c>
       <c r="G24" s="0">
-        <v>374110</v>
+        <v>348270</v>
       </c>
       <c r="H24" s="0">
         <v>355490</v>
@@ -2978,13 +2975,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="0">
-        <v>1349</v>
+        <v>1470</v>
       </c>
       <c r="C25" s="0">
-        <v>1592</v>
+        <v>1471</v>
       </c>
       <c r="D25" s="0">
         <v>1589</v>
@@ -2993,10 +2990,10 @@
         <v>1831</v>
       </c>
       <c r="F25" s="0">
-        <v>944300</v>
+        <v>1029000</v>
       </c>
       <c r="G25" s="0">
-        <v>1114400</v>
+        <v>1029700</v>
       </c>
       <c r="H25" s="0">
         <v>1112300</v>
@@ -3010,13 +3007,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="0">
-        <v>1423</v>
+        <v>1542</v>
       </c>
       <c r="C26" s="0">
-        <v>1640</v>
+        <v>1521</v>
       </c>
       <c r="D26" s="0">
         <v>1606</v>
@@ -3025,10 +3022,10 @@
         <v>1798</v>
       </c>
       <c r="F26" s="0">
-        <v>868030</v>
+        <v>940620</v>
       </c>
       <c r="G26" s="0">
-        <v>1000400</v>
+        <v>927810</v>
       </c>
       <c r="H26" s="0">
         <v>979660</v>
@@ -3042,13 +3039,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="0">
-        <v>1466</v>
+        <v>1584</v>
       </c>
       <c r="C27" s="0">
-        <v>1644</v>
+        <v>1526</v>
       </c>
       <c r="D27" s="0">
         <v>1595</v>
@@ -3057,10 +3054,10 @@
         <v>1986</v>
       </c>
       <c r="F27" s="0">
-        <v>498440</v>
+        <v>538560</v>
       </c>
       <c r="G27" s="0">
-        <v>558960</v>
+        <v>518840</v>
       </c>
       <c r="H27" s="0">
         <v>542300</v>
@@ -3074,13 +3071,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="0">
-        <v>1348</v>
+        <v>1469</v>
       </c>
       <c r="C28" s="0">
-        <v>1590</v>
+        <v>1469</v>
       </c>
       <c r="D28" s="0">
         <v>1663</v>
@@ -3089,10 +3086,10 @@
         <v>1901</v>
       </c>
       <c r="F28" s="0">
-        <v>768360</v>
+        <v>837330</v>
       </c>
       <c r="G28" s="0">
-        <v>906300</v>
+        <v>837330</v>
       </c>
       <c r="H28" s="0">
         <v>947910</v>
@@ -3106,13 +3103,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" s="0">
-        <v>1476</v>
+        <v>1628</v>
       </c>
       <c r="C29" s="0">
-        <v>1803</v>
+        <v>1651</v>
       </c>
       <c r="D29" s="0">
         <v>1763</v>
@@ -3121,10 +3118,10 @@
         <v>2076</v>
       </c>
       <c r="F29" s="0">
-        <v>398520</v>
+        <v>439560</v>
       </c>
       <c r="G29" s="0">
-        <v>486810</v>
+        <v>445770</v>
       </c>
       <c r="H29" s="0">
         <v>476010</v>
@@ -3138,13 +3135,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="0">
-        <v>1711</v>
+        <v>1859</v>
       </c>
       <c r="C30" s="0">
-        <v>2006</v>
+        <v>1858</v>
       </c>
       <c r="D30" s="0">
         <v>1959</v>
@@ -3153,10 +3150,10 @@
         <v>2369</v>
       </c>
       <c r="F30" s="0">
-        <v>273760</v>
+        <v>297440</v>
       </c>
       <c r="G30" s="0">
-        <v>320960</v>
+        <v>297280</v>
       </c>
       <c r="H30" s="0">
         <v>313440</v>
@@ -3170,13 +3167,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="0">
-        <v>1365</v>
+        <v>1490</v>
       </c>
       <c r="C31" s="0">
-        <v>1592</v>
+        <v>1467</v>
       </c>
       <c r="D31" s="0">
         <v>1513</v>
@@ -3185,10 +3182,10 @@
         <v>1919</v>
       </c>
       <c r="F31" s="0">
-        <v>900900</v>
+        <v>983400</v>
       </c>
       <c r="G31" s="0">
-        <v>1050720</v>
+        <v>968220</v>
       </c>
       <c r="H31" s="0">
         <v>998580</v>
@@ -3202,13 +3199,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="0">
-        <v>1441</v>
+        <v>1565</v>
       </c>
       <c r="C32" s="0">
-        <v>1698</v>
+        <v>1574</v>
       </c>
       <c r="D32" s="0">
         <v>1685</v>
@@ -3217,10 +3214,10 @@
         <v>2004</v>
       </c>
       <c r="F32" s="0">
-        <v>504350</v>
+        <v>547750</v>
       </c>
       <c r="G32" s="0">
-        <v>594300</v>
+        <v>550900</v>
       </c>
       <c r="H32" s="0">
         <v>589750</v>
@@ -3234,13 +3231,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="0">
-        <v>1703</v>
+        <v>1858</v>
       </c>
       <c r="C33" s="0">
-        <v>2037</v>
+        <v>1882</v>
       </c>
       <c r="D33" s="0">
         <v>2081</v>
@@ -3249,10 +3246,10 @@
         <v>2363</v>
       </c>
       <c r="F33" s="0">
-        <v>272480</v>
+        <v>297280</v>
       </c>
       <c r="G33" s="0">
-        <v>325920</v>
+        <v>301120</v>
       </c>
       <c r="H33" s="0">
         <v>332960</v>
@@ -3266,13 +3263,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="0">
-        <v>1611</v>
+        <v>1730</v>
       </c>
       <c r="C34" s="0">
-        <v>1793</v>
+        <v>1674</v>
       </c>
       <c r="D34" s="0">
         <v>1818</v>
@@ -3281,10 +3278,10 @@
         <v>2073</v>
       </c>
       <c r="F34" s="0">
-        <v>386640</v>
+        <v>415200</v>
       </c>
       <c r="G34" s="0">
-        <v>430320</v>
+        <v>401760</v>
       </c>
       <c r="H34" s="0">
         <v>436320</v>
@@ -3298,13 +3295,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" s="0">
-        <v>1413</v>
+        <v>1541</v>
       </c>
       <c r="C35" s="0">
-        <v>1675</v>
+        <v>1547</v>
       </c>
       <c r="D35" s="0">
         <v>1679</v>
@@ -3313,10 +3310,10 @@
         <v>1916</v>
       </c>
       <c r="F35" s="0">
-        <v>607590</v>
+        <v>662630</v>
       </c>
       <c r="G35" s="0">
-        <v>720250</v>
+        <v>665210</v>
       </c>
       <c r="H35" s="0">
         <v>721970</v>
@@ -3330,13 +3327,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" s="0">
-        <v>1364</v>
+        <v>1485</v>
       </c>
       <c r="C36" s="0">
-        <v>1641</v>
+        <v>1520</v>
       </c>
       <c r="D36" s="0">
         <v>1587</v>
@@ -3345,10 +3342,10 @@
         <v>1849</v>
       </c>
       <c r="F36" s="0">
-        <v>777480</v>
+        <v>846450</v>
       </c>
       <c r="G36" s="0">
-        <v>935370</v>
+        <v>866400</v>
       </c>
       <c r="H36" s="0">
         <v>904590</v>
@@ -3362,13 +3359,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="0">
-        <v>1346</v>
+        <v>1471</v>
       </c>
       <c r="C37" s="0">
-        <v>1537</v>
+        <v>1412</v>
       </c>
       <c r="D37" s="0">
         <v>1602</v>
@@ -3377,10 +3374,10 @@
         <v>1844</v>
       </c>
       <c r="F37" s="0">
-        <v>726840</v>
+        <v>794340</v>
       </c>
       <c r="G37" s="0">
-        <v>829980</v>
+        <v>762480</v>
       </c>
       <c r="H37" s="0">
         <v>865080</v>
@@ -3394,13 +3391,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38" s="0">
-        <v>1365</v>
+        <v>1511</v>
       </c>
       <c r="C38" s="0">
-        <v>1640</v>
+        <v>1494</v>
       </c>
       <c r="D38" s="0">
         <v>1741</v>
@@ -3409,10 +3406,10 @@
         <v>1929</v>
       </c>
       <c r="F38" s="0">
-        <v>641550</v>
+        <v>710170</v>
       </c>
       <c r="G38" s="0">
-        <v>770800</v>
+        <v>702180</v>
       </c>
       <c r="H38" s="0">
         <v>818270</v>
@@ -3426,13 +3423,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="0">
-        <v>1486</v>
+        <v>1644</v>
       </c>
       <c r="C39" s="0">
-        <v>1766</v>
+        <v>1608</v>
       </c>
       <c r="D39" s="0">
         <v>1809</v>
@@ -3441,10 +3438,10 @@
         <v>2135</v>
       </c>
       <c r="F39" s="0">
-        <v>401220</v>
+        <v>443880</v>
       </c>
       <c r="G39" s="0">
-        <v>476820</v>
+        <v>434160</v>
       </c>
       <c r="H39" s="0">
         <v>488430</v>
@@ -3458,13 +3455,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" s="0">
-        <v>1351</v>
+        <v>1491</v>
       </c>
       <c r="C40" s="0">
-        <v>1615</v>
+        <v>1475</v>
       </c>
       <c r="D40" s="0">
         <v>1645</v>
@@ -3473,10 +3470,10 @@
         <v>1841</v>
       </c>
       <c r="F40" s="0">
-        <v>634970</v>
+        <v>700770</v>
       </c>
       <c r="G40" s="0">
-        <v>759050</v>
+        <v>693250</v>
       </c>
       <c r="H40" s="0">
         <v>773150</v>
@@ -3490,13 +3487,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="0">
-        <v>1399</v>
+        <v>1501</v>
       </c>
       <c r="C41" s="0">
-        <v>1662</v>
+        <v>1560</v>
       </c>
       <c r="D41" s="0">
         <v>1682</v>
@@ -3505,10 +3502,10 @@
         <v>1959</v>
       </c>
       <c r="F41" s="0">
-        <v>475660</v>
+        <v>510340</v>
       </c>
       <c r="G41" s="0">
-        <v>565080</v>
+        <v>530400</v>
       </c>
       <c r="H41" s="0">
         <v>571880</v>
@@ -3522,13 +3519,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="0">
-        <v>1385</v>
+        <v>1536</v>
       </c>
       <c r="C42" s="0">
-        <v>1734</v>
+        <v>1583</v>
       </c>
       <c r="D42" s="0">
         <v>1719</v>
@@ -3537,10 +3534,10 @@
         <v>2002</v>
       </c>
       <c r="F42" s="0">
-        <v>457050</v>
+        <v>506880</v>
       </c>
       <c r="G42" s="0">
-        <v>572220</v>
+        <v>522390</v>
       </c>
       <c r="H42" s="0">
         <v>567270</v>
@@ -3554,13 +3551,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="0">
-        <v>1409</v>
+        <v>1527</v>
       </c>
       <c r="C43" s="0">
-        <v>1577</v>
+        <v>1459</v>
       </c>
       <c r="D43" s="0">
         <v>1615</v>
@@ -3569,10 +3566,10 @@
         <v>1874</v>
       </c>
       <c r="F43" s="0">
-        <v>704500</v>
+        <v>763500</v>
       </c>
       <c r="G43" s="0">
-        <v>788500</v>
+        <v>729500</v>
       </c>
       <c r="H43" s="0">
         <v>807500</v>
@@ -3586,13 +3583,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B44" s="0">
-        <v>12050</v>
+        <v>13143</v>
       </c>
       <c r="C44" s="0">
-        <v>14039</v>
+        <v>12946</v>
       </c>
       <c r="D44" s="0">
         <v>14073</v>
@@ -3601,10 +3598,10 @@
         <v>16215</v>
       </c>
       <c r="F44" s="0">
-        <v>120500</v>
+        <v>131430</v>
       </c>
       <c r="G44" s="0">
-        <v>140390</v>
+        <v>129460</v>
       </c>
       <c r="H44" s="0">
         <v>140730</v>
@@ -3618,13 +3615,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="0">
-        <v>1449</v>
+        <v>1596</v>
       </c>
       <c r="C45" s="0">
-        <v>1621</v>
+        <v>1474</v>
       </c>
       <c r="D45" s="0">
         <v>1729</v>
@@ -3633,10 +3630,10 @@
         <v>1913</v>
       </c>
       <c r="F45" s="0">
-        <v>463680</v>
+        <v>510720</v>
       </c>
       <c r="G45" s="0">
-        <v>518720</v>
+        <v>471680</v>
       </c>
       <c r="H45" s="0">
         <v>553280</v>
@@ -3650,13 +3647,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" s="0">
-        <v>1417</v>
+        <v>1555</v>
       </c>
       <c r="C46" s="0">
-        <v>1665</v>
+        <v>1527</v>
       </c>
       <c r="D46" s="0">
         <v>1599</v>
@@ -3665,10 +3662,10 @@
         <v>1882</v>
       </c>
       <c r="F46" s="0">
-        <v>580970</v>
+        <v>637550</v>
       </c>
       <c r="G46" s="0">
-        <v>682650</v>
+        <v>626070</v>
       </c>
       <c r="H46" s="0">
         <v>655590</v>
@@ -3682,13 +3679,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="0">
-        <v>1356</v>
+        <v>1480</v>
       </c>
       <c r="C47" s="0">
-        <v>1633</v>
+        <v>1509</v>
       </c>
       <c r="D47" s="0">
         <v>1661</v>
@@ -3697,10 +3694,10 @@
         <v>1869</v>
       </c>
       <c r="F47" s="0">
-        <v>623760</v>
+        <v>680800</v>
       </c>
       <c r="G47" s="0">
-        <v>751180</v>
+        <v>694140</v>
       </c>
       <c r="H47" s="0">
         <v>764060</v>
@@ -3714,13 +3711,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="0">
-        <v>1312</v>
+        <v>1400</v>
       </c>
       <c r="C48" s="0">
-        <v>1533</v>
+        <v>1445</v>
       </c>
       <c r="D48" s="0">
         <v>1523</v>
@@ -3729,10 +3726,10 @@
         <v>1808</v>
       </c>
       <c r="F48" s="0">
-        <v>892160</v>
+        <v>952000</v>
       </c>
       <c r="G48" s="0">
-        <v>1042440</v>
+        <v>982600</v>
       </c>
       <c r="H48" s="0">
         <v>1035640</v>
@@ -3746,13 +3743,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="0">
-        <v>1424</v>
+        <v>1539</v>
       </c>
       <c r="C49" s="0">
-        <v>1646</v>
+        <v>1531</v>
       </c>
       <c r="D49" s="0">
         <v>1617</v>
@@ -3761,10 +3758,10 @@
         <v>1835</v>
       </c>
       <c r="F49" s="0">
-        <v>840160</v>
+        <v>908010</v>
       </c>
       <c r="G49" s="0">
-        <v>971140</v>
+        <v>903290</v>
       </c>
       <c r="H49" s="0">
         <v>954030</v>
@@ -3778,13 +3775,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" s="0">
-        <v>1396</v>
+        <v>1494</v>
       </c>
       <c r="C50" s="0">
-        <v>1588</v>
+        <v>1490</v>
       </c>
       <c r="D50" s="0">
         <v>1601</v>
@@ -3793,10 +3790,10 @@
         <v>1889</v>
       </c>
       <c r="F50" s="0">
-        <v>809680</v>
+        <v>866520</v>
       </c>
       <c r="G50" s="0">
-        <v>921040</v>
+        <v>864200</v>
       </c>
       <c r="H50" s="0">
         <v>928580</v>
@@ -3810,13 +3807,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" s="0">
-        <v>2957</v>
+        <v>3215</v>
       </c>
       <c r="C51" s="0">
-        <v>3532</v>
+        <v>3274</v>
       </c>
       <c r="D51" s="0">
         <v>3494</v>
@@ -3825,10 +3822,10 @@
         <v>4211</v>
       </c>
       <c r="F51" s="0">
-        <v>59140</v>
+        <v>64300</v>
       </c>
       <c r="G51" s="0">
-        <v>70640</v>
+        <v>65480</v>
       </c>
       <c r="H51" s="0">
         <v>69880</v>
@@ -3842,13 +3839,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" s="0">
-        <v>1316</v>
+        <v>1433</v>
       </c>
       <c r="C52" s="0">
-        <v>1504</v>
+        <v>1387</v>
       </c>
       <c r="D52" s="0">
         <v>1515</v>
@@ -3857,10 +3854,10 @@
         <v>1752</v>
       </c>
       <c r="F52" s="0">
-        <v>868560</v>
+        <v>945780</v>
       </c>
       <c r="G52" s="0">
-        <v>992640</v>
+        <v>915420</v>
       </c>
       <c r="H52" s="0">
         <v>999900</v>
@@ -3874,13 +3871,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B53" s="0">
-        <v>1301</v>
+        <v>1424</v>
       </c>
       <c r="C53" s="0">
-        <v>1598</v>
+        <v>1475</v>
       </c>
       <c r="D53" s="0">
         <v>1539</v>
@@ -3889,10 +3886,10 @@
         <v>1748</v>
       </c>
       <c r="F53" s="0">
-        <v>845650</v>
+        <v>925600</v>
       </c>
       <c r="G53" s="0">
-        <v>1038700</v>
+        <v>958750</v>
       </c>
       <c r="H53" s="0">
         <v>1000350</v>
@@ -3906,13 +3903,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" s="0">
-        <v>1361</v>
+        <v>1486</v>
       </c>
       <c r="C54" s="0">
-        <v>1614</v>
+        <v>1489</v>
       </c>
       <c r="D54" s="0">
         <v>1691</v>
@@ -3921,10 +3918,10 @@
         <v>1866</v>
       </c>
       <c r="F54" s="0">
-        <v>585230</v>
+        <v>638980</v>
       </c>
       <c r="G54" s="0">
-        <v>694020</v>
+        <v>640270</v>
       </c>
       <c r="H54" s="0">
         <v>727130</v>
@@ -3938,13 +3935,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="0">
-        <v>1360</v>
+        <v>1471</v>
       </c>
       <c r="C55" s="0">
-        <v>1648</v>
+        <v>1537</v>
       </c>
       <c r="D55" s="0">
         <v>1699</v>
@@ -3953,10 +3950,10 @@
         <v>1951</v>
       </c>
       <c r="F55" s="0">
-        <v>503200</v>
+        <v>544270</v>
       </c>
       <c r="G55" s="0">
-        <v>609760</v>
+        <v>568690</v>
       </c>
       <c r="H55" s="0">
         <v>628630</v>
@@ -3970,13 +3967,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="0">
-        <v>3615</v>
+        <v>3899</v>
       </c>
       <c r="C56" s="0">
-        <v>4251</v>
+        <v>3967</v>
       </c>
       <c r="D56" s="0">
         <v>4265</v>
@@ -3985,10 +3982,10 @@
         <v>4945</v>
       </c>
       <c r="F56" s="0">
-        <v>325350</v>
+        <v>350910</v>
       </c>
       <c r="G56" s="0">
-        <v>382590</v>
+        <v>357030</v>
       </c>
       <c r="H56" s="0">
         <v>383850</v>
@@ -4002,13 +3999,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="0">
-        <v>1379</v>
+        <v>1510</v>
       </c>
       <c r="C57" s="0">
-        <v>1626</v>
+        <v>1495</v>
       </c>
       <c r="D57" s="0">
         <v>1605</v>
@@ -4017,10 +4014,10 @@
         <v>1854</v>
       </c>
       <c r="F57" s="0">
-        <v>537810</v>
+        <v>588900</v>
       </c>
       <c r="G57" s="0">
-        <v>634140</v>
+        <v>583050</v>
       </c>
       <c r="H57" s="0">
         <v>625950</v>
@@ -4034,13 +4031,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B58" s="0">
-        <v>1389</v>
+        <v>1517</v>
       </c>
       <c r="C58" s="0">
-        <v>1640</v>
+        <v>1512</v>
       </c>
       <c r="D58" s="0">
         <v>1591</v>
@@ -4049,10 +4046,10 @@
         <v>1902</v>
       </c>
       <c r="F58" s="0">
-        <v>708390</v>
+        <v>773670</v>
       </c>
       <c r="G58" s="0">
-        <v>836400</v>
+        <v>771120</v>
       </c>
       <c r="H58" s="0">
         <v>811410</v>
@@ -4066,13 +4063,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="0">
-        <v>1377</v>
+        <v>1516</v>
       </c>
       <c r="C59" s="0">
-        <v>1675</v>
+        <v>1536</v>
       </c>
       <c r="D59" s="0">
         <v>1669</v>
@@ -4081,10 +4078,10 @@
         <v>1898</v>
       </c>
       <c r="F59" s="0">
-        <v>743580</v>
+        <v>818640</v>
       </c>
       <c r="G59" s="0">
-        <v>904500</v>
+        <v>829440</v>
       </c>
       <c r="H59" s="0">
         <v>901260</v>
@@ -4098,13 +4095,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="0">
-        <v>1376</v>
+        <v>1501</v>
       </c>
       <c r="C60" s="0">
-        <v>1657</v>
+        <v>1532</v>
       </c>
       <c r="D60" s="0">
         <v>1617</v>
@@ -4113,10 +4110,10 @@
         <v>1841</v>
       </c>
       <c r="F60" s="0">
-        <v>715520</v>
+        <v>780520</v>
       </c>
       <c r="G60" s="0">
-        <v>861640</v>
+        <v>796640</v>
       </c>
       <c r="H60" s="0">
         <v>840840</v>
@@ -4130,13 +4127,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61" s="0">
-        <v>1422</v>
+        <v>1528</v>
       </c>
       <c r="C61" s="0">
-        <v>1777</v>
+        <v>1671</v>
       </c>
       <c r="D61" s="0">
         <v>1750</v>
@@ -4145,10 +4142,10 @@
         <v>2010</v>
       </c>
       <c r="F61" s="0">
-        <v>412380</v>
+        <v>443120</v>
       </c>
       <c r="G61" s="0">
-        <v>515330</v>
+        <v>484590</v>
       </c>
       <c r="H61" s="0">
         <v>507500</v>
@@ -4162,13 +4159,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="0">
-        <v>1385</v>
+        <v>1515</v>
       </c>
       <c r="C62" s="0">
-        <v>1771</v>
+        <v>1641</v>
       </c>
       <c r="D62" s="0">
         <v>1709</v>
@@ -4177,10 +4174,10 @@
         <v>1952</v>
       </c>
       <c r="F62" s="0">
-        <v>470900</v>
+        <v>515100</v>
       </c>
       <c r="G62" s="0">
-        <v>602140</v>
+        <v>557940</v>
       </c>
       <c r="H62" s="0">
         <v>581060</v>
@@ -4194,13 +4191,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B63" s="0">
-        <v>1735</v>
+        <v>1896</v>
       </c>
       <c r="C63" s="0">
-        <v>1943</v>
+        <v>1782</v>
       </c>
       <c r="D63" s="0">
         <v>2099</v>
@@ -4209,10 +4206,10 @@
         <v>2267</v>
       </c>
       <c r="F63" s="0">
-        <v>294950</v>
+        <v>322320</v>
       </c>
       <c r="G63" s="0">
-        <v>330310</v>
+        <v>302940</v>
       </c>
       <c r="H63" s="0">
         <v>356830</v>
@@ -4226,13 +4223,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B64" s="0">
-        <v>1410</v>
+        <v>1543</v>
       </c>
       <c r="C64" s="0">
-        <v>1670</v>
+        <v>1537</v>
       </c>
       <c r="D64" s="0">
         <v>1617</v>
@@ -4241,10 +4238,10 @@
         <v>1878</v>
       </c>
       <c r="F64" s="0">
-        <v>747300</v>
+        <v>817790</v>
       </c>
       <c r="G64" s="0">
-        <v>885100</v>
+        <v>814610</v>
       </c>
       <c r="H64" s="0">
         <v>857010</v>
@@ -4258,13 +4255,13 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" s="0">
-        <v>1372</v>
+        <v>1498</v>
       </c>
       <c r="C65" s="0">
-        <v>1524</v>
+        <v>1398</v>
       </c>
       <c r="D65" s="0">
         <v>1621</v>
@@ -4273,10 +4270,10 @@
         <v>1770</v>
       </c>
       <c r="F65" s="0">
-        <v>644840</v>
+        <v>704060</v>
       </c>
       <c r="G65" s="0">
-        <v>716280</v>
+        <v>657060</v>
       </c>
       <c r="H65" s="0">
         <v>761870</v>
@@ -4290,13 +4287,13 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B66" s="0">
-        <v>1352</v>
+        <v>1484</v>
       </c>
       <c r="C66" s="0">
-        <v>1673</v>
+        <v>1541</v>
       </c>
       <c r="D66" s="0">
         <v>1521</v>
@@ -4305,10 +4302,10 @@
         <v>1942</v>
       </c>
       <c r="F66" s="0">
-        <v>608400</v>
+        <v>667800</v>
       </c>
       <c r="G66" s="0">
-        <v>752850</v>
+        <v>693450</v>
       </c>
       <c r="H66" s="0">
         <v>684450</v>
@@ -4322,13 +4319,13 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="0">
-        <v>1434</v>
+        <v>1549</v>
       </c>
       <c r="C67" s="0">
-        <v>1587</v>
+        <v>1472</v>
       </c>
       <c r="D67" s="0">
         <v>1675</v>
@@ -4337,10 +4334,10 @@
         <v>1911</v>
       </c>
       <c r="F67" s="0">
-        <v>616620</v>
+        <v>666070</v>
       </c>
       <c r="G67" s="0">
-        <v>682410</v>
+        <v>632960</v>
       </c>
       <c r="H67" s="0">
         <v>720250</v>
@@ -4354,13 +4351,13 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" s="0">
-        <v>11893</v>
+        <v>12984</v>
       </c>
       <c r="C68" s="0">
-        <v>14164</v>
+        <v>13073</v>
       </c>
       <c r="D68" s="0">
         <v>14030</v>
@@ -4369,10 +4366,10 @@
         <v>16273</v>
       </c>
       <c r="F68" s="0">
-        <v>118930</v>
+        <v>129840</v>
       </c>
       <c r="G68" s="0">
-        <v>141640</v>
+        <v>130730</v>
       </c>
       <c r="H68" s="0">
         <v>140300</v>
@@ -4386,13 +4383,13 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" s="0">
-        <v>2089</v>
+        <v>2302</v>
       </c>
       <c r="C69" s="0">
-        <v>2439</v>
+        <v>2226</v>
       </c>
       <c r="D69" s="0">
         <v>2372</v>
@@ -4401,10 +4398,10 @@
         <v>2821</v>
       </c>
       <c r="F69" s="0">
-        <v>271570</v>
+        <v>299260</v>
       </c>
       <c r="G69" s="0">
-        <v>317070</v>
+        <v>289380</v>
       </c>
       <c r="H69" s="0">
         <v>308360</v>
@@ -4418,13 +4415,13 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70" s="0">
-        <v>1363</v>
+        <v>1481</v>
       </c>
       <c r="C70" s="0">
-        <v>1581</v>
+        <v>1463</v>
       </c>
       <c r="D70" s="0">
         <v>1667</v>
@@ -4433,10 +4430,10 @@
         <v>1888</v>
       </c>
       <c r="F70" s="0">
-        <v>667870</v>
+        <v>725690</v>
       </c>
       <c r="G70" s="0">
-        <v>774690</v>
+        <v>716870</v>
       </c>
       <c r="H70" s="0">
         <v>816830</v>
@@ -4450,13 +4447,13 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="0">
-        <v>1289</v>
+        <v>1406</v>
       </c>
       <c r="C71" s="0">
-        <v>1537</v>
+        <v>1420</v>
       </c>
       <c r="D71" s="0">
         <v>1561</v>
@@ -4465,10 +4462,10 @@
         <v>1808</v>
       </c>
       <c r="F71" s="0">
-        <v>876520</v>
+        <v>956080</v>
       </c>
       <c r="G71" s="0">
-        <v>1045160</v>
+        <v>965600</v>
       </c>
       <c r="H71" s="0">
         <v>1061480</v>
@@ -4482,13 +4479,13 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B72" s="0">
-        <v>1404</v>
+        <v>1517</v>
       </c>
       <c r="C72" s="0">
-        <v>1679</v>
+        <v>1566</v>
       </c>
       <c r="D72" s="0">
         <v>1631</v>
@@ -4497,10 +4494,10 @@
         <v>1911</v>
       </c>
       <c r="F72" s="0">
-        <v>533520</v>
+        <v>576460</v>
       </c>
       <c r="G72" s="0">
-        <v>638020</v>
+        <v>595080</v>
       </c>
       <c r="H72" s="0">
         <v>619780</v>
@@ -4514,13 +4511,13 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B73" s="0">
-        <v>1801</v>
+        <v>1957</v>
       </c>
       <c r="C73" s="0">
-        <v>2140</v>
+        <v>1984</v>
       </c>
       <c r="D73" s="0">
         <v>2225</v>
@@ -4529,10 +4526,10 @@
         <v>2555</v>
       </c>
       <c r="F73" s="0">
-        <v>270150</v>
+        <v>293550</v>
       </c>
       <c r="G73" s="0">
-        <v>321000</v>
+        <v>297600</v>
       </c>
       <c r="H73" s="0">
         <v>333750</v>
@@ -4546,13 +4543,13 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B74" s="0">
-        <v>1524</v>
+        <v>1665</v>
       </c>
       <c r="C74" s="0">
-        <v>1836</v>
+        <v>1695</v>
       </c>
       <c r="D74" s="0">
         <v>1862</v>
@@ -4561,10 +4558,10 @@
         <v>2237</v>
       </c>
       <c r="F74" s="0">
-        <v>335280</v>
+        <v>366300</v>
       </c>
       <c r="G74" s="0">
-        <v>403920</v>
+        <v>372900</v>
       </c>
       <c r="H74" s="0">
         <v>409640</v>
@@ -4578,13 +4575,13 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75" s="0">
-        <v>8405</v>
+        <v>9176</v>
       </c>
       <c r="C75" s="0">
-        <v>10009</v>
+        <v>9238</v>
       </c>
       <c r="D75" s="0">
         <v>9963</v>
@@ -4593,10 +4590,10 @@
         <v>11207</v>
       </c>
       <c r="F75" s="0">
-        <v>504300</v>
+        <v>550560</v>
       </c>
       <c r="G75" s="0">
-        <v>600540</v>
+        <v>554280</v>
       </c>
       <c r="H75" s="0">
         <v>597780</v>
@@ -4610,13 +4607,13 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B76" s="0">
-        <v>1467</v>
+        <v>1599</v>
       </c>
       <c r="C76" s="0">
-        <v>1613</v>
+        <v>1481</v>
       </c>
       <c r="D76" s="0">
         <v>1749</v>
@@ -4625,10 +4622,10 @@
         <v>2064</v>
       </c>
       <c r="F76" s="0">
-        <v>440100</v>
+        <v>479700</v>
       </c>
       <c r="G76" s="0">
-        <v>483900</v>
+        <v>444300</v>
       </c>
       <c r="H76" s="0">
         <v>524700</v>
@@ -4642,13 +4639,13 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77" s="0">
-        <v>1341</v>
+        <v>1452</v>
       </c>
       <c r="C77" s="0">
-        <v>1573</v>
+        <v>1462</v>
       </c>
       <c r="D77" s="0">
         <v>1561</v>
@@ -4657,10 +4654,10 @@
         <v>1882</v>
       </c>
       <c r="F77" s="0">
-        <v>590040</v>
+        <v>638880</v>
       </c>
       <c r="G77" s="0">
-        <v>692120</v>
+        <v>643280</v>
       </c>
       <c r="H77" s="0">
         <v>686840</v>
@@ -4674,13 +4671,13 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B78" s="0">
-        <v>1359</v>
+        <v>1476</v>
       </c>
       <c r="C78" s="0">
-        <v>1552</v>
+        <v>1435</v>
       </c>
       <c r="D78" s="0">
         <v>1601</v>
@@ -4689,10 +4686,10 @@
         <v>1807</v>
       </c>
       <c r="F78" s="0">
-        <v>747450</v>
+        <v>811800</v>
       </c>
       <c r="G78" s="0">
-        <v>853600</v>
+        <v>789250</v>
       </c>
       <c r="H78" s="0">
         <v>880550</v>
@@ -4706,13 +4703,13 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B79" s="0">
-        <v>1367</v>
+        <v>1463</v>
       </c>
       <c r="C79" s="0">
-        <v>1621</v>
+        <v>1525</v>
       </c>
       <c r="D79" s="0">
         <v>1607</v>
@@ -4721,10 +4718,10 @@
         <v>1931</v>
       </c>
       <c r="F79" s="0">
-        <v>560470</v>
+        <v>599830</v>
       </c>
       <c r="G79" s="0">
-        <v>664610</v>
+        <v>625250</v>
       </c>
       <c r="H79" s="0">
         <v>658870</v>
@@ -4738,13 +4735,13 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B80" s="0">
-        <v>1872</v>
+        <v>2017</v>
       </c>
       <c r="C80" s="0">
-        <v>2108</v>
+        <v>1963</v>
       </c>
       <c r="D80" s="0">
         <v>2149</v>
@@ -4753,10 +4750,10 @@
         <v>2503</v>
       </c>
       <c r="F80" s="0">
-        <v>280800</v>
+        <v>302550</v>
       </c>
       <c r="G80" s="0">
-        <v>316200</v>
+        <v>294450</v>
       </c>
       <c r="H80" s="0">
         <v>322350</v>
@@ -4770,13 +4767,13 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B81" s="0">
-        <v>2061</v>
+        <v>2263</v>
       </c>
       <c r="C81" s="0">
-        <v>2497</v>
+        <v>2295</v>
       </c>
       <c r="D81" s="0">
         <v>2413</v>
@@ -4785,10 +4782,10 @@
         <v>2910</v>
       </c>
       <c r="F81" s="0">
-        <v>267930</v>
+        <v>294190</v>
       </c>
       <c r="G81" s="0">
-        <v>324610</v>
+        <v>298350</v>
       </c>
       <c r="H81" s="0">
         <v>313690</v>
@@ -4802,13 +4799,13 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B82" s="0">
-        <v>1670</v>
+        <v>1819</v>
       </c>
       <c r="C82" s="0">
-        <v>1924</v>
+        <v>1775</v>
       </c>
       <c r="D82" s="0">
         <v>1984</v>
@@ -4817,10 +4814,10 @@
         <v>2317</v>
       </c>
       <c r="F82" s="0">
-        <v>283900</v>
+        <v>309230</v>
       </c>
       <c r="G82" s="0">
-        <v>327080</v>
+        <v>301750</v>
       </c>
       <c r="H82" s="0">
         <v>337280</v>
@@ -4834,13 +4831,13 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B83" s="0">
-        <v>1657</v>
+        <v>1808</v>
       </c>
       <c r="C83" s="0">
-        <v>2016</v>
+        <v>1865</v>
       </c>
       <c r="D83" s="0">
         <v>1991</v>
@@ -4849,10 +4846,10 @@
         <v>2327</v>
       </c>
       <c r="F83" s="0">
-        <v>281690</v>
+        <v>307360</v>
       </c>
       <c r="G83" s="0">
-        <v>342720</v>
+        <v>317050</v>
       </c>
       <c r="H83" s="0">
         <v>338470</v>
@@ -4866,13 +4863,13 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B84" s="0">
-        <v>1359</v>
+        <v>1479</v>
       </c>
       <c r="C84" s="0">
-        <v>1600</v>
+        <v>1480</v>
       </c>
       <c r="D84" s="0">
         <v>1628</v>
@@ -4881,10 +4878,10 @@
         <v>1842</v>
       </c>
       <c r="F84" s="0">
-        <v>815400</v>
+        <v>887400</v>
       </c>
       <c r="G84" s="0">
-        <v>960000</v>
+        <v>888000</v>
       </c>
       <c r="H84" s="0">
         <v>976800</v>
@@ -4898,13 +4895,13 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B85" s="0">
-        <v>1506</v>
+        <v>1637</v>
       </c>
       <c r="C85" s="0">
-        <v>1818</v>
+        <v>1687</v>
       </c>
       <c r="D85" s="0">
         <v>1755</v>
@@ -4913,10 +4910,10 @@
         <v>2042</v>
       </c>
       <c r="F85" s="0">
-        <v>451800</v>
+        <v>491100</v>
       </c>
       <c r="G85" s="0">
-        <v>545400</v>
+        <v>506100</v>
       </c>
       <c r="H85" s="0">
         <v>526500</v>
@@ -4930,13 +4927,13 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B86" s="0">
-        <v>1340</v>
+        <v>1474</v>
       </c>
       <c r="C86" s="0">
-        <v>1565</v>
+        <v>1431</v>
       </c>
       <c r="D86" s="0">
         <v>1563</v>
@@ -4945,10 +4942,10 @@
         <v>1803</v>
       </c>
       <c r="F86" s="0">
-        <v>938000</v>
+        <v>1031800</v>
       </c>
       <c r="G86" s="0">
-        <v>1095500</v>
+        <v>1001700</v>
       </c>
       <c r="H86" s="0">
         <v>1094100</v>
@@ -4962,13 +4959,13 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B87" s="0">
-        <v>11965</v>
+        <v>13065</v>
       </c>
       <c r="C87" s="0">
-        <v>14188</v>
+        <v>13088</v>
       </c>
       <c r="D87" s="0">
         <v>14207</v>
@@ -4977,10 +4974,10 @@
         <v>16343</v>
       </c>
       <c r="F87" s="0">
-        <v>358950</v>
+        <v>391950</v>
       </c>
       <c r="G87" s="0">
-        <v>425640</v>
+        <v>392640</v>
       </c>
       <c r="H87" s="0">
         <v>426210</v>
@@ -4994,13 +4991,13 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B88" s="0">
-        <v>2239</v>
+        <v>2436</v>
       </c>
       <c r="C88" s="0">
-        <v>2713</v>
+        <v>2516</v>
       </c>
       <c r="D88" s="0">
         <v>2597</v>
@@ -5009,10 +5006,10 @@
         <v>3113</v>
       </c>
       <c r="F88" s="0">
-        <v>223900</v>
+        <v>243600</v>
       </c>
       <c r="G88" s="0">
-        <v>271300</v>
+        <v>251600</v>
       </c>
       <c r="H88" s="0">
         <v>259700</v>
@@ -5026,13 +5023,13 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B89" s="0">
-        <v>1835</v>
+        <v>1977</v>
       </c>
       <c r="C89" s="0">
-        <v>2129</v>
+        <v>1987</v>
       </c>
       <c r="D89" s="0">
         <v>2110</v>
@@ -5041,10 +5038,10 @@
         <v>2453</v>
       </c>
       <c r="F89" s="0">
-        <v>275250</v>
+        <v>296550</v>
       </c>
       <c r="G89" s="0">
-        <v>319350</v>
+        <v>298050</v>
       </c>
       <c r="H89" s="0">
         <v>316500</v>
@@ -5058,13 +5055,13 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B90" s="0">
-        <v>1418</v>
+        <v>1531</v>
       </c>
       <c r="C90" s="0">
-        <v>1591</v>
+        <v>1478</v>
       </c>
       <c r="D90" s="0">
         <v>1667</v>
@@ -5073,10 +5070,10 @@
         <v>1892</v>
       </c>
       <c r="F90" s="0">
-        <v>567200</v>
+        <v>612400</v>
       </c>
       <c r="G90" s="0">
-        <v>636400</v>
+        <v>591200</v>
       </c>
       <c r="H90" s="0">
         <v>666800</v>
@@ -5090,13 +5087,13 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B91" s="0">
-        <v>1317</v>
+        <v>1447</v>
       </c>
       <c r="C91" s="0">
-        <v>1624</v>
+        <v>1494</v>
       </c>
       <c r="D91" s="0">
         <v>1566</v>
@@ -5105,10 +5102,10 @@
         <v>1782</v>
       </c>
       <c r="F91" s="0">
-        <v>816540</v>
+        <v>897140</v>
       </c>
       <c r="G91" s="0">
-        <v>1006880</v>
+        <v>926280</v>
       </c>
       <c r="H91" s="0">
         <v>970920</v>
@@ -5122,13 +5119,13 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B92" s="0">
-        <v>1416</v>
+        <v>1517</v>
       </c>
       <c r="C92" s="0">
-        <v>1680</v>
+        <v>1579</v>
       </c>
       <c r="D92" s="0">
         <v>1616</v>
@@ -5137,10 +5134,10 @@
         <v>1932</v>
       </c>
       <c r="F92" s="0">
-        <v>509760</v>
+        <v>546120</v>
       </c>
       <c r="G92" s="0">
-        <v>604800</v>
+        <v>568440</v>
       </c>
       <c r="H92" s="0">
         <v>581760</v>
@@ -5154,13 +5151,13 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B93" s="0">
-        <v>12075</v>
+        <v>13202</v>
       </c>
       <c r="C93" s="0">
-        <v>14107</v>
+        <v>12980</v>
       </c>
       <c r="D93" s="0">
         <v>14131</v>
@@ -5169,10 +5166,10 @@
         <v>16115</v>
       </c>
       <c r="F93" s="0">
-        <v>120750</v>
+        <v>132020</v>
       </c>
       <c r="G93" s="0">
-        <v>141070</v>
+        <v>129800</v>
       </c>
       <c r="H93" s="0">
         <v>141310</v>
@@ -5186,13 +5183,13 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B94" s="0">
-        <v>11986</v>
+        <v>13089</v>
       </c>
       <c r="C94" s="0">
-        <v>14139</v>
+        <v>13036</v>
       </c>
       <c r="D94" s="0">
         <v>13958</v>
@@ -5201,10 +5198,10 @@
         <v>16392</v>
       </c>
       <c r="F94" s="0">
-        <v>119860</v>
+        <v>130890</v>
       </c>
       <c r="G94" s="0">
-        <v>141390</v>
+        <v>130360</v>
       </c>
       <c r="H94" s="0">
         <v>139580</v>
@@ -5218,13 +5215,13 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" s="0">
-        <v>3009</v>
+        <v>3272</v>
       </c>
       <c r="C95" s="0">
-        <v>3409</v>
+        <v>3146</v>
       </c>
       <c r="D95" s="0">
         <v>3480</v>
@@ -5233,10 +5230,10 @@
         <v>4067</v>
       </c>
       <c r="F95" s="0">
-        <v>300900</v>
+        <v>327200</v>
       </c>
       <c r="G95" s="0">
-        <v>340900</v>
+        <v>314600</v>
       </c>
       <c r="H95" s="0">
         <v>348000</v>
@@ -5250,13 +5247,13 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B96" s="0">
-        <v>1335</v>
+        <v>1478</v>
       </c>
       <c r="C96" s="0">
-        <v>1634</v>
+        <v>1491</v>
       </c>
       <c r="D96" s="0">
         <v>1620</v>
@@ -5265,10 +5262,10 @@
         <v>1875</v>
       </c>
       <c r="F96" s="0">
-        <v>841050</v>
+        <v>931140</v>
       </c>
       <c r="G96" s="0">
-        <v>1029420</v>
+        <v>939330</v>
       </c>
       <c r="H96" s="0">
         <v>1020600</v>
@@ -5282,13 +5279,13 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B97" s="0">
-        <v>3659</v>
+        <v>3973</v>
       </c>
       <c r="C97" s="0">
-        <v>4206</v>
+        <v>3892</v>
       </c>
       <c r="D97" s="0">
         <v>4258</v>
@@ -5297,10 +5294,10 @@
         <v>4985</v>
       </c>
       <c r="F97" s="0">
-        <v>329310</v>
+        <v>357570</v>
       </c>
       <c r="G97" s="0">
-        <v>378540</v>
+        <v>350280</v>
       </c>
       <c r="H97" s="0">
         <v>383220</v>
@@ -5314,13 +5311,13 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B98" s="0">
-        <v>1306</v>
+        <v>1446</v>
       </c>
       <c r="C98" s="0">
-        <v>1556</v>
+        <v>1416</v>
       </c>
       <c r="D98" s="0">
         <v>1519</v>
@@ -5329,10 +5326,10 @@
         <v>1775</v>
       </c>
       <c r="F98" s="0">
-        <v>888080</v>
+        <v>983280</v>
       </c>
       <c r="G98" s="0">
-        <v>1058080</v>
+        <v>962880</v>
       </c>
       <c r="H98" s="0">
         <v>1032920</v>
@@ -5346,13 +5343,13 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B99" s="0">
-        <v>1755</v>
+        <v>1902</v>
       </c>
       <c r="C99" s="0">
-        <v>2029</v>
+        <v>1882</v>
       </c>
       <c r="D99" s="0">
         <v>2090</v>
@@ -5361,10 +5358,10 @@
         <v>2385</v>
       </c>
       <c r="F99" s="0">
-        <v>280800</v>
+        <v>304320</v>
       </c>
       <c r="G99" s="0">
-        <v>324640</v>
+        <v>301120</v>
       </c>
       <c r="H99" s="0">
         <v>334400</v>
@@ -5378,13 +5375,13 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B100" s="0">
-        <v>1366</v>
+        <v>1509</v>
       </c>
       <c r="C100" s="0">
-        <v>1669</v>
+        <v>1526</v>
       </c>
       <c r="D100" s="0">
         <v>1649</v>
@@ -5393,10 +5390,10 @@
         <v>1910</v>
       </c>
       <c r="F100" s="0">
-        <v>532740</v>
+        <v>588510</v>
       </c>
       <c r="G100" s="0">
-        <v>650910</v>
+        <v>595140</v>
       </c>
       <c r="H100" s="0">
         <v>643110</v>
@@ -5410,13 +5407,13 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B101" s="0">
-        <v>1405</v>
+        <v>1505</v>
       </c>
       <c r="C101" s="0">
-        <v>1611</v>
+        <v>1511</v>
       </c>
       <c r="D101" s="0">
         <v>1612</v>
@@ -5425,10 +5422,10 @@
         <v>1787</v>
       </c>
       <c r="F101" s="0">
-        <v>702500</v>
+        <v>752500</v>
       </c>
       <c r="G101" s="0">
-        <v>805500</v>
+        <v>755500</v>
       </c>
       <c r="H101" s="0">
         <v>806000</v>
@@ -5442,13 +5439,13 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B102" s="0">
-        <v>4745</v>
+        <v>5170</v>
       </c>
       <c r="C102" s="0">
-        <v>5654</v>
+        <v>5229</v>
       </c>
       <c r="D102" s="0">
         <v>5655</v>
@@ -5457,10 +5454,10 @@
         <v>6712</v>
       </c>
       <c r="F102" s="0">
-        <v>379600</v>
+        <v>413600</v>
       </c>
       <c r="G102" s="0">
-        <v>452320</v>
+        <v>418320</v>
       </c>
       <c r="H102" s="0">
         <v>452400</v>
@@ -5474,13 +5471,13 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B103" s="0">
-        <v>1434</v>
+        <v>1567</v>
       </c>
       <c r="C103" s="0">
-        <v>1615</v>
+        <v>1482</v>
       </c>
       <c r="D103" s="0">
         <v>1645</v>
@@ -5489,10 +5486,10 @@
         <v>1806</v>
       </c>
       <c r="F103" s="0">
-        <v>731340</v>
+        <v>799170</v>
       </c>
       <c r="G103" s="0">
-        <v>823650</v>
+        <v>755820</v>
       </c>
       <c r="H103" s="0">
         <v>838950</v>
@@ -5506,13 +5503,13 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B104" s="0">
-        <v>1406</v>
+        <v>1527</v>
       </c>
       <c r="C104" s="0">
-        <v>1550</v>
+        <v>1429</v>
       </c>
       <c r="D104" s="0">
         <v>1550</v>
@@ -5521,10 +5518,10 @@
         <v>1801</v>
       </c>
       <c r="F104" s="0">
-        <v>759240</v>
+        <v>824580</v>
       </c>
       <c r="G104" s="0">
-        <v>837000</v>
+        <v>771660</v>
       </c>
       <c r="H104" s="0">
         <v>837000</v>
@@ -5538,13 +5535,13 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B105" s="0">
-        <v>1396</v>
+        <v>1520</v>
       </c>
       <c r="C105" s="0">
-        <v>1681</v>
+        <v>1557</v>
       </c>
       <c r="D105" s="0">
         <v>1661</v>
@@ -5553,10 +5550,10 @@
         <v>1864</v>
       </c>
       <c r="F105" s="0">
-        <v>628200</v>
+        <v>684000</v>
       </c>
       <c r="G105" s="0">
-        <v>756450</v>
+        <v>700650</v>
       </c>
       <c r="H105" s="0">
         <v>747450</v>
@@ -5570,13 +5567,13 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B106" s="0">
-        <v>6402</v>
+        <v>6957</v>
       </c>
       <c r="C106" s="0">
-        <v>7526</v>
+        <v>6971</v>
       </c>
       <c r="D106" s="0">
         <v>7485</v>
@@ -5585,10 +5582,10 @@
         <v>8625</v>
       </c>
       <c r="F106" s="0">
-        <v>448140</v>
+        <v>486990</v>
       </c>
       <c r="G106" s="0">
-        <v>526820</v>
+        <v>487970</v>
       </c>
       <c r="H106" s="0">
         <v>523950</v>
@@ -5602,13 +5599,13 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107" s="0">
-        <v>1508</v>
+        <v>1661</v>
       </c>
       <c r="C107" s="0">
-        <v>1848</v>
+        <v>1695</v>
       </c>
       <c r="D107" s="0">
         <v>1835</v>
@@ -5617,10 +5614,10 @@
         <v>2152</v>
       </c>
       <c r="F107" s="0">
-        <v>407160</v>
+        <v>448470</v>
       </c>
       <c r="G107" s="0">
-        <v>498960</v>
+        <v>457650</v>
       </c>
       <c r="H107" s="0">
         <v>495450</v>
@@ -5634,13 +5631,13 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B108" s="0">
-        <v>1311</v>
+        <v>1453</v>
       </c>
       <c r="C108" s="0">
-        <v>1644</v>
+        <v>1502</v>
       </c>
       <c r="D108" s="0">
         <v>1657</v>
@@ -5649,10 +5646,10 @@
         <v>1841</v>
       </c>
       <c r="F108" s="0">
-        <v>786600</v>
+        <v>871800</v>
       </c>
       <c r="G108" s="0">
-        <v>986400</v>
+        <v>901200</v>
       </c>
       <c r="H108" s="0">
         <v>994200</v>
@@ -5666,13 +5663,13 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B109" s="0">
-        <v>1494</v>
+        <v>1621</v>
       </c>
       <c r="C109" s="0">
-        <v>1677</v>
+        <v>1550</v>
       </c>
       <c r="D109" s="0">
         <v>1822</v>
@@ -5681,10 +5678,10 @@
         <v>2058</v>
       </c>
       <c r="F109" s="0">
-        <v>433260</v>
+        <v>470090</v>
       </c>
       <c r="G109" s="0">
-        <v>486330</v>
+        <v>449500</v>
       </c>
       <c r="H109" s="0">
         <v>528380</v>
@@ -5698,13 +5695,13 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B110" s="0">
-        <v>1329</v>
+        <v>1453</v>
       </c>
       <c r="C110" s="0">
-        <v>1620</v>
+        <v>1496</v>
       </c>
       <c r="D110" s="0">
         <v>1625</v>
@@ -5713,10 +5710,10 @@
         <v>1907</v>
       </c>
       <c r="F110" s="0">
-        <v>744240</v>
+        <v>813680</v>
       </c>
       <c r="G110" s="0">
-        <v>907200</v>
+        <v>837760</v>
       </c>
       <c r="H110" s="0">
         <v>910000</v>
@@ -5730,13 +5727,13 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B111" s="0">
-        <v>1322</v>
+        <v>1447</v>
       </c>
       <c r="C111" s="0">
-        <v>1595</v>
+        <v>1470</v>
       </c>
       <c r="D111" s="0">
         <v>1442</v>
@@ -5745,10 +5742,10 @@
         <v>1772</v>
       </c>
       <c r="F111" s="0">
-        <v>898960</v>
+        <v>983960</v>
       </c>
       <c r="G111" s="0">
-        <v>1084600</v>
+        <v>999600</v>
       </c>
       <c r="H111" s="0">
         <v>980560</v>
@@ -5762,13 +5759,13 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B112" s="0">
-        <v>1338</v>
+        <v>1460</v>
       </c>
       <c r="C112" s="0">
-        <v>1611</v>
+        <v>1489</v>
       </c>
       <c r="D112" s="0">
         <v>1713</v>
@@ -5777,10 +5774,10 @@
         <v>2008</v>
       </c>
       <c r="F112" s="0">
-        <v>508440</v>
+        <v>554800</v>
       </c>
       <c r="G112" s="0">
-        <v>612180</v>
+        <v>565820</v>
       </c>
       <c r="H112" s="0">
         <v>650940</v>
@@ -5794,13 +5791,13 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B113" s="0">
-        <v>1401</v>
+        <v>1533</v>
       </c>
       <c r="C113" s="0">
-        <v>1598</v>
+        <v>1466</v>
       </c>
       <c r="D113" s="0">
         <v>1640</v>
@@ -5809,10 +5806,10 @@
         <v>1869</v>
       </c>
       <c r="F113" s="0">
-        <v>812580</v>
+        <v>889140</v>
       </c>
       <c r="G113" s="0">
-        <v>926840</v>
+        <v>850280</v>
       </c>
       <c r="H113" s="0">
         <v>951200</v>
@@ -5826,13 +5823,13 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B114" s="0">
-        <v>2555</v>
+        <v>2774</v>
       </c>
       <c r="C114" s="0">
-        <v>2953</v>
+        <v>2734</v>
       </c>
       <c r="D114" s="0">
         <v>3026</v>
@@ -5841,10 +5838,10 @@
         <v>3529</v>
       </c>
       <c r="F114" s="0">
-        <v>281050</v>
+        <v>305140</v>
       </c>
       <c r="G114" s="0">
-        <v>324830</v>
+        <v>300740</v>
       </c>
       <c r="H114" s="0">
         <v>332860</v>
@@ -5858,13 +5855,13 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B115" s="0">
-        <v>1479</v>
+        <v>1621</v>
       </c>
       <c r="C115" s="0">
-        <v>1595</v>
+        <v>1453</v>
       </c>
       <c r="D115" s="0">
         <v>1641</v>
@@ -5873,10 +5870,10 @@
         <v>2013</v>
       </c>
       <c r="F115" s="0">
-        <v>517650</v>
+        <v>567350</v>
       </c>
       <c r="G115" s="0">
-        <v>558250</v>
+        <v>508550</v>
       </c>
       <c r="H115" s="0">
         <v>574350</v>

--- a/DataAgregation/age-clusters.xlsx
+++ b/DataAgregation/age-clusters.xlsx
@@ -9,14 +9,14 @@
     <sheet name="New Users" sheetId="25" r:id="rId35"/>
     <sheet name="Revenue" sheetId="26" r:id="rId36"/>
     <sheet name="MAU" sheetId="27" r:id="rId38"/>
-    <sheet name="Items Statistic" sheetId="28" r:id="rId39"/>
+    <sheet name="Items Statistic" sheetId="28" r:id="rId47"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Date</t>
   </si>
@@ -145,15 +145,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>25-36</t>
-  </si>
-  <si>
-    <t>37-49</t>
-  </si>
-  <si>
-    <t>50-64</t>
   </si>
   <si>
     <t>A Pony</t>
@@ -2199,7 +2190,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2236,3653 +2227,4688 @@
       <c r="J1" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>1866</v>
+        <v>2177</v>
       </c>
       <c r="C3" s="0">
-        <v>1858</v>
+        <v>2171</v>
       </c>
       <c r="D3" s="0">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="E3" s="0">
-        <v>2426</v>
+        <v>1810</v>
       </c>
       <c r="F3" s="0">
-        <v>298560</v>
+        <v>348320</v>
       </c>
       <c r="G3" s="0">
-        <v>297280</v>
+        <v>347360</v>
       </c>
       <c r="H3" s="0">
-        <v>314560</v>
+        <v>313280</v>
       </c>
       <c r="I3" s="0">
-        <v>388160</v>
+        <v>289600</v>
       </c>
       <c r="J3" s="0">
-        <v>112514.1443322785</v>
+        <v>30180.297216778006</v>
+      </c>
+      <c r="K3" s="0">
+        <v>30097.117711357398</v>
+      </c>
+      <c r="L3" s="0">
+        <v>27144.245268925737</v>
+      </c>
+      <c r="M3" s="0">
+        <v>25092.484135217357</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>13144</v>
+        <v>15216</v>
       </c>
       <c r="C4" s="0">
-        <v>12770</v>
+        <v>15042</v>
       </c>
       <c r="D4" s="0">
-        <v>14002</v>
+        <v>13909</v>
       </c>
       <c r="E4" s="0">
-        <v>16098</v>
+        <v>11847</v>
       </c>
       <c r="F4" s="0">
-        <v>131440</v>
+        <v>152160</v>
       </c>
       <c r="G4" s="0">
-        <v>127700</v>
+        <v>150420</v>
       </c>
       <c r="H4" s="0">
-        <v>140020</v>
+        <v>139090</v>
       </c>
       <c r="I4" s="0">
-        <v>160980</v>
+        <v>118470</v>
       </c>
       <c r="J4" s="0">
-        <v>48533.122929872865</v>
+        <v>13183.846868656863</v>
+      </c>
+      <c r="K4" s="0">
+        <v>13033.08521282443</v>
+      </c>
+      <c r="L4" s="0">
+        <v>12051.401557317842</v>
+      </c>
+      <c r="M4" s="0">
+        <v>10264.789291073728</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>1483</v>
+        <v>1725</v>
       </c>
       <c r="C5" s="0">
-        <v>1485</v>
+        <v>1727</v>
       </c>
       <c r="D5" s="0">
-        <v>1492</v>
+        <v>1463</v>
       </c>
       <c r="E5" s="0">
-        <v>1828</v>
+        <v>1373</v>
       </c>
       <c r="F5" s="0">
-        <v>963950</v>
+        <v>1121250</v>
       </c>
       <c r="G5" s="0">
-        <v>965250</v>
+        <v>1122550</v>
       </c>
       <c r="H5" s="0">
-        <v>969800</v>
+        <v>950950</v>
       </c>
       <c r="I5" s="0">
-        <v>1188200</v>
+        <v>892450</v>
       </c>
       <c r="J5" s="0">
-        <v>354134.76436482684</v>
+        <v>97150.51980428217</v>
+      </c>
+      <c r="K5" s="0">
+        <v>97263.15808811324</v>
+      </c>
+      <c r="L5" s="0">
+        <v>82394.9046224144</v>
+      </c>
+      <c r="M5" s="0">
+        <v>77326.18185001706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>1475</v>
+        <v>1728</v>
       </c>
       <c r="C6" s="0">
-        <v>1535</v>
+        <v>1753</v>
       </c>
       <c r="D6" s="0">
-        <v>1597</v>
+        <v>1659</v>
       </c>
       <c r="E6" s="0">
-        <v>1923</v>
+        <v>1390</v>
       </c>
       <c r="F6" s="0">
-        <v>752250</v>
+        <v>881280</v>
       </c>
       <c r="G6" s="0">
-        <v>782850</v>
+        <v>894030</v>
       </c>
       <c r="H6" s="0">
-        <v>814470</v>
+        <v>846090</v>
       </c>
       <c r="I6" s="0">
-        <v>980730</v>
+        <v>708900</v>
       </c>
       <c r="J6" s="0">
-        <v>288551.9675669178</v>
+        <v>76358.00918156722</v>
+      </c>
+      <c r="K6" s="0">
+        <v>77462.72574958758</v>
+      </c>
+      <c r="L6" s="0">
+        <v>73308.99145383103</v>
+      </c>
+      <c r="M6" s="0">
+        <v>61422.24118193196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>1669</v>
+        <v>1919</v>
       </c>
       <c r="C7" s="0">
-        <v>1707</v>
+        <v>2050</v>
       </c>
       <c r="D7" s="0">
-        <v>1833</v>
+        <v>1771</v>
       </c>
       <c r="E7" s="0">
-        <v>2101</v>
+        <v>1570</v>
       </c>
       <c r="F7" s="0">
-        <v>400560</v>
+        <v>460560</v>
       </c>
       <c r="G7" s="0">
-        <v>409680</v>
+        <v>492000</v>
       </c>
       <c r="H7" s="0">
-        <v>439920</v>
+        <v>425040</v>
       </c>
       <c r="I7" s="0">
-        <v>504240</v>
+        <v>376800</v>
       </c>
       <c r="J7" s="0">
-        <v>152010.7703464421</v>
+        <v>39905.42657931906</v>
+      </c>
+      <c r="K7" s="0">
+        <v>42629.55939948102</v>
+      </c>
+      <c r="L7" s="0">
+        <v>36827.78033974677</v>
+      </c>
+      <c r="M7" s="0">
+        <v>32648.004027895222</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>3241</v>
+        <v>3806</v>
       </c>
       <c r="C8" s="0">
-        <v>3238</v>
+        <v>3760</v>
       </c>
       <c r="D8" s="0">
-        <v>3497</v>
+        <v>3507</v>
       </c>
       <c r="E8" s="0">
-        <v>4096</v>
+        <v>2999</v>
       </c>
       <c r="F8" s="0">
-        <v>324100</v>
+        <v>380600</v>
       </c>
       <c r="G8" s="0">
-        <v>323800</v>
+        <v>376000</v>
       </c>
       <c r="H8" s="0">
-        <v>349700</v>
+        <v>350700</v>
       </c>
       <c r="I8" s="0">
-        <v>409600</v>
+        <v>299900</v>
       </c>
       <c r="J8" s="0">
-        <v>121927.42312030277</v>
+        <v>32977.243632452555</v>
+      </c>
+      <c r="K8" s="0">
+        <v>32578.674739364586</v>
+      </c>
+      <c r="L8" s="0">
+        <v>30386.545827380745</v>
+      </c>
+      <c r="M8" s="0">
+        <v>25984.95892110489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>2487</v>
+        <v>2889</v>
       </c>
       <c r="C9" s="0">
-        <v>2455</v>
+        <v>2900</v>
       </c>
       <c r="D9" s="0">
-        <v>2670</v>
+        <v>2635</v>
       </c>
       <c r="E9" s="0">
-        <v>3080</v>
+        <v>2268</v>
       </c>
       <c r="F9" s="0">
-        <v>298440</v>
+        <v>346680</v>
       </c>
       <c r="G9" s="0">
-        <v>294600</v>
+        <v>348000</v>
       </c>
       <c r="H9" s="0">
-        <v>320400</v>
+        <v>316200</v>
       </c>
       <c r="I9" s="0">
-        <v>369600</v>
+        <v>272160</v>
       </c>
       <c r="J9" s="0">
-        <v>111168.75329949813</v>
+        <v>30038.021724864393</v>
+      </c>
+      <c r="K9" s="0">
+        <v>30152.39287023425</v>
+      </c>
+      <c r="L9" s="0">
+        <v>27397.088004505946</v>
+      </c>
+      <c r="M9" s="0">
+        <v>23581.250699893542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>1466</v>
+        <v>1720</v>
       </c>
       <c r="C10" s="0">
-        <v>1431</v>
+        <v>1660</v>
       </c>
       <c r="D10" s="0">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="E10" s="0">
-        <v>1772</v>
+        <v>1283</v>
       </c>
       <c r="F10" s="0">
-        <v>967560</v>
+        <v>1135200</v>
       </c>
       <c r="G10" s="0">
-        <v>944460</v>
+        <v>1095600</v>
       </c>
       <c r="H10" s="0">
-        <v>1038840</v>
+        <v>1042800</v>
       </c>
       <c r="I10" s="0">
-        <v>1169520</v>
+        <v>846780</v>
       </c>
       <c r="J10" s="0">
-        <v>357007.142722546</v>
+        <v>98358.52722773975</v>
+      </c>
+      <c r="K10" s="0">
+        <v>94927.4158128186</v>
+      </c>
+      <c r="L10" s="0">
+        <v>90352.60059292371</v>
+      </c>
+      <c r="M10" s="0">
+        <v>73368.599089064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>1488</v>
+        <v>1711</v>
       </c>
       <c r="C11" s="0">
-        <v>1461</v>
+        <v>1779</v>
       </c>
       <c r="D11" s="0">
-        <v>1701</v>
+        <v>1647</v>
       </c>
       <c r="E11" s="0">
-        <v>1864</v>
+        <v>1377</v>
       </c>
       <c r="F11" s="0">
-        <v>744000</v>
+        <v>855500</v>
       </c>
       <c r="G11" s="0">
-        <v>730500</v>
+        <v>889500</v>
       </c>
       <c r="H11" s="0">
-        <v>850500</v>
+        <v>823500</v>
       </c>
       <c r="I11" s="0">
-        <v>932000</v>
+        <v>688500</v>
       </c>
       <c r="J11" s="0">
-        <v>282200.52097981924</v>
+        <v>74124.20807437376</v>
+      </c>
+      <c r="K11" s="0">
+        <v>77070.11464892514</v>
+      </c>
+      <c r="L11" s="0">
+        <v>71351.59012185481</v>
+      </c>
+      <c r="M11" s="0">
+        <v>59654.6081346655</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0">
-        <v>13105</v>
+        <v>15267</v>
       </c>
       <c r="C12" s="0">
-        <v>13077</v>
+        <v>15243</v>
       </c>
       <c r="D12" s="0">
-        <v>14275</v>
+        <v>14359</v>
       </c>
       <c r="E12" s="0">
-        <v>16331</v>
+        <v>11919</v>
       </c>
       <c r="F12" s="0">
-        <v>262100</v>
+        <v>305340</v>
       </c>
       <c r="G12" s="0">
-        <v>261540</v>
+        <v>304860</v>
       </c>
       <c r="H12" s="0">
-        <v>285500</v>
+        <v>287180</v>
       </c>
       <c r="I12" s="0">
-        <v>326620</v>
+        <v>238380</v>
       </c>
       <c r="J12" s="0">
-        <v>98406.91923405693</v>
+        <v>26455.913854095004</v>
+      </c>
+      <c r="K12" s="0">
+        <v>26414.324679240857</v>
+      </c>
+      <c r="L12" s="0">
+        <v>24882.456738779732</v>
+      </c>
+      <c r="M12" s="0">
+        <v>20654.223961941338</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0">
-        <v>2806</v>
+        <v>3285</v>
       </c>
       <c r="C13" s="0">
-        <v>2772</v>
+        <v>3197</v>
       </c>
       <c r="D13" s="0">
-        <v>2860</v>
+        <v>2883</v>
       </c>
       <c r="E13" s="0">
-        <v>3513</v>
+        <v>2586</v>
       </c>
       <c r="F13" s="0">
-        <v>308660</v>
+        <v>361350</v>
       </c>
       <c r="G13" s="0">
-        <v>304920</v>
+        <v>351670</v>
       </c>
       <c r="H13" s="0">
-        <v>314600</v>
+        <v>317130</v>
       </c>
       <c r="I13" s="0">
-        <v>386430</v>
+        <v>284460</v>
       </c>
       <c r="J13" s="0">
-        <v>113904.486794699</v>
+        <v>31309.199156604984</v>
+      </c>
+      <c r="K13" s="0">
+        <v>30470.474795636568</v>
+      </c>
+      <c r="L13" s="0">
+        <v>27477.753780362913</v>
+      </c>
+      <c r="M13" s="0">
+        <v>24647.059062094515</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0">
-        <v>1700</v>
+        <v>1992</v>
       </c>
       <c r="C14" s="0">
-        <v>1735</v>
+        <v>1989</v>
       </c>
       <c r="D14" s="0">
-        <v>1730</v>
+        <v>1718</v>
       </c>
       <c r="E14" s="0">
-        <v>2067</v>
+        <v>1533</v>
       </c>
       <c r="F14" s="0">
-        <v>459000</v>
+        <v>537840</v>
       </c>
       <c r="G14" s="0">
-        <v>468450</v>
+        <v>537030</v>
       </c>
       <c r="H14" s="0">
-        <v>467100</v>
+        <v>463860</v>
       </c>
       <c r="I14" s="0">
-        <v>558090</v>
+        <v>413910</v>
       </c>
       <c r="J14" s="0">
-        <v>169186.66397046918</v>
+        <v>46601.19394761817</v>
+      </c>
+      <c r="K14" s="0">
+        <v>46531.01142661271</v>
+      </c>
+      <c r="L14" s="0">
+        <v>40191.190362453824</v>
+      </c>
+      <c r="M14" s="0">
+        <v>35863.26823378447</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0">
-        <v>1482</v>
+        <v>1730</v>
       </c>
       <c r="C15" s="0">
-        <v>1541</v>
+        <v>1784</v>
       </c>
       <c r="D15" s="0">
-        <v>1612</v>
+        <v>1598</v>
       </c>
       <c r="E15" s="0">
-        <v>1884</v>
+        <v>1407</v>
       </c>
       <c r="F15" s="0">
-        <v>592800</v>
+        <v>692000</v>
       </c>
       <c r="G15" s="0">
-        <v>616400</v>
+        <v>713600</v>
       </c>
       <c r="H15" s="0">
-        <v>644800</v>
+        <v>639200</v>
       </c>
       <c r="I15" s="0">
-        <v>753600</v>
+        <v>562800</v>
       </c>
       <c r="J15" s="0">
-        <v>225937.15397536173</v>
+        <v>59958.77839812482</v>
+      </c>
+      <c r="K15" s="0">
+        <v>61830.32408222814</v>
+      </c>
+      <c r="L15" s="0">
+        <v>55383.88894809449</v>
+      </c>
+      <c r="M15" s="0">
+        <v>48764.16254691424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="0">
-        <v>1514</v>
+        <v>1784</v>
       </c>
       <c r="C16" s="0">
-        <v>1587</v>
+        <v>1827</v>
       </c>
       <c r="D16" s="0">
-        <v>1630</v>
+        <v>1610</v>
       </c>
       <c r="E16" s="0">
-        <v>1850</v>
+        <v>1360</v>
       </c>
       <c r="F16" s="0">
-        <v>635880</v>
+        <v>749280</v>
       </c>
       <c r="G16" s="0">
-        <v>666540</v>
+        <v>767340</v>
       </c>
       <c r="H16" s="0">
-        <v>684600</v>
+        <v>676200</v>
       </c>
       <c r="I16" s="0">
-        <v>777000</v>
+        <v>571200</v>
       </c>
       <c r="J16" s="0">
-        <v>239487.55651262682</v>
+        <v>64921.10633923814</v>
+      </c>
+      <c r="K16" s="0">
+        <v>66485.90879023995</v>
+      </c>
+      <c r="L16" s="0">
+        <v>58589.115025881954</v>
+      </c>
+      <c r="M16" s="0">
+        <v>49491.42635726674</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" s="0">
-        <v>1544</v>
+        <v>1803</v>
       </c>
       <c r="C17" s="0">
-        <v>1532</v>
+        <v>1777</v>
       </c>
       <c r="D17" s="0">
-        <v>1589</v>
+        <v>1591</v>
       </c>
       <c r="E17" s="0">
-        <v>1896</v>
+        <v>1390</v>
       </c>
       <c r="F17" s="0">
-        <v>849200</v>
+        <v>991650</v>
       </c>
       <c r="G17" s="0">
-        <v>842600</v>
+        <v>977350</v>
       </c>
       <c r="H17" s="0">
-        <v>873950</v>
+        <v>875050</v>
       </c>
       <c r="I17" s="0">
-        <v>1042800</v>
+        <v>764500</v>
       </c>
       <c r="J17" s="0">
-        <v>312665.1656831164</v>
+        <v>85922.16029974988</v>
+      </c>
+      <c r="K17" s="0">
+        <v>84683.12748344733</v>
+      </c>
+      <c r="L17" s="0">
+        <v>75819.27733605217</v>
+      </c>
+      <c r="M17" s="0">
+        <v>66240.60056386708</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="0">
-        <v>9109</v>
+        <v>10653</v>
       </c>
       <c r="C18" s="0">
-        <v>9206</v>
+        <v>10749</v>
       </c>
       <c r="D18" s="0">
-        <v>9825</v>
+        <v>9728</v>
       </c>
       <c r="E18" s="0">
-        <v>11356</v>
+        <v>8366</v>
       </c>
       <c r="F18" s="0">
-        <v>546540</v>
+        <v>639180</v>
       </c>
       <c r="G18" s="0">
-        <v>552360</v>
+        <v>644940</v>
       </c>
       <c r="H18" s="0">
-        <v>589500</v>
+        <v>583680</v>
       </c>
       <c r="I18" s="0">
-        <v>681360</v>
+        <v>501960</v>
       </c>
       <c r="J18" s="0">
-        <v>205328.0556687648</v>
+        <v>55381.80517114014</v>
+      </c>
+      <c r="K18" s="0">
+        <v>55880.880858404715</v>
+      </c>
+      <c r="L18" s="0">
+        <v>50573.002976143</v>
+      </c>
+      <c r="M18" s="0">
+        <v>43492.36666307692</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B19" s="0">
-        <v>1535</v>
+        <v>1826</v>
       </c>
       <c r="C19" s="0">
-        <v>1629</v>
+        <v>1844</v>
       </c>
       <c r="D19" s="0">
-        <v>1627</v>
+        <v>1615</v>
       </c>
       <c r="E19" s="0">
-        <v>1906</v>
+        <v>1412</v>
       </c>
       <c r="F19" s="0">
-        <v>552600</v>
+        <v>657360</v>
       </c>
       <c r="G19" s="0">
-        <v>586440</v>
+        <v>663840</v>
       </c>
       <c r="H19" s="0">
-        <v>585720</v>
+        <v>581400</v>
       </c>
       <c r="I19" s="0">
-        <v>686160</v>
+        <v>508320</v>
       </c>
       <c r="J19" s="0">
-        <v>208891.65779464325</v>
+        <v>56956.27402314746</v>
+      </c>
+      <c r="K19" s="0">
+        <v>57517.72688865494</v>
+      </c>
+      <c r="L19" s="0">
+        <v>50374.79876636536</v>
+      </c>
+      <c r="M19" s="0">
+        <v>44042.85811647548</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" s="0">
-        <v>1413</v>
+        <v>1644</v>
       </c>
       <c r="C20" s="0">
-        <v>1432</v>
+        <v>1691</v>
       </c>
       <c r="D20" s="0">
-        <v>1553</v>
+        <v>1542</v>
       </c>
       <c r="E20" s="0">
-        <v>1796</v>
+        <v>1317</v>
       </c>
       <c r="F20" s="0">
-        <v>890190</v>
+        <v>1035720</v>
       </c>
       <c r="G20" s="0">
-        <v>902160</v>
+        <v>1065330</v>
       </c>
       <c r="H20" s="0">
-        <v>978390</v>
+        <v>971460</v>
       </c>
       <c r="I20" s="0">
-        <v>1131480</v>
+        <v>829710</v>
       </c>
       <c r="J20" s="0">
-        <v>338106.7654517308</v>
+        <v>89739.67103691402</v>
+      </c>
+      <c r="K20" s="0">
+        <v>92305.22124295718</v>
+      </c>
+      <c r="L20" s="0">
+        <v>84171.8812280544</v>
+      </c>
+      <c r="M20" s="0">
+        <v>71889.9919438052</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" s="0">
-        <v>1404</v>
+        <v>1648</v>
       </c>
       <c r="C21" s="0">
-        <v>1432</v>
+        <v>1671</v>
       </c>
       <c r="D21" s="0">
-        <v>1556</v>
+        <v>1539</v>
       </c>
       <c r="E21" s="0">
-        <v>1816</v>
+        <v>1350</v>
       </c>
       <c r="F21" s="0">
-        <v>982800</v>
+        <v>1153600</v>
       </c>
       <c r="G21" s="0">
-        <v>1002400</v>
+        <v>1169700</v>
       </c>
       <c r="H21" s="0">
-        <v>1089200</v>
+        <v>1077300</v>
       </c>
       <c r="I21" s="0">
-        <v>1271200</v>
+        <v>945000</v>
       </c>
       <c r="J21" s="0">
-        <v>376525.843196822</v>
+        <v>99954.02538472335</v>
+      </c>
+      <c r="K21" s="0">
+        <v>101349.01481667036</v>
+      </c>
+      <c r="L21" s="0">
+        <v>93342.98851158329</v>
+      </c>
+      <c r="M21" s="0">
+        <v>81879.81448384498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="0">
-        <v>1618</v>
+        <v>1873</v>
       </c>
       <c r="C22" s="0">
-        <v>1572</v>
+        <v>1845</v>
       </c>
       <c r="D22" s="0">
-        <v>1730</v>
+        <v>1739</v>
       </c>
       <c r="E22" s="0">
-        <v>2017</v>
+        <v>1480</v>
       </c>
       <c r="F22" s="0">
-        <v>550120</v>
+        <v>636820</v>
       </c>
       <c r="G22" s="0">
-        <v>534480</v>
+        <v>627300</v>
       </c>
       <c r="H22" s="0">
-        <v>588200</v>
+        <v>591260</v>
       </c>
       <c r="I22" s="0">
-        <v>685780</v>
+        <v>503200</v>
       </c>
       <c r="J22" s="0">
-        <v>204355.20333072194</v>
+        <v>55176.1994865853</v>
+      </c>
+      <c r="K22" s="0">
+        <v>54351.35507354504</v>
+      </c>
+      <c r="L22" s="0">
+        <v>51228.72979560696</v>
+      </c>
+      <c r="M22" s="0">
+        <v>43598.91897498464</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="0">
-        <v>13081</v>
+        <v>15285</v>
       </c>
       <c r="C23" s="0">
-        <v>13004</v>
+        <v>15230</v>
       </c>
       <c r="D23" s="0">
-        <v>14116</v>
+        <v>14010</v>
       </c>
       <c r="E23" s="0">
-        <v>16159</v>
+        <v>11835</v>
       </c>
       <c r="F23" s="0">
-        <v>523240</v>
+        <v>611400</v>
       </c>
       <c r="G23" s="0">
-        <v>520160</v>
+        <v>609200</v>
       </c>
       <c r="H23" s="0">
-        <v>564640</v>
+        <v>560400</v>
       </c>
       <c r="I23" s="0">
-        <v>646360</v>
+        <v>473400</v>
       </c>
       <c r="J23" s="0">
-        <v>195331.32691974888</v>
+        <v>52974.4381115749</v>
+      </c>
+      <c r="K23" s="0">
+        <v>52783.8202446376</v>
+      </c>
+      <c r="L23" s="0">
+        <v>48555.56937802841</v>
+      </c>
+      <c r="M23" s="0">
+        <v>41017.49918550794</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="0">
-        <v>1786</v>
+        <v>2066</v>
       </c>
       <c r="C24" s="0">
-        <v>1833</v>
+        <v>2113</v>
       </c>
       <c r="D24" s="0">
-        <v>1871</v>
+        <v>1912</v>
       </c>
       <c r="E24" s="0">
-        <v>2282</v>
+        <v>1681</v>
       </c>
       <c r="F24" s="0">
-        <v>339340</v>
+        <v>392540</v>
       </c>
       <c r="G24" s="0">
-        <v>348270</v>
+        <v>401470</v>
       </c>
       <c r="H24" s="0">
-        <v>355490</v>
+        <v>363280</v>
       </c>
       <c r="I24" s="0">
-        <v>433580</v>
+        <v>319390</v>
       </c>
       <c r="J24" s="0">
-        <v>127947.73631183086</v>
+        <v>34011.84035257881</v>
+      </c>
+      <c r="K24" s="0">
+        <v>34785.585026621025</v>
+      </c>
+      <c r="L24" s="0">
+        <v>31476.59184614264</v>
+      </c>
+      <c r="M24" s="0">
+        <v>27673.719086488374</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B25" s="0">
-        <v>1470</v>
+        <v>1704</v>
       </c>
       <c r="C25" s="0">
-        <v>1471</v>
+        <v>1728</v>
       </c>
       <c r="D25" s="0">
-        <v>1589</v>
+        <v>1573</v>
       </c>
       <c r="E25" s="0">
-        <v>1831</v>
+        <v>1356</v>
       </c>
       <c r="F25" s="0">
-        <v>1029000</v>
+        <v>1192800</v>
       </c>
       <c r="G25" s="0">
-        <v>1029700</v>
+        <v>1209600</v>
       </c>
       <c r="H25" s="0">
-        <v>1112300</v>
+        <v>1101100</v>
       </c>
       <c r="I25" s="0">
-        <v>1281700</v>
+        <v>949200</v>
       </c>
       <c r="J25" s="0">
-        <v>385803.2657026764</v>
+        <v>103349.90799518324</v>
+      </c>
+      <c r="K25" s="0">
+        <v>104805.54050215766</v>
+      </c>
+      <c r="L25" s="0">
+        <v>95404.58056128124</v>
+      </c>
+      <c r="M25" s="0">
+        <v>82243.23664405427</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" s="0">
-        <v>1542</v>
+        <v>1784</v>
       </c>
       <c r="C26" s="0">
-        <v>1521</v>
+        <v>1739</v>
       </c>
       <c r="D26" s="0">
-        <v>1606</v>
+        <v>1612</v>
       </c>
       <c r="E26" s="0">
-        <v>1798</v>
+        <v>1332</v>
       </c>
       <c r="F26" s="0">
-        <v>940620</v>
+        <v>1088240</v>
       </c>
       <c r="G26" s="0">
-        <v>927810</v>
+        <v>1060790</v>
       </c>
       <c r="H26" s="0">
-        <v>979660</v>
+        <v>983320</v>
       </c>
       <c r="I26" s="0">
-        <v>1096780</v>
+        <v>812520</v>
       </c>
       <c r="J26" s="0">
-        <v>341808.1661186817</v>
+        <v>94291.90789480876</v>
+      </c>
+      <c r="K26" s="0">
+        <v>91913.46851405405</v>
+      </c>
+      <c r="L26" s="0">
+        <v>85200.98403947965</v>
+      </c>
+      <c r="M26" s="0">
+        <v>70401.80567033926</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B27" s="0">
-        <v>1584</v>
+        <v>1859</v>
       </c>
       <c r="C27" s="0">
-        <v>1526</v>
+        <v>1717</v>
       </c>
       <c r="D27" s="0">
-        <v>1595</v>
+        <v>1670</v>
       </c>
       <c r="E27" s="0">
-        <v>1986</v>
+        <v>1445</v>
       </c>
       <c r="F27" s="0">
-        <v>538560</v>
+        <v>632060</v>
       </c>
       <c r="G27" s="0">
-        <v>518840</v>
+        <v>583780</v>
       </c>
       <c r="H27" s="0">
-        <v>542300</v>
+        <v>567800</v>
       </c>
       <c r="I27" s="0">
-        <v>675240</v>
+        <v>491300</v>
       </c>
       <c r="J27" s="0">
-        <v>197111.17761698063</v>
+        <v>54764.56123000552</v>
+      </c>
+      <c r="K27" s="0">
+        <v>50581.36182459359</v>
+      </c>
+      <c r="L27" s="0">
+        <v>49196.78173970372</v>
+      </c>
+      <c r="M27" s="0">
+        <v>42568.47282267777</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B28" s="0">
-        <v>1469</v>
+        <v>1706</v>
       </c>
       <c r="C28" s="0">
-        <v>1469</v>
+        <v>1772</v>
       </c>
       <c r="D28" s="0">
-        <v>1663</v>
+        <v>1604</v>
       </c>
       <c r="E28" s="0">
-        <v>1901</v>
+        <v>1420</v>
       </c>
       <c r="F28" s="0">
-        <v>837330</v>
+        <v>972420</v>
       </c>
       <c r="G28" s="0">
-        <v>837330</v>
+        <v>1010040</v>
       </c>
       <c r="H28" s="0">
-        <v>947910</v>
+        <v>914280</v>
       </c>
       <c r="I28" s="0">
-        <v>1083570</v>
+        <v>809400</v>
       </c>
       <c r="J28" s="0">
-        <v>321115.0773021237</v>
+        <v>84254.43277105861</v>
+      </c>
+      <c r="K28" s="0">
+        <v>87513.98292515584</v>
+      </c>
+      <c r="L28" s="0">
+        <v>79216.94616927198</v>
+      </c>
+      <c r="M28" s="0">
+        <v>70129.71543663729</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B29" s="0">
-        <v>1628</v>
+        <v>1910</v>
       </c>
       <c r="C29" s="0">
-        <v>1651</v>
+        <v>1927</v>
       </c>
       <c r="D29" s="0">
-        <v>1763</v>
+        <v>1727</v>
       </c>
       <c r="E29" s="0">
-        <v>2076</v>
+        <v>1554</v>
       </c>
       <c r="F29" s="0">
-        <v>439560</v>
+        <v>515700</v>
       </c>
       <c r="G29" s="0">
-        <v>445770</v>
+        <v>520290</v>
       </c>
       <c r="H29" s="0">
-        <v>476010</v>
+        <v>466290</v>
       </c>
       <c r="I29" s="0">
-        <v>560520</v>
+        <v>419580</v>
       </c>
       <c r="J29" s="0">
-        <v>166517.91077295505</v>
+        <v>44682.38403713742</v>
+      </c>
+      <c r="K29" s="0">
+        <v>45080.08064898628</v>
+      </c>
+      <c r="L29" s="0">
+        <v>40401.296980176085</v>
+      </c>
+      <c r="M29" s="0">
+        <v>36354.149106655255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B30" s="0">
-        <v>1859</v>
+        <v>2176</v>
       </c>
       <c r="C30" s="0">
-        <v>1858</v>
+        <v>2126</v>
       </c>
       <c r="D30" s="0">
-        <v>1959</v>
+        <v>2006</v>
       </c>
       <c r="E30" s="0">
-        <v>2369</v>
+        <v>1737</v>
       </c>
       <c r="F30" s="0">
-        <v>297440</v>
+        <v>348160</v>
       </c>
       <c r="G30" s="0">
-        <v>297280</v>
+        <v>340160</v>
       </c>
       <c r="H30" s="0">
-        <v>313440</v>
+        <v>320960</v>
       </c>
       <c r="I30" s="0">
-        <v>379040</v>
+        <v>277920</v>
       </c>
       <c r="J30" s="0">
-        <v>111531.10784352878</v>
+        <v>30166.773233998585</v>
+      </c>
+      <c r="K30" s="0">
+        <v>29473.602893143838</v>
+      </c>
+      <c r="L30" s="0">
+        <v>27809.994075092443</v>
+      </c>
+      <c r="M30" s="0">
+        <v>24080.737641293905</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31" s="0">
-        <v>1490</v>
+        <v>1726</v>
       </c>
       <c r="C31" s="0">
-        <v>1467</v>
+        <v>1690</v>
       </c>
       <c r="D31" s="0">
-        <v>1513</v>
+        <v>1589</v>
       </c>
       <c r="E31" s="0">
-        <v>1919</v>
+        <v>1384</v>
       </c>
       <c r="F31" s="0">
-        <v>983400</v>
+        <v>1139160</v>
       </c>
       <c r="G31" s="0">
-        <v>968220</v>
+        <v>1115400</v>
       </c>
       <c r="H31" s="0">
-        <v>998580</v>
+        <v>1048740</v>
       </c>
       <c r="I31" s="0">
-        <v>1266540</v>
+        <v>913440</v>
       </c>
       <c r="J31" s="0">
-        <v>365359.4320323235</v>
+        <v>98702.51677692759</v>
+      </c>
+      <c r="K31" s="0">
+        <v>96643.83160660928</v>
+      </c>
+      <c r="L31" s="0">
+        <v>90868.07598988293</v>
+      </c>
+      <c r="M31" s="0">
+        <v>79145.00765890369</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B32" s="0">
-        <v>1565</v>
+        <v>1823</v>
       </c>
       <c r="C32" s="0">
-        <v>1574</v>
+        <v>1826</v>
       </c>
       <c r="D32" s="0">
-        <v>1685</v>
+        <v>1726</v>
       </c>
       <c r="E32" s="0">
-        <v>2004</v>
+        <v>1453</v>
       </c>
       <c r="F32" s="0">
-        <v>547750</v>
+        <v>638050</v>
       </c>
       <c r="G32" s="0">
-        <v>550900</v>
+        <v>639100</v>
       </c>
       <c r="H32" s="0">
-        <v>589750</v>
+        <v>604100</v>
       </c>
       <c r="I32" s="0">
-        <v>701400</v>
+        <v>508550</v>
       </c>
       <c r="J32" s="0">
-        <v>207063.72976994567</v>
+        <v>55283.7110970432</v>
+      </c>
+      <c r="K32" s="0">
+        <v>55374.688131212766</v>
+      </c>
+      <c r="L32" s="0">
+        <v>52342.120325560376</v>
+      </c>
+      <c r="M32" s="0">
+        <v>44063.21021612932</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B33" s="0">
-        <v>1858</v>
+        <v>2154</v>
       </c>
       <c r="C33" s="0">
-        <v>1882</v>
+        <v>2202</v>
       </c>
       <c r="D33" s="0">
-        <v>2081</v>
+        <v>2091</v>
       </c>
       <c r="E33" s="0">
-        <v>2363</v>
+        <v>1737</v>
       </c>
       <c r="F33" s="0">
-        <v>297280</v>
+        <v>344640</v>
       </c>
       <c r="G33" s="0">
-        <v>301120</v>
+        <v>352320</v>
       </c>
       <c r="H33" s="0">
-        <v>332960</v>
+        <v>334560</v>
       </c>
       <c r="I33" s="0">
-        <v>378080</v>
+        <v>277920</v>
       </c>
       <c r="J33" s="0">
-        <v>113455.50643510903</v>
+        <v>29861.090036806556</v>
+      </c>
+      <c r="K33" s="0">
+        <v>30526.518227041797</v>
+      </c>
+      <c r="L33" s="0">
+        <v>28987.715537122796</v>
+      </c>
+      <c r="M33" s="0">
+        <v>24080.182634137876</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B34" s="0">
-        <v>1730</v>
+        <v>2002</v>
       </c>
       <c r="C34" s="0">
-        <v>1674</v>
+        <v>1975</v>
       </c>
       <c r="D34" s="0">
-        <v>1818</v>
+        <v>1793</v>
       </c>
       <c r="E34" s="0">
-        <v>2073</v>
+        <v>1525</v>
       </c>
       <c r="F34" s="0">
-        <v>415200</v>
+        <v>480480</v>
       </c>
       <c r="G34" s="0">
-        <v>401760</v>
+        <v>474000</v>
       </c>
       <c r="H34" s="0">
-        <v>436320</v>
+        <v>430320</v>
       </c>
       <c r="I34" s="0">
-        <v>497520</v>
+        <v>366000</v>
       </c>
       <c r="J34" s="0">
-        <v>151697.1367459884</v>
+        <v>41630.93458059887</v>
+      </c>
+      <c r="K34" s="0">
+        <v>41069.47841992146</v>
+      </c>
+      <c r="L34" s="0">
+        <v>37284.848003503386</v>
+      </c>
+      <c r="M34" s="0">
+        <v>31711.875741964675</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B35" s="0">
-        <v>1541</v>
+        <v>1810</v>
       </c>
       <c r="C35" s="0">
-        <v>1547</v>
+        <v>1804</v>
       </c>
       <c r="D35" s="0">
-        <v>1679</v>
+        <v>1666</v>
       </c>
       <c r="E35" s="0">
-        <v>1916</v>
+        <v>1403</v>
       </c>
       <c r="F35" s="0">
-        <v>662630</v>
+        <v>778300</v>
       </c>
       <c r="G35" s="0">
-        <v>665210</v>
+        <v>775720</v>
       </c>
       <c r="H35" s="0">
-        <v>721970</v>
+        <v>716380</v>
       </c>
       <c r="I35" s="0">
-        <v>823880</v>
+        <v>603290</v>
       </c>
       <c r="J35" s="0">
-        <v>248991.56489937237</v>
+        <v>67435.99169053778</v>
+      </c>
+      <c r="K35" s="0">
+        <v>67212.44696670174</v>
+      </c>
+      <c r="L35" s="0">
+        <v>62070.91831847289</v>
+      </c>
+      <c r="M35" s="0">
+        <v>52272.207923659946</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B36" s="0">
-        <v>1485</v>
+        <v>1734</v>
       </c>
       <c r="C36" s="0">
-        <v>1520</v>
+        <v>1769</v>
       </c>
       <c r="D36" s="0">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="E36" s="0">
-        <v>1849</v>
+        <v>1348</v>
       </c>
       <c r="F36" s="0">
-        <v>846450</v>
+        <v>988380</v>
       </c>
       <c r="G36" s="0">
-        <v>866400</v>
+        <v>1008330</v>
       </c>
       <c r="H36" s="0">
-        <v>904590</v>
+        <v>906300</v>
       </c>
       <c r="I36" s="0">
-        <v>1053930</v>
+        <v>768360</v>
       </c>
       <c r="J36" s="0">
-        <v>318109.34523274266</v>
+        <v>85639.12507895914</v>
+      </c>
+      <c r="K36" s="0">
+        <v>87367.71180200619</v>
+      </c>
+      <c r="L36" s="0">
+        <v>78527.22541842273</v>
+      </c>
+      <c r="M36" s="0">
+        <v>66575.28293335463</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" s="0">
-        <v>1471</v>
+        <v>1703</v>
       </c>
       <c r="C37" s="0">
-        <v>1412</v>
+        <v>1650</v>
       </c>
       <c r="D37" s="0">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E37" s="0">
-        <v>1844</v>
+        <v>1378</v>
       </c>
       <c r="F37" s="0">
-        <v>794340</v>
+        <v>919620</v>
       </c>
       <c r="G37" s="0">
-        <v>762480</v>
+        <v>891000</v>
       </c>
       <c r="H37" s="0">
-        <v>865080</v>
+        <v>862920</v>
       </c>
       <c r="I37" s="0">
-        <v>995760</v>
+        <v>744120</v>
       </c>
       <c r="J37" s="0">
-        <v>296127.97947195574</v>
+        <v>79681.77422037299</v>
+      </c>
+      <c r="K37" s="0">
+        <v>77201.95388350877</v>
+      </c>
+      <c r="L37" s="0">
+        <v>74768.92260960425</v>
+      </c>
+      <c r="M37" s="0">
+        <v>64475.32875846975</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B38" s="0">
-        <v>1511</v>
+        <v>1763</v>
       </c>
       <c r="C38" s="0">
-        <v>1494</v>
+        <v>1778</v>
       </c>
       <c r="D38" s="0">
-        <v>1741</v>
+        <v>1663</v>
       </c>
       <c r="E38" s="0">
-        <v>1929</v>
+        <v>1471</v>
       </c>
       <c r="F38" s="0">
-        <v>710170</v>
+        <v>828610</v>
       </c>
       <c r="G38" s="0">
-        <v>702180</v>
+        <v>835660</v>
       </c>
       <c r="H38" s="0">
-        <v>818270</v>
+        <v>781610</v>
       </c>
       <c r="I38" s="0">
-        <v>906630</v>
+        <v>691370</v>
       </c>
       <c r="J38" s="0">
-        <v>271824.03898214444</v>
+        <v>71794.12445326152</v>
+      </c>
+      <c r="K38" s="0">
+        <v>72404.96499030005</v>
+      </c>
+      <c r="L38" s="0">
+        <v>67721.85420633802</v>
+      </c>
+      <c r="M38" s="0">
+        <v>59903.09533224487</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B39" s="0">
-        <v>1644</v>
+        <v>1913</v>
       </c>
       <c r="C39" s="0">
-        <v>1608</v>
+        <v>1899</v>
       </c>
       <c r="D39" s="0">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="E39" s="0">
-        <v>2135</v>
+        <v>1579</v>
       </c>
       <c r="F39" s="0">
-        <v>443880</v>
+        <v>516510</v>
       </c>
       <c r="G39" s="0">
-        <v>434160</v>
+        <v>512730</v>
       </c>
       <c r="H39" s="0">
-        <v>488430</v>
+        <v>487350</v>
       </c>
       <c r="I39" s="0">
-        <v>576450</v>
+        <v>426330</v>
       </c>
       <c r="J39" s="0">
-        <v>168343.8603453572</v>
+        <v>44752.891167408045</v>
+      </c>
+      <c r="K39" s="0">
+        <v>44425.37392938206</v>
+      </c>
+      <c r="L39" s="0">
+        <v>42226.32961692187</v>
+      </c>
+      <c r="M39" s="0">
+        <v>36939.26563164522</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B40" s="0">
-        <v>1491</v>
+        <v>1726</v>
       </c>
       <c r="C40" s="0">
-        <v>1475</v>
+        <v>1730</v>
       </c>
       <c r="D40" s="0">
-        <v>1645</v>
+        <v>1621</v>
       </c>
       <c r="E40" s="0">
-        <v>1841</v>
+        <v>1375</v>
       </c>
       <c r="F40" s="0">
-        <v>700770</v>
+        <v>811220</v>
       </c>
       <c r="G40" s="0">
-        <v>693250</v>
+        <v>813100</v>
       </c>
       <c r="H40" s="0">
-        <v>773150</v>
+        <v>761870</v>
       </c>
       <c r="I40" s="0">
-        <v>865270</v>
+        <v>646250</v>
       </c>
       <c r="J40" s="0">
-        <v>262743.0734389629</v>
+        <v>70287.4371908943</v>
+      </c>
+      <c r="K40" s="0">
+        <v>70450.32812297053</v>
+      </c>
+      <c r="L40" s="0">
+        <v>66011.5502238932</v>
+      </c>
+      <c r="M40" s="0">
+        <v>55993.7579012049</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B41" s="0">
-        <v>1501</v>
+        <v>1762</v>
       </c>
       <c r="C41" s="0">
-        <v>1560</v>
+        <v>1828</v>
       </c>
       <c r="D41" s="0">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="E41" s="0">
-        <v>1959</v>
+        <v>1433</v>
       </c>
       <c r="F41" s="0">
-        <v>510340</v>
+        <v>599080</v>
       </c>
       <c r="G41" s="0">
-        <v>530400</v>
+        <v>621520</v>
       </c>
       <c r="H41" s="0">
-        <v>571880</v>
+        <v>570860</v>
       </c>
       <c r="I41" s="0">
-        <v>666060</v>
+        <v>487220</v>
       </c>
       <c r="J41" s="0">
-        <v>197438.08671692197</v>
+        <v>51907.77511119315</v>
+      </c>
+      <c r="K41" s="0">
+        <v>53852.10720956929</v>
+      </c>
+      <c r="L41" s="0">
+        <v>49462.63019959893</v>
+      </c>
+      <c r="M41" s="0">
+        <v>42215.5741965606</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B42" s="0">
-        <v>1536</v>
+        <v>1795</v>
       </c>
       <c r="C42" s="0">
-        <v>1583</v>
+        <v>1837</v>
       </c>
       <c r="D42" s="0">
-        <v>1719</v>
+        <v>1740</v>
       </c>
       <c r="E42" s="0">
-        <v>2002</v>
+        <v>1468</v>
       </c>
       <c r="F42" s="0">
-        <v>506880</v>
+        <v>592350</v>
       </c>
       <c r="G42" s="0">
-        <v>522390</v>
+        <v>606210</v>
       </c>
       <c r="H42" s="0">
-        <v>567270</v>
+        <v>574200</v>
       </c>
       <c r="I42" s="0">
-        <v>660660</v>
+        <v>484440</v>
       </c>
       <c r="J42" s="0">
-        <v>195572.43759552372</v>
+        <v>51323.46863800659</v>
+      </c>
+      <c r="K42" s="0">
+        <v>52524.352026751025</v>
+      </c>
+      <c r="L42" s="0">
+        <v>49750.8832479841</v>
+      </c>
+      <c r="M42" s="0">
+        <v>41973.73368278199</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B43" s="0">
-        <v>1527</v>
+        <v>1765</v>
       </c>
       <c r="C43" s="0">
-        <v>1459</v>
+        <v>1723</v>
       </c>
       <c r="D43" s="0">
-        <v>1615</v>
+        <v>1624</v>
       </c>
       <c r="E43" s="0">
-        <v>1874</v>
+        <v>1363</v>
       </c>
       <c r="F43" s="0">
-        <v>763500</v>
+        <v>882500</v>
       </c>
       <c r="G43" s="0">
-        <v>729500</v>
+        <v>861500</v>
       </c>
       <c r="H43" s="0">
-        <v>807500</v>
+        <v>812000</v>
       </c>
       <c r="I43" s="0">
-        <v>937000</v>
+        <v>681500</v>
       </c>
       <c r="J43" s="0">
-        <v>280512.65137033025</v>
+        <v>76464.06635809001</v>
+      </c>
+      <c r="K43" s="0">
+        <v>74644.52483568787</v>
+      </c>
+      <c r="L43" s="0">
+        <v>70355.60553288282</v>
+      </c>
+      <c r="M43" s="0">
+        <v>59048.45464366951</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B44" s="0">
-        <v>13143</v>
+        <v>15187</v>
       </c>
       <c r="C44" s="0">
-        <v>12946</v>
+        <v>15232</v>
       </c>
       <c r="D44" s="0">
-        <v>14073</v>
+        <v>14086</v>
       </c>
       <c r="E44" s="0">
-        <v>16215</v>
+        <v>11872</v>
       </c>
       <c r="F44" s="0">
-        <v>131430</v>
+        <v>151870</v>
       </c>
       <c r="G44" s="0">
-        <v>129460</v>
+        <v>152320</v>
       </c>
       <c r="H44" s="0">
-        <v>140730</v>
+        <v>140860</v>
       </c>
       <c r="I44" s="0">
-        <v>162150</v>
+        <v>118720</v>
       </c>
       <c r="J44" s="0">
-        <v>48847.40392478979</v>
+        <v>13158.655540482512</v>
+      </c>
+      <c r="K44" s="0">
+        <v>13197.645433109214</v>
+      </c>
+      <c r="L44" s="0">
+        <v>12204.702834215886</v>
+      </c>
+      <c r="M44" s="0">
+        <v>10286.40011698218</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B45" s="0">
-        <v>1596</v>
+        <v>1832</v>
       </c>
       <c r="C45" s="0">
-        <v>1474</v>
+        <v>1747</v>
       </c>
       <c r="D45" s="0">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="E45" s="0">
-        <v>1913</v>
+        <v>1403</v>
       </c>
       <c r="F45" s="0">
-        <v>510720</v>
+        <v>586240</v>
       </c>
       <c r="G45" s="0">
-        <v>471680</v>
+        <v>559040</v>
       </c>
       <c r="H45" s="0">
-        <v>553280</v>
+        <v>553600</v>
       </c>
       <c r="I45" s="0">
-        <v>612160</v>
+        <v>448960</v>
       </c>
       <c r="J45" s="0">
-        <v>186099.91453047429</v>
+        <v>50794.85152262051</v>
+      </c>
+      <c r="K45" s="0">
+        <v>48438.10349891814</v>
+      </c>
+      <c r="L45" s="0">
+        <v>47966.753894177666</v>
+      </c>
+      <c r="M45" s="0">
+        <v>38900.20561475796</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46" s="0">
-        <v>1555</v>
+        <v>1792</v>
       </c>
       <c r="C46" s="0">
-        <v>1527</v>
+        <v>1785</v>
       </c>
       <c r="D46" s="0">
         <v>1599</v>
       </c>
       <c r="E46" s="0">
-        <v>1882</v>
+        <v>1387</v>
       </c>
       <c r="F46" s="0">
-        <v>637550</v>
+        <v>734720</v>
       </c>
       <c r="G46" s="0">
-        <v>626070</v>
+        <v>731850</v>
       </c>
       <c r="H46" s="0">
         <v>655590</v>
       </c>
       <c r="I46" s="0">
-        <v>771620</v>
+        <v>568670</v>
       </c>
       <c r="J46" s="0">
-        <v>233148.47554186502</v>
+        <v>63660.22675164133</v>
+      </c>
+      <c r="K46" s="0">
+        <v>63411.55399089273</v>
+      </c>
+      <c r="L46" s="0">
+        <v>56803.963491001385</v>
+      </c>
+      <c r="M46" s="0">
+        <v>49272.73130832953</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B47" s="0">
-        <v>1480</v>
+        <v>1744</v>
       </c>
       <c r="C47" s="0">
-        <v>1509</v>
+        <v>1762</v>
       </c>
       <c r="D47" s="0">
-        <v>1661</v>
+        <v>1671</v>
       </c>
       <c r="E47" s="0">
-        <v>1869</v>
+        <v>1342</v>
       </c>
       <c r="F47" s="0">
-        <v>680800</v>
+        <v>802240</v>
       </c>
       <c r="G47" s="0">
-        <v>694140</v>
+        <v>810520</v>
       </c>
       <c r="H47" s="0">
-        <v>764060</v>
+        <v>768660</v>
       </c>
       <c r="I47" s="0">
-        <v>859740</v>
+        <v>617320</v>
       </c>
       <c r="J47" s="0">
-        <v>259827.43993354874</v>
+        <v>69510.51622090949</v>
+      </c>
+      <c r="K47" s="0">
+        <v>70227.94127364823</v>
+      </c>
+      <c r="L47" s="0">
+        <v>66600.95906258014</v>
+      </c>
+      <c r="M47" s="0">
+        <v>53488.023376410856</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B48" s="0">
-        <v>1400</v>
+        <v>1657</v>
       </c>
       <c r="C48" s="0">
-        <v>1445</v>
+        <v>1590</v>
       </c>
       <c r="D48" s="0">
-        <v>1523</v>
+        <v>1584</v>
       </c>
       <c r="E48" s="0">
-        <v>1808</v>
+        <v>1345</v>
       </c>
       <c r="F48" s="0">
-        <v>952000</v>
+        <v>1126760</v>
       </c>
       <c r="G48" s="0">
-        <v>982600</v>
+        <v>1081200</v>
       </c>
       <c r="H48" s="0">
-        <v>1035640</v>
+        <v>1077120</v>
       </c>
       <c r="I48" s="0">
-        <v>1229440</v>
+        <v>914600</v>
       </c>
       <c r="J48" s="0">
-        <v>363880.6401889421</v>
+        <v>97627.9502579464</v>
+      </c>
+      <c r="K48" s="0">
+        <v>93680.41092947181</v>
+      </c>
+      <c r="L48" s="0">
+        <v>93326.89994483229</v>
+      </c>
+      <c r="M48" s="0">
+        <v>79245.37905669156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B49" s="0">
-        <v>1539</v>
+        <v>1802</v>
       </c>
       <c r="C49" s="0">
-        <v>1531</v>
+        <v>1790</v>
       </c>
       <c r="D49" s="0">
-        <v>1617</v>
+        <v>1575</v>
       </c>
       <c r="E49" s="0">
-        <v>1835</v>
+        <v>1355</v>
       </c>
       <c r="F49" s="0">
-        <v>908010</v>
+        <v>1063180</v>
       </c>
       <c r="G49" s="0">
-        <v>903290</v>
+        <v>1056100</v>
       </c>
       <c r="H49" s="0">
-        <v>954030</v>
+        <v>929250</v>
       </c>
       <c r="I49" s="0">
-        <v>1082650</v>
+        <v>799450</v>
       </c>
       <c r="J49" s="0">
-        <v>333406.577565266</v>
+        <v>92118.77534078647</v>
+      </c>
+      <c r="K49" s="0">
+        <v>91505.33177580897</v>
+      </c>
+      <c r="L49" s="0">
+        <v>80514.46790329562</v>
+      </c>
+      <c r="M49" s="0">
+        <v>69268.00254537495</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B50" s="0">
-        <v>1494</v>
+        <v>1746</v>
       </c>
       <c r="C50" s="0">
-        <v>1490</v>
+        <v>1725</v>
       </c>
       <c r="D50" s="0">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="E50" s="0">
-        <v>1889</v>
+        <v>1412</v>
       </c>
       <c r="F50" s="0">
-        <v>866520</v>
+        <v>1012680</v>
       </c>
       <c r="G50" s="0">
-        <v>864200</v>
+        <v>1000500</v>
       </c>
       <c r="H50" s="0">
-        <v>928580</v>
+        <v>922780</v>
       </c>
       <c r="I50" s="0">
-        <v>1095620</v>
+        <v>818960</v>
       </c>
       <c r="J50" s="0">
-        <v>325345.0547523477</v>
+        <v>87743.66166166188</v>
+      </c>
+      <c r="K50" s="0">
+        <v>86688.32552483778</v>
+      </c>
+      <c r="L50" s="0">
+        <v>79954.27588986488</v>
+      </c>
+      <c r="M50" s="0">
+        <v>70958.79167598314</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B51" s="0">
-        <v>3215</v>
+        <v>3738</v>
       </c>
       <c r="C51" s="0">
-        <v>3274</v>
+        <v>3796</v>
       </c>
       <c r="D51" s="0">
-        <v>3494</v>
+        <v>3552</v>
       </c>
       <c r="E51" s="0">
-        <v>4211</v>
+        <v>3108</v>
       </c>
       <c r="F51" s="0">
-        <v>64300</v>
+        <v>74760</v>
       </c>
       <c r="G51" s="0">
-        <v>65480</v>
+        <v>75920</v>
       </c>
       <c r="H51" s="0">
-        <v>69880</v>
+        <v>71040</v>
       </c>
       <c r="I51" s="0">
-        <v>84220</v>
+        <v>62160</v>
       </c>
       <c r="J51" s="0">
-        <v>24596.83983073827</v>
+        <v>6477.5952717556465</v>
+      </c>
+      <c r="K51" s="0">
+        <v>6578.103705613812</v>
+      </c>
+      <c r="L51" s="0">
+        <v>6155.275121796697</v>
+      </c>
+      <c r="M51" s="0">
+        <v>5385.86573157211</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B52" s="0">
-        <v>1433</v>
+        <v>1669</v>
       </c>
       <c r="C52" s="0">
-        <v>1387</v>
+        <v>1630</v>
       </c>
       <c r="D52" s="0">
-        <v>1515</v>
+        <v>1491</v>
       </c>
       <c r="E52" s="0">
-        <v>1752</v>
+        <v>1297</v>
       </c>
       <c r="F52" s="0">
-        <v>945780</v>
+        <v>1101540</v>
       </c>
       <c r="G52" s="0">
-        <v>915420</v>
+        <v>1075800</v>
       </c>
       <c r="H52" s="0">
-        <v>999900</v>
+        <v>984060</v>
       </c>
       <c r="I52" s="0">
-        <v>1156320</v>
+        <v>856020</v>
       </c>
       <c r="J52" s="0">
-        <v>348090.6609435969</v>
+        <v>95443.29113107659</v>
+      </c>
+      <c r="K52" s="0">
+        <v>93213.04046953555</v>
+      </c>
+      <c r="L52" s="0">
+        <v>85264.1983681457</v>
+      </c>
+      <c r="M52" s="0">
+        <v>74170.13097483902</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B53" s="0">
-        <v>1424</v>
+        <v>1663</v>
       </c>
       <c r="C53" s="0">
-        <v>1475</v>
+        <v>1710</v>
       </c>
       <c r="D53" s="0">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="E53" s="0">
-        <v>1748</v>
+        <v>1280</v>
       </c>
       <c r="F53" s="0">
-        <v>925600</v>
+        <v>1080950</v>
       </c>
       <c r="G53" s="0">
-        <v>958750</v>
+        <v>1111500</v>
       </c>
       <c r="H53" s="0">
-        <v>1000350</v>
+        <v>996450</v>
       </c>
       <c r="I53" s="0">
-        <v>1136200</v>
+        <v>832000</v>
       </c>
       <c r="J53" s="0">
-        <v>348391.0410796082</v>
+        <v>93658.95591907346</v>
+      </c>
+      <c r="K53" s="0">
+        <v>96305.96188912544</v>
+      </c>
+      <c r="L53" s="0">
+        <v>86337.45004446158</v>
+      </c>
+      <c r="M53" s="0">
+        <v>72088.67322694769</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B54" s="0">
-        <v>1486</v>
+        <v>1737</v>
       </c>
       <c r="C54" s="0">
-        <v>1489</v>
+        <v>1789</v>
       </c>
       <c r="D54" s="0">
-        <v>1691</v>
+        <v>1628</v>
       </c>
       <c r="E54" s="0">
-        <v>1866</v>
+        <v>1378</v>
       </c>
       <c r="F54" s="0">
-        <v>638980</v>
+        <v>746910</v>
       </c>
       <c r="G54" s="0">
-        <v>640270</v>
+        <v>769270</v>
       </c>
       <c r="H54" s="0">
-        <v>727130</v>
+        <v>700040</v>
       </c>
       <c r="I54" s="0">
-        <v>802380</v>
+        <v>592540</v>
       </c>
       <c r="J54" s="0">
-        <v>243367.37345594072</v>
+        <v>64716.64539084033</v>
+      </c>
+      <c r="K54" s="0">
+        <v>66654.0464042679</v>
+      </c>
+      <c r="L54" s="0">
+        <v>60655.55480500175</v>
+      </c>
+      <c r="M54" s="0">
+        <v>51341.12685583072</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B55" s="0">
-        <v>1471</v>
+        <v>1722</v>
       </c>
       <c r="C55" s="0">
-        <v>1537</v>
+        <v>1812</v>
       </c>
       <c r="D55" s="0">
-        <v>1699</v>
+        <v>1724</v>
       </c>
       <c r="E55" s="0">
-        <v>1951</v>
+        <v>1400</v>
       </c>
       <c r="F55" s="0">
-        <v>544270</v>
+        <v>637140</v>
       </c>
       <c r="G55" s="0">
-        <v>568690</v>
+        <v>670440</v>
       </c>
       <c r="H55" s="0">
-        <v>628630</v>
+        <v>637880</v>
       </c>
       <c r="I55" s="0">
-        <v>721870</v>
+        <v>518000</v>
       </c>
       <c r="J55" s="0">
-        <v>213447.55458587132</v>
+        <v>55205.27020079159</v>
+      </c>
+      <c r="K55" s="0">
+        <v>58090.56306842878</v>
+      </c>
+      <c r="L55" s="0">
+        <v>55269.387820072414</v>
+      </c>
+      <c r="M55" s="0">
+        <v>44882.333496578525</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B56" s="0">
-        <v>3899</v>
+        <v>4567</v>
       </c>
       <c r="C56" s="0">
-        <v>3967</v>
+        <v>4598</v>
       </c>
       <c r="D56" s="0">
-        <v>4265</v>
+        <v>4255</v>
       </c>
       <c r="E56" s="0">
-        <v>4945</v>
+        <v>3656</v>
       </c>
       <c r="F56" s="0">
-        <v>350910</v>
+        <v>411030</v>
       </c>
       <c r="G56" s="0">
-        <v>357030</v>
+        <v>413820</v>
       </c>
       <c r="H56" s="0">
-        <v>383850</v>
+        <v>382950</v>
       </c>
       <c r="I56" s="0">
-        <v>445050</v>
+        <v>329040</v>
       </c>
       <c r="J56" s="0">
-        <v>133159.32260347833</v>
+        <v>35613.646423640515</v>
+      </c>
+      <c r="K56" s="0">
+        <v>35855.38564832474</v>
+      </c>
+      <c r="L56" s="0">
+        <v>33180.65809778638</v>
+      </c>
+      <c r="M56" s="0">
+        <v>28509.632433726674</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B57" s="0">
-        <v>1510</v>
+        <v>1755</v>
       </c>
       <c r="C57" s="0">
-        <v>1495</v>
+        <v>1759</v>
       </c>
       <c r="D57" s="0">
-        <v>1605</v>
+        <v>1582</v>
       </c>
       <c r="E57" s="0">
-        <v>1854</v>
+        <v>1368</v>
       </c>
       <c r="F57" s="0">
-        <v>588900</v>
+        <v>684450</v>
       </c>
       <c r="G57" s="0">
-        <v>583050</v>
+        <v>686010</v>
       </c>
       <c r="H57" s="0">
-        <v>625950</v>
+        <v>616980</v>
       </c>
       <c r="I57" s="0">
-        <v>723060</v>
+        <v>533520</v>
       </c>
       <c r="J57" s="0">
-        <v>218427.0695463138</v>
+        <v>59303.76037341904</v>
+      </c>
+      <c r="K57" s="0">
+        <v>59438.92563922741</v>
+      </c>
+      <c r="L57" s="0">
+        <v>53457.862627207374</v>
+      </c>
+      <c r="M57" s="0">
+        <v>46226.52090645998</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B58" s="0">
-        <v>1517</v>
+        <v>1765</v>
       </c>
       <c r="C58" s="0">
-        <v>1512</v>
+        <v>1747</v>
       </c>
       <c r="D58" s="0">
-        <v>1591</v>
+        <v>1602</v>
       </c>
       <c r="E58" s="0">
-        <v>1902</v>
+        <v>1408</v>
       </c>
       <c r="F58" s="0">
-        <v>773670</v>
+        <v>900150</v>
       </c>
       <c r="G58" s="0">
-        <v>771120</v>
+        <v>890970</v>
       </c>
       <c r="H58" s="0">
-        <v>811410</v>
+        <v>817020</v>
       </c>
       <c r="I58" s="0">
-        <v>970020</v>
+        <v>718080</v>
       </c>
       <c r="J58" s="0">
-        <v>288195.44939980615</v>
+        <v>77992.17543555012</v>
+      </c>
+      <c r="K58" s="0">
+        <v>77196.78781071164</v>
+      </c>
+      <c r="L58" s="0">
+        <v>70789.49861062395</v>
+      </c>
+      <c r="M58" s="0">
+        <v>62216.98754292043</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B59" s="0">
-        <v>1516</v>
+        <v>1764</v>
       </c>
       <c r="C59" s="0">
-        <v>1536</v>
+        <v>1812</v>
       </c>
       <c r="D59" s="0">
-        <v>1669</v>
+        <v>1650</v>
       </c>
       <c r="E59" s="0">
-        <v>1898</v>
+        <v>1393</v>
       </c>
       <c r="F59" s="0">
-        <v>818640</v>
+        <v>952560</v>
       </c>
       <c r="G59" s="0">
-        <v>829440</v>
+        <v>978480</v>
       </c>
       <c r="H59" s="0">
-        <v>901260</v>
+        <v>891000</v>
       </c>
       <c r="I59" s="0">
-        <v>1024920</v>
+        <v>752220</v>
       </c>
       <c r="J59" s="0">
-        <v>309693.9122626296</v>
+        <v>82535.13540282196</v>
+      </c>
+      <c r="K59" s="0">
+        <v>84780.98942738856</v>
+      </c>
+      <c r="L59" s="0">
+        <v>77201.23209447632</v>
+      </c>
+      <c r="M59" s="0">
+        <v>65176.55533794274</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B60" s="0">
-        <v>1501</v>
+        <v>1765</v>
       </c>
       <c r="C60" s="0">
-        <v>1532</v>
+        <v>1777</v>
       </c>
       <c r="D60" s="0">
-        <v>1617</v>
+        <v>1568</v>
       </c>
       <c r="E60" s="0">
-        <v>1841</v>
+        <v>1381</v>
       </c>
       <c r="F60" s="0">
-        <v>780520</v>
+        <v>917800</v>
       </c>
       <c r="G60" s="0">
-        <v>796640</v>
+        <v>924040</v>
       </c>
       <c r="H60" s="0">
-        <v>840840</v>
+        <v>815360</v>
       </c>
       <c r="I60" s="0">
-        <v>957320</v>
+        <v>718120</v>
       </c>
       <c r="J60" s="0">
-        <v>292450.39054636523</v>
+        <v>79521.63600590582</v>
+      </c>
+      <c r="K60" s="0">
+        <v>80062.29302124341</v>
+      </c>
+      <c r="L60" s="0">
+        <v>70645.8500041135</v>
+      </c>
+      <c r="M60" s="0">
+        <v>62220.61151510251</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B61" s="0">
-        <v>1528</v>
+        <v>1816</v>
       </c>
       <c r="C61" s="0">
-        <v>1671</v>
+        <v>1913</v>
       </c>
       <c r="D61" s="0">
-        <v>1750</v>
+        <v>1758</v>
       </c>
       <c r="E61" s="0">
-        <v>2010</v>
+        <v>1472</v>
       </c>
       <c r="F61" s="0">
-        <v>443120</v>
+        <v>526640</v>
       </c>
       <c r="G61" s="0">
-        <v>484590</v>
+        <v>554770</v>
       </c>
       <c r="H61" s="0">
-        <v>507500</v>
+        <v>509820</v>
       </c>
       <c r="I61" s="0">
-        <v>582900</v>
+        <v>426880</v>
       </c>
       <c r="J61" s="0">
-        <v>174859.61596184573</v>
+        <v>45630.846757682404</v>
+      </c>
+      <c r="K61" s="0">
+        <v>48068.177228770066</v>
+      </c>
+      <c r="L61" s="0">
+        <v>44173.473898681536</v>
+      </c>
+      <c r="M61" s="0">
+        <v>36987.118076711726</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B62" s="0">
-        <v>1515</v>
+        <v>1781</v>
       </c>
       <c r="C62" s="0">
-        <v>1641</v>
+        <v>1951</v>
       </c>
       <c r="D62" s="0">
-        <v>1709</v>
+        <v>1628</v>
       </c>
       <c r="E62" s="0">
-        <v>1952</v>
+        <v>1457</v>
       </c>
       <c r="F62" s="0">
-        <v>515100</v>
+        <v>605540</v>
       </c>
       <c r="G62" s="0">
-        <v>557940</v>
+        <v>663340</v>
       </c>
       <c r="H62" s="0">
-        <v>581060</v>
+        <v>553520</v>
       </c>
       <c r="I62" s="0">
-        <v>663680</v>
+        <v>495380</v>
       </c>
       <c r="J62" s="0">
-        <v>200821.59459782593</v>
+        <v>52466.37230141233</v>
+      </c>
+      <c r="K62" s="0">
+        <v>57474.392116819465</v>
+      </c>
+      <c r="L62" s="0">
+        <v>47959.154467545915</v>
+      </c>
+      <c r="M62" s="0">
+        <v>42921.675712048156</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B63" s="0">
-        <v>1896</v>
+        <v>2180</v>
       </c>
       <c r="C63" s="0">
-        <v>1782</v>
+        <v>2153</v>
       </c>
       <c r="D63" s="0">
-        <v>2099</v>
+        <v>2032</v>
       </c>
       <c r="E63" s="0">
-        <v>2267</v>
+        <v>1679</v>
       </c>
       <c r="F63" s="0">
-        <v>322320</v>
+        <v>370600</v>
       </c>
       <c r="G63" s="0">
-        <v>302940</v>
+        <v>366010</v>
       </c>
       <c r="H63" s="0">
-        <v>356830</v>
+        <v>345440</v>
       </c>
       <c r="I63" s="0">
-        <v>385390</v>
+        <v>285430</v>
       </c>
       <c r="J63" s="0">
-        <v>118485.71953093051</v>
+        <v>32110.749450202453</v>
+      </c>
+      <c r="K63" s="0">
+        <v>31713.04750747059</v>
+      </c>
+      <c r="L63" s="0">
+        <v>29930.753615968526</v>
+      </c>
+      <c r="M63" s="0">
+        <v>24731.16895728895</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B64" s="0">
-        <v>1543</v>
+        <v>1802</v>
       </c>
       <c r="C64" s="0">
-        <v>1537</v>
+        <v>1762</v>
       </c>
       <c r="D64" s="0">
-        <v>1617</v>
+        <v>1606</v>
       </c>
       <c r="E64" s="0">
-        <v>1878</v>
+        <v>1405</v>
       </c>
       <c r="F64" s="0">
-        <v>817790</v>
+        <v>955060</v>
       </c>
       <c r="G64" s="0">
-        <v>814610</v>
+        <v>933860</v>
       </c>
       <c r="H64" s="0">
-        <v>857010</v>
+        <v>851180</v>
       </c>
       <c r="I64" s="0">
-        <v>995340</v>
+        <v>744650</v>
       </c>
       <c r="J64" s="0">
-        <v>301933.0461902694</v>
+        <v>82750.31927526472</v>
+      </c>
+      <c r="K64" s="0">
+        <v>80913.46424140756</v>
+      </c>
+      <c r="L64" s="0">
+        <v>73749.72960936466</v>
+      </c>
+      <c r="M64" s="0">
+        <v>64519.53306423248</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B65" s="0">
-        <v>1498</v>
+        <v>1700</v>
       </c>
       <c r="C65" s="0">
-        <v>1398</v>
+        <v>1717</v>
       </c>
       <c r="D65" s="0">
-        <v>1621</v>
+        <v>1582</v>
       </c>
       <c r="E65" s="0">
-        <v>1770</v>
+        <v>1288</v>
       </c>
       <c r="F65" s="0">
-        <v>704060</v>
+        <v>799000</v>
       </c>
       <c r="G65" s="0">
-        <v>657060</v>
+        <v>806990</v>
       </c>
       <c r="H65" s="0">
-        <v>761870</v>
+        <v>743540</v>
       </c>
       <c r="I65" s="0">
-        <v>831900</v>
+        <v>605360</v>
       </c>
       <c r="J65" s="0">
-        <v>256026.21572733883</v>
+        <v>69229.29326172674</v>
+      </c>
+      <c r="K65" s="0">
+        <v>69921.586194344</v>
+      </c>
+      <c r="L65" s="0">
+        <v>64423.96584708923</v>
+      </c>
+      <c r="M65" s="0">
+        <v>52451.370424178844</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B66" s="0">
-        <v>1484</v>
+        <v>1730</v>
       </c>
       <c r="C66" s="0">
-        <v>1541</v>
+        <v>1777</v>
       </c>
       <c r="D66" s="0">
-        <v>1521</v>
+        <v>1567</v>
       </c>
       <c r="E66" s="0">
-        <v>1942</v>
+        <v>1414</v>
       </c>
       <c r="F66" s="0">
-        <v>667800</v>
+        <v>778500</v>
       </c>
       <c r="G66" s="0">
-        <v>693450</v>
+        <v>799650</v>
       </c>
       <c r="H66" s="0">
-        <v>684450</v>
+        <v>705150</v>
       </c>
       <c r="I66" s="0">
-        <v>873900</v>
+        <v>636300</v>
       </c>
       <c r="J66" s="0">
-        <v>252971.6865074702</v>
+        <v>67453.91764148018</v>
+      </c>
+      <c r="K66" s="0">
+        <v>69286.48072191347</v>
+      </c>
+      <c r="L66" s="0">
+        <v>61098.432915722224</v>
+      </c>
+      <c r="M66" s="0">
+        <v>55132.855228354325</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B67" s="0">
-        <v>1549</v>
+        <v>1805</v>
       </c>
       <c r="C67" s="0">
-        <v>1472</v>
+        <v>1767</v>
       </c>
       <c r="D67" s="0">
-        <v>1675</v>
+        <v>1622</v>
       </c>
       <c r="E67" s="0">
-        <v>1911</v>
+        <v>1413</v>
       </c>
       <c r="F67" s="0">
-        <v>666070</v>
+        <v>776150</v>
       </c>
       <c r="G67" s="0">
-        <v>632960</v>
+        <v>759810</v>
       </c>
       <c r="H67" s="0">
-        <v>720250</v>
+        <v>697460</v>
       </c>
       <c r="I67" s="0">
-        <v>821730</v>
+        <v>607590</v>
       </c>
       <c r="J67" s="0">
-        <v>246158.62238998822</v>
+        <v>67249.32850218384</v>
+      </c>
+      <c r="K67" s="0">
+        <v>65833.55316529576</v>
+      </c>
+      <c r="L67" s="0">
+        <v>60431.2525376965</v>
+      </c>
+      <c r="M67" s="0">
+        <v>52644.48818481206</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B68" s="0">
-        <v>12984</v>
+        <v>15155</v>
       </c>
       <c r="C68" s="0">
-        <v>13073</v>
+        <v>15183</v>
       </c>
       <c r="D68" s="0">
-        <v>14030</v>
+        <v>14007</v>
       </c>
       <c r="E68" s="0">
-        <v>16273</v>
+        <v>12015</v>
       </c>
       <c r="F68" s="0">
-        <v>129840</v>
+        <v>151550</v>
       </c>
       <c r="G68" s="0">
-        <v>130730</v>
+        <v>151830</v>
       </c>
       <c r="H68" s="0">
-        <v>140300</v>
+        <v>140070</v>
       </c>
       <c r="I68" s="0">
-        <v>162730</v>
+        <v>120150</v>
       </c>
       <c r="J68" s="0">
-        <v>48832.86090533279</v>
+        <v>13130.979542589042</v>
+      </c>
+      <c r="K68" s="0">
+        <v>13155.24001287558</v>
+      </c>
+      <c r="L68" s="0">
+        <v>12136.300260840959</v>
+      </c>
+      <c r="M68" s="0">
+        <v>10410.341089027208</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B69" s="0">
-        <v>2302</v>
+        <v>2658</v>
       </c>
       <c r="C69" s="0">
-        <v>2226</v>
+        <v>2585</v>
       </c>
       <c r="D69" s="0">
-        <v>2372</v>
+        <v>2390</v>
       </c>
       <c r="E69" s="0">
-        <v>2821</v>
+        <v>2088</v>
       </c>
       <c r="F69" s="0">
-        <v>299260</v>
+        <v>345540</v>
       </c>
       <c r="G69" s="0">
-        <v>289380</v>
+        <v>336050</v>
       </c>
       <c r="H69" s="0">
-        <v>308360</v>
+        <v>310700</v>
       </c>
       <c r="I69" s="0">
-        <v>366730</v>
+        <v>271440</v>
       </c>
       <c r="J69" s="0">
-        <v>109496.81055626296</v>
+        <v>29939.566141194005</v>
+      </c>
+      <c r="K69" s="0">
+        <v>29117.29814709801</v>
+      </c>
+      <c r="L69" s="0">
+        <v>26920.82884780048</v>
+      </c>
+      <c r="M69" s="0">
+        <v>23519.117420170463</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B70" s="0">
-        <v>1481</v>
+        <v>1718</v>
       </c>
       <c r="C70" s="0">
-        <v>1463</v>
+        <v>1738</v>
       </c>
       <c r="D70" s="0">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="E70" s="0">
-        <v>1888</v>
+        <v>1374</v>
       </c>
       <c r="F70" s="0">
-        <v>725690</v>
+        <v>841820</v>
       </c>
       <c r="G70" s="0">
-        <v>716870</v>
+        <v>851620</v>
       </c>
       <c r="H70" s="0">
-        <v>816830</v>
+        <v>817810</v>
       </c>
       <c r="I70" s="0">
-        <v>925120</v>
+        <v>673260</v>
       </c>
       <c r="J70" s="0">
-        <v>275926.48573683086</v>
+        <v>72940.71434003316</v>
+      </c>
+      <c r="K70" s="0">
+        <v>73789.84954771689</v>
+      </c>
+      <c r="L70" s="0">
+        <v>70860.333081208</v>
+      </c>
+      <c r="M70" s="0">
+        <v>58335.58876787285</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B71" s="0">
-        <v>1406</v>
+        <v>1658</v>
       </c>
       <c r="C71" s="0">
-        <v>1420</v>
+        <v>1621</v>
       </c>
       <c r="D71" s="0">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="E71" s="0">
-        <v>1808</v>
+        <v>1349</v>
       </c>
       <c r="F71" s="0">
-        <v>956080</v>
+        <v>1127440</v>
       </c>
       <c r="G71" s="0">
-        <v>965600</v>
+        <v>1102280</v>
       </c>
       <c r="H71" s="0">
-        <v>1061480</v>
+        <v>1065560</v>
       </c>
       <c r="I71" s="0">
-        <v>1229440</v>
+        <v>917320</v>
       </c>
       <c r="J71" s="0">
-        <v>364992.1354745487</v>
+        <v>97684.73940545629</v>
+      </c>
+      <c r="K71" s="0">
+        <v>95504.80251884478</v>
+      </c>
+      <c r="L71" s="0">
+        <v>92323.27300865501</v>
+      </c>
+      <c r="M71" s="0">
+        <v>79479.3205415926</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B72" s="0">
-        <v>1517</v>
+        <v>1788</v>
       </c>
       <c r="C72" s="0">
-        <v>1566</v>
+        <v>1802</v>
       </c>
       <c r="D72" s="0">
-        <v>1631</v>
+        <v>1644</v>
       </c>
       <c r="E72" s="0">
-        <v>1911</v>
+        <v>1391</v>
       </c>
       <c r="F72" s="0">
-        <v>576460</v>
+        <v>679440</v>
       </c>
       <c r="G72" s="0">
-        <v>595080</v>
+        <v>684760</v>
       </c>
       <c r="H72" s="0">
-        <v>619780</v>
+        <v>624720</v>
       </c>
       <c r="I72" s="0">
-        <v>726180</v>
+        <v>528580</v>
       </c>
       <c r="J72" s="0">
-        <v>218131.52507445824</v>
+        <v>58870.817635189625</v>
+      </c>
+      <c r="K72" s="0">
+        <v>59331.774820252635</v>
+      </c>
+      <c r="L72" s="0">
+        <v>54129.543731684425</v>
+      </c>
+      <c r="M72" s="0">
+        <v>45799.38888733153</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B73" s="0">
-        <v>1957</v>
+        <v>2276</v>
       </c>
       <c r="C73" s="0">
-        <v>1984</v>
+        <v>2356</v>
       </c>
       <c r="D73" s="0">
-        <v>2225</v>
+        <v>2169</v>
       </c>
       <c r="E73" s="0">
-        <v>2555</v>
+        <v>1920</v>
       </c>
       <c r="F73" s="0">
-        <v>293550</v>
+        <v>341400</v>
       </c>
       <c r="G73" s="0">
-        <v>297600</v>
+        <v>353400</v>
       </c>
       <c r="H73" s="0">
-        <v>333750</v>
+        <v>325350</v>
       </c>
       <c r="I73" s="0">
-        <v>383250</v>
+        <v>288000</v>
       </c>
       <c r="J73" s="0">
-        <v>113344.23769676976</v>
+        <v>29580.493635804145</v>
+      </c>
+      <c r="K73" s="0">
+        <v>30620.229791719932</v>
+      </c>
+      <c r="L73" s="0">
+        <v>28189.846527266778</v>
+      </c>
+      <c r="M73" s="0">
+        <v>24953.667741978894</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B74" s="0">
-        <v>1665</v>
+        <v>1960</v>
       </c>
       <c r="C74" s="0">
-        <v>1695</v>
+        <v>1969</v>
       </c>
       <c r="D74" s="0">
-        <v>1862</v>
+        <v>1904</v>
       </c>
       <c r="E74" s="0">
-        <v>2237</v>
+        <v>1626</v>
       </c>
       <c r="F74" s="0">
-        <v>366300</v>
+        <v>431200</v>
       </c>
       <c r="G74" s="0">
-        <v>372900</v>
+        <v>433180</v>
       </c>
       <c r="H74" s="0">
-        <v>409640</v>
+        <v>418880</v>
       </c>
       <c r="I74" s="0">
-        <v>492140</v>
+        <v>357720</v>
       </c>
       <c r="J74" s="0">
-        <v>142180.40066970815</v>
+        <v>37360.71662590535</v>
+      </c>
+      <c r="K74" s="0">
+        <v>37532.27093694267</v>
+      </c>
+      <c r="L74" s="0">
+        <v>36293.267579450905</v>
+      </c>
+      <c r="M74" s="0">
+        <v>30994.145527409233</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B75" s="0">
-        <v>9176</v>
+        <v>10693</v>
       </c>
       <c r="C75" s="0">
-        <v>9238</v>
+        <v>10764</v>
       </c>
       <c r="D75" s="0">
-        <v>9963</v>
+        <v>9903</v>
       </c>
       <c r="E75" s="0">
-        <v>11207</v>
+        <v>8224</v>
       </c>
       <c r="F75" s="0">
-        <v>550560</v>
+        <v>641580</v>
       </c>
       <c r="G75" s="0">
-        <v>554280</v>
+        <v>645840</v>
       </c>
       <c r="H75" s="0">
-        <v>597780</v>
+        <v>594180</v>
       </c>
       <c r="I75" s="0">
-        <v>672420</v>
+        <v>493440</v>
       </c>
       <c r="J75" s="0">
-        <v>205784.9520538077</v>
+        <v>55589.594086281475</v>
+      </c>
+      <c r="K75" s="0">
+        <v>55958.70108900531</v>
+      </c>
+      <c r="L75" s="0">
+        <v>51482.62884470639</v>
+      </c>
+      <c r="M75" s="0">
+        <v>42754.02803381453</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B76" s="0">
-        <v>1599</v>
+        <v>1857</v>
       </c>
       <c r="C76" s="0">
-        <v>1481</v>
+        <v>1759</v>
       </c>
       <c r="D76" s="0">
-        <v>1749</v>
+        <v>1757</v>
       </c>
       <c r="E76" s="0">
-        <v>2064</v>
+        <v>1520</v>
       </c>
       <c r="F76" s="0">
-        <v>479700</v>
+        <v>557100</v>
       </c>
       <c r="G76" s="0">
-        <v>444300</v>
+        <v>527700</v>
       </c>
       <c r="H76" s="0">
-        <v>524700</v>
+        <v>527100</v>
       </c>
       <c r="I76" s="0">
-        <v>619200</v>
+        <v>456000</v>
       </c>
       <c r="J76" s="0">
-        <v>179173.86775519195</v>
+        <v>48270.11060806491</v>
+      </c>
+      <c r="K76" s="0">
+        <v>45722.73805039644</v>
+      </c>
+      <c r="L76" s="0">
+        <v>45670.750855341976</v>
+      </c>
+      <c r="M76" s="0">
+        <v>39510.26824138862</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B77" s="0">
-        <v>1452</v>
+        <v>1694</v>
       </c>
       <c r="C77" s="0">
-        <v>1462</v>
+        <v>1694</v>
       </c>
       <c r="D77" s="0">
-        <v>1561</v>
+        <v>1609</v>
       </c>
       <c r="E77" s="0">
-        <v>1882</v>
+        <v>1360</v>
       </c>
       <c r="F77" s="0">
-        <v>638880</v>
+        <v>745360</v>
       </c>
       <c r="G77" s="0">
-        <v>643280</v>
+        <v>745360</v>
       </c>
       <c r="H77" s="0">
-        <v>686840</v>
+        <v>707960</v>
       </c>
       <c r="I77" s="0">
-        <v>828080</v>
+        <v>598400</v>
       </c>
       <c r="J77" s="0">
-        <v>242352.6013198244</v>
+        <v>64581.61186656953</v>
+      </c>
+      <c r="K77" s="0">
+        <v>64581.61186656953</v>
+      </c>
+      <c r="L77" s="0">
+        <v>61341.094151895144</v>
+      </c>
+      <c r="M77" s="0">
+        <v>51848.28343479017</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B78" s="0">
-        <v>1476</v>
+        <v>1702</v>
       </c>
       <c r="C78" s="0">
-        <v>1435</v>
+        <v>1687</v>
       </c>
       <c r="D78" s="0">
-        <v>1601</v>
+        <v>1583</v>
       </c>
       <c r="E78" s="0">
-        <v>1807</v>
+        <v>1347</v>
       </c>
       <c r="F78" s="0">
-        <v>811800</v>
+        <v>936100</v>
       </c>
       <c r="G78" s="0">
-        <v>789250</v>
+        <v>927850</v>
       </c>
       <c r="H78" s="0">
-        <v>880550</v>
+        <v>870650</v>
       </c>
       <c r="I78" s="0">
-        <v>993850</v>
+        <v>740850</v>
       </c>
       <c r="J78" s="0">
-        <v>301132.2725059961</v>
+        <v>81108.89821256613</v>
+      </c>
+      <c r="K78" s="0">
+        <v>80394.07243513459</v>
+      </c>
+      <c r="L78" s="0">
+        <v>75437.94704494251</v>
+      </c>
+      <c r="M78" s="0">
+        <v>64191.35481335285</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B79" s="0">
-        <v>1463</v>
+        <v>1708</v>
       </c>
       <c r="C79" s="0">
-        <v>1525</v>
+        <v>1763</v>
       </c>
       <c r="D79" s="0">
-        <v>1607</v>
+        <v>1642</v>
       </c>
       <c r="E79" s="0">
-        <v>1931</v>
+        <v>1413</v>
       </c>
       <c r="F79" s="0">
-        <v>599830</v>
+        <v>700280</v>
       </c>
       <c r="G79" s="0">
-        <v>625250</v>
+        <v>722830</v>
       </c>
       <c r="H79" s="0">
-        <v>658870</v>
+        <v>673220</v>
       </c>
       <c r="I79" s="0">
-        <v>791710</v>
+        <v>579330</v>
       </c>
       <c r="J79" s="0">
-        <v>231834.67959989177</v>
+        <v>60676.31516344087</v>
+      </c>
+      <c r="K79" s="0">
+        <v>62630.17777116292</v>
+      </c>
+      <c r="L79" s="0">
+        <v>58331.680034174424</v>
+      </c>
+      <c r="M79" s="0">
+        <v>50196.50663111356</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B80" s="0">
-        <v>2017</v>
+        <v>2334</v>
       </c>
       <c r="C80" s="0">
-        <v>1963</v>
+        <v>2302</v>
       </c>
       <c r="D80" s="0">
-        <v>2149</v>
+        <v>2137</v>
       </c>
       <c r="E80" s="0">
-        <v>2503</v>
+        <v>1859</v>
       </c>
       <c r="F80" s="0">
-        <v>302550</v>
+        <v>350100</v>
       </c>
       <c r="G80" s="0">
-        <v>294450</v>
+        <v>345300</v>
       </c>
       <c r="H80" s="0">
-        <v>322350</v>
+        <v>320550</v>
       </c>
       <c r="I80" s="0">
-        <v>375450</v>
+        <v>278850</v>
       </c>
       <c r="J80" s="0">
-        <v>112189.33086084864</v>
+        <v>30334.78895148525</v>
+      </c>
+      <c r="K80" s="0">
+        <v>29918.88781761742</v>
+      </c>
+      <c r="L80" s="0">
+        <v>27774.39759611139</v>
+      </c>
+      <c r="M80" s="0">
+        <v>24161.25649563457</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B81" s="0">
-        <v>2263</v>
+        <v>2638</v>
       </c>
       <c r="C81" s="0">
-        <v>2295</v>
+        <v>2688</v>
       </c>
       <c r="D81" s="0">
-        <v>2413</v>
+        <v>2452</v>
       </c>
       <c r="E81" s="0">
-        <v>2910</v>
+        <v>2103</v>
       </c>
       <c r="F81" s="0">
-        <v>294190</v>
+        <v>342940</v>
       </c>
       <c r="G81" s="0">
-        <v>298350</v>
+        <v>349440</v>
       </c>
       <c r="H81" s="0">
-        <v>313690</v>
+        <v>318760</v>
       </c>
       <c r="I81" s="0">
-        <v>378300</v>
+        <v>273390</v>
       </c>
       <c r="J81" s="0">
-        <v>111298.32703453372</v>
+        <v>29714.09641909725</v>
+      </c>
+      <c r="K81" s="0">
+        <v>30277.29005857976</v>
+      </c>
+      <c r="L81" s="0">
+        <v>27619.01608022231</v>
+      </c>
+      <c r="M81" s="0">
+        <v>23687.924476634387</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B82" s="0">
-        <v>1819</v>
+        <v>2140</v>
       </c>
       <c r="C82" s="0">
-        <v>1775</v>
+        <v>2070</v>
       </c>
       <c r="D82" s="0">
-        <v>1984</v>
+        <v>1961</v>
       </c>
       <c r="E82" s="0">
-        <v>2317</v>
+        <v>1724</v>
       </c>
       <c r="F82" s="0">
-        <v>309230</v>
+        <v>363800</v>
       </c>
       <c r="G82" s="0">
-        <v>301750</v>
+        <v>351900</v>
       </c>
       <c r="H82" s="0">
-        <v>337280</v>
+        <v>333370</v>
       </c>
       <c r="I82" s="0">
-        <v>393890</v>
+        <v>293080</v>
       </c>
       <c r="J82" s="0">
-        <v>116289.17306419516</v>
+        <v>31521.067809674172</v>
+      </c>
+      <c r="K82" s="0">
+        <v>30490.004843937168</v>
+      </c>
+      <c r="L82" s="0">
+        <v>28884.49251157526</v>
+      </c>
+      <c r="M82" s="0">
+        <v>25393.60789900854</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B83" s="0">
-        <v>1808</v>
+        <v>2111</v>
       </c>
       <c r="C83" s="0">
-        <v>1865</v>
+        <v>2186</v>
       </c>
       <c r="D83" s="0">
-        <v>1991</v>
+        <v>1969</v>
       </c>
       <c r="E83" s="0">
-        <v>2327</v>
+        <v>1725</v>
       </c>
       <c r="F83" s="0">
-        <v>307360</v>
+        <v>358870</v>
       </c>
       <c r="G83" s="0">
-        <v>317050</v>
+        <v>371620</v>
       </c>
       <c r="H83" s="0">
-        <v>338470</v>
+        <v>334730</v>
       </c>
       <c r="I83" s="0">
-        <v>395590</v>
+        <v>293250</v>
       </c>
       <c r="J83" s="0">
-        <v>117703.16340049806</v>
+        <v>31093.902883049854</v>
+      </c>
+      <c r="K83" s="0">
+        <v>32198.61283862955</v>
+      </c>
+      <c r="L83" s="0">
+        <v>29002.31870048563</v>
+      </c>
+      <c r="M83" s="0">
+        <v>25408.328978333015</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B84" s="0">
-        <v>1479</v>
+        <v>1685</v>
       </c>
       <c r="C84" s="0">
-        <v>1480</v>
+        <v>1760</v>
       </c>
       <c r="D84" s="0">
-        <v>1628</v>
+        <v>1634</v>
       </c>
       <c r="E84" s="0">
-        <v>1842</v>
+        <v>1350</v>
       </c>
       <c r="F84" s="0">
-        <v>887400</v>
+        <v>1011000</v>
       </c>
       <c r="G84" s="0">
-        <v>888000</v>
+        <v>1056000</v>
       </c>
       <c r="H84" s="0">
-        <v>976800</v>
+        <v>980400</v>
       </c>
       <c r="I84" s="0">
-        <v>1105200</v>
+        <v>810000</v>
       </c>
       <c r="J84" s="0">
-        <v>334224.3424737674</v>
+        <v>87598.07389458673</v>
+      </c>
+      <c r="K84" s="0">
+        <v>91497.09795517666</v>
+      </c>
+      <c r="L84" s="0">
+        <v>84946.7375333856</v>
+      </c>
+      <c r="M84" s="0">
+        <v>70182.43309061845</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B85" s="0">
-        <v>1637</v>
+        <v>1934</v>
       </c>
       <c r="C85" s="0">
-        <v>1687</v>
+        <v>1915</v>
       </c>
       <c r="D85" s="0">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="E85" s="0">
-        <v>2042</v>
+        <v>1519</v>
       </c>
       <c r="F85" s="0">
-        <v>491100</v>
+        <v>580200</v>
       </c>
       <c r="G85" s="0">
-        <v>506100</v>
+        <v>574500</v>
       </c>
       <c r="H85" s="0">
-        <v>526500</v>
+        <v>525900</v>
       </c>
       <c r="I85" s="0">
-        <v>612600</v>
+        <v>455700</v>
       </c>
       <c r="J85" s="0">
-        <v>185097.67757822404</v>
+        <v>50270.876061829134</v>
+      </c>
+      <c r="K85" s="0">
+        <v>49777.00499400351</v>
+      </c>
+      <c r="L85" s="0">
+        <v>45566.10431043768</v>
+      </c>
+      <c r="M85" s="0">
+        <v>39483.6922119537</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B86" s="0">
-        <v>1474</v>
+        <v>1705</v>
       </c>
       <c r="C86" s="0">
-        <v>1431</v>
+        <v>1665</v>
       </c>
       <c r="D86" s="0">
-        <v>1563</v>
+        <v>1588</v>
       </c>
       <c r="E86" s="0">
-        <v>1803</v>
+        <v>1313</v>
       </c>
       <c r="F86" s="0">
-        <v>1031800</v>
+        <v>1193500</v>
       </c>
       <c r="G86" s="0">
-        <v>1001700</v>
+        <v>1165500</v>
       </c>
       <c r="H86" s="0">
-        <v>1094100</v>
+        <v>1111600</v>
       </c>
       <c r="I86" s="0">
-        <v>1262100</v>
+        <v>919100</v>
       </c>
       <c r="J86" s="0">
-        <v>380346.4905227156</v>
+        <v>103411.06144813109</v>
+      </c>
+      <c r="K86" s="0">
+        <v>100984.99549040369</v>
+      </c>
+      <c r="L86" s="0">
+        <v>96314.8185217784</v>
+      </c>
+      <c r="M86" s="0">
+        <v>79635.61506240243</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B87" s="0">
-        <v>13065</v>
+        <v>15281</v>
       </c>
       <c r="C87" s="0">
-        <v>13088</v>
+        <v>15290</v>
       </c>
       <c r="D87" s="0">
-        <v>14207</v>
+        <v>13969</v>
       </c>
       <c r="E87" s="0">
-        <v>16343</v>
+        <v>12163</v>
       </c>
       <c r="F87" s="0">
-        <v>391950</v>
+        <v>458430</v>
       </c>
       <c r="G87" s="0">
-        <v>392640</v>
+        <v>458700</v>
       </c>
       <c r="H87" s="0">
-        <v>426210</v>
+        <v>419070</v>
       </c>
       <c r="I87" s="0">
-        <v>490290</v>
+        <v>364890</v>
       </c>
       <c r="J87" s="0">
-        <v>147390.89345209702</v>
+        <v>39720.65398376619</v>
+      </c>
+      <c r="K87" s="0">
+        <v>39744.048125893925</v>
+      </c>
+      <c r="L87" s="0">
+        <v>36310.3079313677</v>
+      </c>
+      <c r="M87" s="0">
+        <v>31615.88341106918</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B88" s="0">
-        <v>2436</v>
+        <v>2864</v>
       </c>
       <c r="C88" s="0">
-        <v>2516</v>
+        <v>2915</v>
       </c>
       <c r="D88" s="0">
-        <v>2597</v>
+        <v>2602</v>
       </c>
       <c r="E88" s="0">
-        <v>3113</v>
+        <v>2281</v>
       </c>
       <c r="F88" s="0">
-        <v>243600</v>
+        <v>286400</v>
       </c>
       <c r="G88" s="0">
-        <v>251600</v>
+        <v>291500</v>
       </c>
       <c r="H88" s="0">
-        <v>259700</v>
+        <v>260200</v>
       </c>
       <c r="I88" s="0">
-        <v>311300</v>
+        <v>228100</v>
       </c>
       <c r="J88" s="0">
-        <v>92380.38401664968</v>
+        <v>24814.98966644951</v>
+      </c>
+      <c r="K88" s="0">
+        <v>25256.876703107657</v>
+      </c>
+      <c r="L88" s="0">
+        <v>22544.90332126453</v>
+      </c>
+      <c r="M88" s="0">
+        <v>19763.61432582798</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B89" s="0">
-        <v>1977</v>
+        <v>2305</v>
       </c>
       <c r="C89" s="0">
-        <v>1987</v>
+        <v>2330</v>
       </c>
       <c r="D89" s="0">
-        <v>2110</v>
+        <v>2095</v>
       </c>
       <c r="E89" s="0">
-        <v>2453</v>
+        <v>1797</v>
       </c>
       <c r="F89" s="0">
-        <v>296550</v>
+        <v>345750</v>
       </c>
       <c r="G89" s="0">
-        <v>298050</v>
+        <v>349500</v>
       </c>
       <c r="H89" s="0">
-        <v>316500</v>
+        <v>314250</v>
       </c>
       <c r="I89" s="0">
-        <v>367950</v>
+        <v>269550</v>
       </c>
       <c r="J89" s="0">
-        <v>110821.77715617362</v>
+        <v>29957.100544737907</v>
+      </c>
+      <c r="K89" s="0">
+        <v>30282.01486734895</v>
+      </c>
+      <c r="L89" s="0">
+        <v>27227.82023480517</v>
+      </c>
+      <c r="M89" s="0">
+        <v>23354.84150928157</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B90" s="0">
-        <v>1531</v>
+        <v>1776</v>
       </c>
       <c r="C90" s="0">
-        <v>1478</v>
+        <v>1751</v>
       </c>
       <c r="D90" s="0">
-        <v>1667</v>
+        <v>1676</v>
       </c>
       <c r="E90" s="0">
-        <v>1892</v>
+        <v>1365</v>
       </c>
       <c r="F90" s="0">
-        <v>612400</v>
+        <v>710400</v>
       </c>
       <c r="G90" s="0">
-        <v>591200</v>
+        <v>700400</v>
       </c>
       <c r="H90" s="0">
-        <v>666800</v>
+        <v>670400</v>
       </c>
       <c r="I90" s="0">
-        <v>756800</v>
+        <v>546000</v>
       </c>
       <c r="J90" s="0">
-        <v>227631.30625017599</v>
+        <v>61551.94882769679</v>
+      </c>
+      <c r="K90" s="0">
+        <v>60685.50810658619</v>
+      </c>
+      <c r="L90" s="0">
+        <v>58086.1859432544</v>
+      </c>
+      <c r="M90" s="0">
+        <v>47307.66337263858</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B91" s="0">
-        <v>1447</v>
+        <v>1720</v>
       </c>
       <c r="C91" s="0">
-        <v>1494</v>
+        <v>1703</v>
       </c>
       <c r="D91" s="0">
-        <v>1566</v>
+        <v>1550</v>
       </c>
       <c r="E91" s="0">
-        <v>1782</v>
+        <v>1316</v>
       </c>
       <c r="F91" s="0">
-        <v>897140</v>
+        <v>1066400</v>
       </c>
       <c r="G91" s="0">
-        <v>926280</v>
+        <v>1055860</v>
       </c>
       <c r="H91" s="0">
-        <v>970920</v>
+        <v>961000</v>
       </c>
       <c r="I91" s="0">
-        <v>1104840</v>
+        <v>815920</v>
       </c>
       <c r="J91" s="0">
-        <v>337842.83450086205</v>
+        <v>92397.78587080342</v>
+      </c>
+      <c r="K91" s="0">
+        <v>91484.551940685</v>
+      </c>
+      <c r="L91" s="0">
+        <v>83265.44656961935</v>
+      </c>
+      <c r="M91" s="0">
+        <v>70695.05011975423</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B92" s="0">
-        <v>1517</v>
+        <v>1759</v>
       </c>
       <c r="C92" s="0">
-        <v>1579</v>
+        <v>1840</v>
       </c>
       <c r="D92" s="0">
-        <v>1616</v>
+        <v>1624</v>
       </c>
       <c r="E92" s="0">
-        <v>1932</v>
+        <v>1421</v>
       </c>
       <c r="F92" s="0">
-        <v>546120</v>
+        <v>633240</v>
       </c>
       <c r="G92" s="0">
-        <v>568440</v>
+        <v>662400</v>
       </c>
       <c r="H92" s="0">
-        <v>581760</v>
+        <v>584640</v>
       </c>
       <c r="I92" s="0">
-        <v>695520</v>
+        <v>511560</v>
       </c>
       <c r="J92" s="0">
-        <v>207241.57564861514</v>
+        <v>54867.23834526099</v>
+      </c>
+      <c r="K92" s="0">
+        <v>57393.8138460945</v>
+      </c>
+      <c r="L92" s="0">
+        <v>50656.27917720514</v>
+      </c>
+      <c r="M92" s="0">
+        <v>44324.244280054496</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B93" s="0">
-        <v>13202</v>
+        <v>15366</v>
       </c>
       <c r="C93" s="0">
-        <v>12980</v>
+        <v>15119</v>
       </c>
       <c r="D93" s="0">
-        <v>14131</v>
+        <v>14124</v>
       </c>
       <c r="E93" s="0">
-        <v>16115</v>
+        <v>11819</v>
       </c>
       <c r="F93" s="0">
-        <v>132020</v>
+        <v>153660</v>
       </c>
       <c r="G93" s="0">
-        <v>129800</v>
+        <v>151190</v>
       </c>
       <c r="H93" s="0">
-        <v>141310</v>
+        <v>141240</v>
       </c>
       <c r="I93" s="0">
-        <v>161150</v>
+        <v>118190</v>
       </c>
       <c r="J93" s="0">
-        <v>48891.699438122254</v>
+        <v>13313.77779765695</v>
+      </c>
+      <c r="K93" s="0">
+        <v>13099.766141011029</v>
+      </c>
+      <c r="L93" s="0">
+        <v>12237.654406749107</v>
+      </c>
+      <c r="M93" s="0">
+        <v>10240.50109270516</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B94" s="0">
-        <v>13089</v>
+        <v>15236</v>
       </c>
       <c r="C94" s="0">
-        <v>13036</v>
+        <v>15213</v>
       </c>
       <c r="D94" s="0">
-        <v>13958</v>
+        <v>13988</v>
       </c>
       <c r="E94" s="0">
-        <v>16392</v>
+        <v>12038</v>
       </c>
       <c r="F94" s="0">
-        <v>130890</v>
+        <v>152360</v>
       </c>
       <c r="G94" s="0">
-        <v>130360</v>
+        <v>152130</v>
       </c>
       <c r="H94" s="0">
-        <v>139580</v>
+        <v>139880</v>
       </c>
       <c r="I94" s="0">
-        <v>163920</v>
+        <v>120380</v>
       </c>
       <c r="J94" s="0">
-        <v>48932.32712227184</v>
+        <v>13201.114405222377</v>
+      </c>
+      <c r="K94" s="0">
+        <v>13181.186233043318</v>
+      </c>
+      <c r="L94" s="0">
+        <v>12119.794453941362</v>
+      </c>
+      <c r="M94" s="0">
+        <v>10430.232030064779</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B95" s="0">
-        <v>3272</v>
+        <v>3817</v>
       </c>
       <c r="C95" s="0">
-        <v>3146</v>
+        <v>3702</v>
       </c>
       <c r="D95" s="0">
-        <v>3480</v>
+        <v>3490</v>
       </c>
       <c r="E95" s="0">
-        <v>4067</v>
+        <v>2956</v>
       </c>
       <c r="F95" s="0">
-        <v>327200</v>
+        <v>381700</v>
       </c>
       <c r="G95" s="0">
-        <v>314600</v>
+        <v>370200</v>
       </c>
       <c r="H95" s="0">
-        <v>348000</v>
+        <v>349000</v>
       </c>
       <c r="I95" s="0">
-        <v>406700</v>
+        <v>295600</v>
       </c>
       <c r="J95" s="0">
-        <v>120999.47074515004</v>
+        <v>33072.32222228698</v>
+      </c>
+      <c r="K95" s="0">
+        <v>32075.90696015363</v>
+      </c>
+      <c r="L95" s="0">
+        <v>30239.037085612148</v>
+      </c>
+      <c r="M95" s="0">
+        <v>25612.20447709728</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B96" s="0">
-        <v>1478</v>
+        <v>1753</v>
       </c>
       <c r="C96" s="0">
-        <v>1491</v>
+        <v>1703</v>
       </c>
       <c r="D96" s="0">
-        <v>1620</v>
+        <v>1649</v>
       </c>
       <c r="E96" s="0">
-        <v>1875</v>
+        <v>1359</v>
       </c>
       <c r="F96" s="0">
-        <v>931140</v>
+        <v>1104390</v>
       </c>
       <c r="G96" s="0">
-        <v>939330</v>
+        <v>1072890</v>
       </c>
       <c r="H96" s="0">
-        <v>1020600</v>
+        <v>1038870</v>
       </c>
       <c r="I96" s="0">
-        <v>1181250</v>
+        <v>856170</v>
       </c>
       <c r="J96" s="0">
-        <v>352847.4822785258</v>
+        <v>95690.2284087648</v>
+      </c>
+      <c r="K96" s="0">
+        <v>92960.90073024898</v>
+      </c>
+      <c r="L96" s="0">
+        <v>90013.22683745188</v>
+      </c>
+      <c r="M96" s="0">
+        <v>74183.1263020601</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B97" s="0">
-        <v>3973</v>
+        <v>4606</v>
       </c>
       <c r="C97" s="0">
-        <v>3892</v>
+        <v>4544</v>
       </c>
       <c r="D97" s="0">
-        <v>4258</v>
+        <v>4360</v>
       </c>
       <c r="E97" s="0">
-        <v>4985</v>
+        <v>3598</v>
       </c>
       <c r="F97" s="0">
-        <v>357570</v>
+        <v>414540</v>
       </c>
       <c r="G97" s="0">
-        <v>350280</v>
+        <v>408960</v>
       </c>
       <c r="H97" s="0">
-        <v>383220</v>
+        <v>392400</v>
       </c>
       <c r="I97" s="0">
-        <v>448650</v>
+        <v>323820</v>
       </c>
       <c r="J97" s="0">
-        <v>133409.03547984964</v>
+        <v>35917.8172445749</v>
+      </c>
+      <c r="K97" s="0">
+        <v>35434.33815878167</v>
+      </c>
+      <c r="L97" s="0">
+        <v>33999.49700094367</v>
+      </c>
+      <c r="M97" s="0">
+        <v>28057.38307554939</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B98" s="0">
-        <v>1446</v>
+        <v>1701</v>
       </c>
       <c r="C98" s="0">
-        <v>1416</v>
+        <v>1628</v>
       </c>
       <c r="D98" s="0">
-        <v>1519</v>
+        <v>1544</v>
       </c>
       <c r="E98" s="0">
-        <v>1775</v>
+        <v>1283</v>
       </c>
       <c r="F98" s="0">
-        <v>983280</v>
+        <v>1156680</v>
       </c>
       <c r="G98" s="0">
-        <v>962880</v>
+        <v>1107040</v>
       </c>
       <c r="H98" s="0">
-        <v>1032920</v>
+        <v>1049920</v>
       </c>
       <c r="I98" s="0">
-        <v>1207000</v>
+        <v>872440</v>
       </c>
       <c r="J98" s="0">
-        <v>362704.8765550878</v>
+        <v>100221.08431127427</v>
+      </c>
+      <c r="K98" s="0">
+        <v>95920.00309156644</v>
+      </c>
+      <c r="L98" s="0">
+        <v>90970.81374286154</v>
+      </c>
+      <c r="M98" s="0">
+        <v>75592.97540938559</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B99" s="0">
-        <v>1902</v>
+        <v>2213</v>
       </c>
       <c r="C99" s="0">
-        <v>1882</v>
+        <v>2238</v>
       </c>
       <c r="D99" s="0">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="E99" s="0">
-        <v>2385</v>
+        <v>1727</v>
       </c>
       <c r="F99" s="0">
-        <v>304320</v>
+        <v>354080</v>
       </c>
       <c r="G99" s="0">
-        <v>301120</v>
+        <v>358080</v>
       </c>
       <c r="H99" s="0">
-        <v>334400</v>
+        <v>332960</v>
       </c>
       <c r="I99" s="0">
-        <v>381600</v>
+        <v>276320</v>
       </c>
       <c r="J99" s="0">
-        <v>114496.57483503706</v>
+        <v>30679.37039713488</v>
+      </c>
+      <c r="K99" s="0">
+        <v>31025.95162620328</v>
+      </c>
+      <c r="L99" s="0">
+        <v>28849.421507653722</v>
+      </c>
+      <c r="M99" s="0">
+        <v>23941.83130404516</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B100" s="0">
-        <v>1509</v>
+        <v>1768</v>
       </c>
       <c r="C100" s="0">
-        <v>1526</v>
+        <v>1787</v>
       </c>
       <c r="D100" s="0">
-        <v>1649</v>
+        <v>1633</v>
       </c>
       <c r="E100" s="0">
-        <v>1910</v>
+        <v>1406</v>
       </c>
       <c r="F100" s="0">
-        <v>588510</v>
+        <v>689520</v>
       </c>
       <c r="G100" s="0">
-        <v>595140</v>
+        <v>696930</v>
       </c>
       <c r="H100" s="0">
-        <v>643110</v>
+        <v>636870</v>
       </c>
       <c r="I100" s="0">
-        <v>744900</v>
+        <v>548340</v>
       </c>
       <c r="J100" s="0">
-        <v>222819.0502155986</v>
+        <v>59742.80873235947</v>
+      </c>
+      <c r="K100" s="0">
+        <v>60384.84117914388</v>
+      </c>
+      <c r="L100" s="0">
+        <v>55180.99924204921</v>
+      </c>
+      <c r="M100" s="0">
+        <v>47510.40106204605</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B101" s="0">
-        <v>1505</v>
+        <v>1751</v>
       </c>
       <c r="C101" s="0">
-        <v>1511</v>
+        <v>1782</v>
       </c>
       <c r="D101" s="0">
-        <v>1612</v>
+        <v>1585</v>
       </c>
       <c r="E101" s="0">
-        <v>1787</v>
+        <v>1297</v>
       </c>
       <c r="F101" s="0">
-        <v>752500</v>
+        <v>875500</v>
       </c>
       <c r="G101" s="0">
-        <v>755500</v>
+        <v>891000</v>
       </c>
       <c r="H101" s="0">
-        <v>806000</v>
+        <v>792500</v>
       </c>
       <c r="I101" s="0">
-        <v>893500</v>
+        <v>648500</v>
       </c>
       <c r="J101" s="0">
-        <v>277909.3026291239</v>
+        <v>75856.45968879126</v>
+      </c>
+      <c r="K101" s="0">
+        <v>77199.43527437237</v>
+      </c>
+      <c r="L101" s="0">
+        <v>68665.04203696981</v>
+      </c>
+      <c r="M101" s="0">
+        <v>56188.36562899044</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B102" s="0">
-        <v>5170</v>
+        <v>6037</v>
       </c>
       <c r="C102" s="0">
-        <v>5229</v>
+        <v>6113</v>
       </c>
       <c r="D102" s="0">
-        <v>5655</v>
+        <v>5680</v>
       </c>
       <c r="E102" s="0">
-        <v>6712</v>
+        <v>4936</v>
       </c>
       <c r="F102" s="0">
-        <v>413600</v>
+        <v>482960</v>
       </c>
       <c r="G102" s="0">
-        <v>418320</v>
+        <v>489040</v>
       </c>
       <c r="H102" s="0">
-        <v>452400</v>
+        <v>454400</v>
       </c>
       <c r="I102" s="0">
-        <v>536960</v>
+        <v>394880</v>
       </c>
       <c r="J102" s="0">
-        <v>157803.97514393576</v>
+        <v>41845.84898286656</v>
+      </c>
+      <c r="K102" s="0">
+        <v>42372.64781054552</v>
+      </c>
+      <c r="L102" s="0">
+        <v>39371.28080547988</v>
+      </c>
+      <c r="M102" s="0">
+        <v>34214.19754504379</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B103" s="0">
-        <v>1567</v>
+        <v>1777</v>
       </c>
       <c r="C103" s="0">
-        <v>1482</v>
+        <v>1775</v>
       </c>
       <c r="D103" s="0">
-        <v>1645</v>
+        <v>1609</v>
       </c>
       <c r="E103" s="0">
-        <v>1806</v>
+        <v>1339</v>
       </c>
       <c r="F103" s="0">
-        <v>799170</v>
+        <v>906270</v>
       </c>
       <c r="G103" s="0">
-        <v>755820</v>
+        <v>905250</v>
       </c>
       <c r="H103" s="0">
-        <v>838950</v>
+        <v>820590</v>
       </c>
       <c r="I103" s="0">
-        <v>921060</v>
+        <v>682890</v>
       </c>
       <c r="J103" s="0">
-        <v>287236.3516698953</v>
+        <v>78525.99952575445</v>
+      </c>
+      <c r="K103" s="0">
+        <v>78437.61910985601</v>
+      </c>
+      <c r="L103" s="0">
+        <v>71102.04459028639</v>
+      </c>
+      <c r="M103" s="0">
+        <v>59170.68844399843</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B104" s="0">
-        <v>1527</v>
+        <v>1758</v>
       </c>
       <c r="C104" s="0">
-        <v>1429</v>
+        <v>1654</v>
       </c>
       <c r="D104" s="0">
-        <v>1550</v>
+        <v>1594</v>
       </c>
       <c r="E104" s="0">
-        <v>1801</v>
+        <v>1301</v>
       </c>
       <c r="F104" s="0">
-        <v>824580</v>
+        <v>949320</v>
       </c>
       <c r="G104" s="0">
-        <v>771660</v>
+        <v>893160</v>
       </c>
       <c r="H104" s="0">
-        <v>837000</v>
+        <v>860760</v>
       </c>
       <c r="I104" s="0">
-        <v>972540</v>
+        <v>702540</v>
       </c>
       <c r="J104" s="0">
-        <v>295090.6574020676</v>
+        <v>82252.95318104247</v>
+      </c>
+      <c r="K104" s="0">
+        <v>77387.02193483745</v>
+      </c>
+      <c r="L104" s="0">
+        <v>74579.7539081807</v>
+      </c>
+      <c r="M104" s="0">
+        <v>60870.92837800697</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B105" s="0">
-        <v>1520</v>
+        <v>1803</v>
       </c>
       <c r="C105" s="0">
-        <v>1557</v>
+        <v>1758</v>
       </c>
       <c r="D105" s="0">
-        <v>1661</v>
+        <v>1713</v>
       </c>
       <c r="E105" s="0">
-        <v>1864</v>
+        <v>1328</v>
       </c>
       <c r="F105" s="0">
-        <v>684000</v>
+        <v>811350</v>
       </c>
       <c r="G105" s="0">
-        <v>700650</v>
+        <v>791100</v>
       </c>
       <c r="H105" s="0">
-        <v>747450</v>
+        <v>770850</v>
       </c>
       <c r="I105" s="0">
-        <v>838800</v>
+        <v>597600</v>
       </c>
       <c r="J105" s="0">
-        <v>257415.4770859671</v>
+        <v>70299.92505089346</v>
+      </c>
+      <c r="K105" s="0">
+        <v>68545.35121434872</v>
+      </c>
+      <c r="L105" s="0">
+        <v>66790.77737780394</v>
+      </c>
+      <c r="M105" s="0">
+        <v>51779.423442920976</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B106" s="0">
-        <v>6957</v>
+        <v>8171</v>
       </c>
       <c r="C106" s="0">
-        <v>6971</v>
+        <v>8064</v>
       </c>
       <c r="D106" s="0">
-        <v>7485</v>
+        <v>7409</v>
       </c>
       <c r="E106" s="0">
-        <v>8625</v>
+        <v>6394</v>
       </c>
       <c r="F106" s="0">
-        <v>486990</v>
+        <v>571970</v>
       </c>
       <c r="G106" s="0">
-        <v>487970</v>
+        <v>564480</v>
       </c>
       <c r="H106" s="0">
-        <v>523950</v>
+        <v>518630</v>
       </c>
       <c r="I106" s="0">
-        <v>603750</v>
+        <v>447580</v>
       </c>
       <c r="J106" s="0">
-        <v>182184.2849620059</v>
+        <v>49558.15275399662</v>
+      </c>
+      <c r="K106" s="0">
+        <v>48909.18416451214</v>
+      </c>
+      <c r="L106" s="0">
+        <v>44936.525976546436</v>
+      </c>
+      <c r="M106" s="0">
+        <v>38780.42206695072</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B107" s="0">
-        <v>1661</v>
+        <v>1934</v>
       </c>
       <c r="C107" s="0">
-        <v>1695</v>
+        <v>1998</v>
       </c>
       <c r="D107" s="0">
-        <v>1835</v>
+        <v>1799</v>
       </c>
       <c r="E107" s="0">
-        <v>2152</v>
+        <v>1612</v>
       </c>
       <c r="F107" s="0">
-        <v>448470</v>
+        <v>522180</v>
       </c>
       <c r="G107" s="0">
-        <v>457650</v>
+        <v>539460</v>
       </c>
       <c r="H107" s="0">
-        <v>495450</v>
+        <v>485730</v>
       </c>
       <c r="I107" s="0">
-        <v>581040</v>
+        <v>435240</v>
       </c>
       <c r="J107" s="0">
-        <v>171783.3855028275</v>
+        <v>45244.32351388648</v>
+      </c>
+      <c r="K107" s="0">
+        <v>46741.5503519882</v>
+      </c>
+      <c r="L107" s="0">
+        <v>42086.110652265656</v>
+      </c>
+      <c r="M107" s="0">
+        <v>37711.40098468718</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B108" s="0">
-        <v>1453</v>
+        <v>1719</v>
       </c>
       <c r="C108" s="0">
-        <v>1502</v>
+        <v>1729</v>
       </c>
       <c r="D108" s="0">
-        <v>1657</v>
+        <v>1667</v>
       </c>
       <c r="E108" s="0">
-        <v>1841</v>
+        <v>1338</v>
       </c>
       <c r="F108" s="0">
-        <v>871800</v>
+        <v>1031400</v>
       </c>
       <c r="G108" s="0">
-        <v>901200</v>
+        <v>1037400</v>
       </c>
       <c r="H108" s="0">
-        <v>994200</v>
+        <v>1000200</v>
       </c>
       <c r="I108" s="0">
-        <v>1104600</v>
+        <v>802800</v>
       </c>
       <c r="J108" s="0">
-        <v>335471.7423073774</v>
+        <v>89365.55478481042</v>
+      </c>
+      <c r="K108" s="0">
+        <v>89885.4242134597</v>
+      </c>
+      <c r="L108" s="0">
+        <v>86662.2337558342</v>
+      </c>
+      <c r="M108" s="0">
+        <v>69558.52955327304</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B109" s="0">
-        <v>1621</v>
+        <v>1882</v>
       </c>
       <c r="C109" s="0">
-        <v>1550</v>
+        <v>1890</v>
       </c>
       <c r="D109" s="0">
-        <v>1822</v>
+        <v>1767</v>
       </c>
       <c r="E109" s="0">
-        <v>2058</v>
+        <v>1512</v>
       </c>
       <c r="F109" s="0">
-        <v>470090</v>
+        <v>545780</v>
       </c>
       <c r="G109" s="0">
-        <v>449500</v>
+        <v>548100</v>
       </c>
       <c r="H109" s="0">
-        <v>528380</v>
+        <v>512430</v>
       </c>
       <c r="I109" s="0">
-        <v>596820</v>
+        <v>438480</v>
       </c>
       <c r="J109" s="0">
-        <v>177174.2124124577</v>
+        <v>47290.01102825774</v>
+      </c>
+      <c r="K109" s="0">
+        <v>47491.03126642249</v>
+      </c>
+      <c r="L109" s="0">
+        <v>44400.34510463944</v>
+      </c>
+      <c r="M109" s="0">
+        <v>37992.825013138</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B110" s="0">
-        <v>1453</v>
+        <v>1706</v>
       </c>
       <c r="C110" s="0">
-        <v>1496</v>
+        <v>1756</v>
       </c>
       <c r="D110" s="0">
-        <v>1625</v>
+        <v>1603</v>
       </c>
       <c r="E110" s="0">
-        <v>1907</v>
+        <v>1416</v>
       </c>
       <c r="F110" s="0">
-        <v>813680</v>
+        <v>955360</v>
       </c>
       <c r="G110" s="0">
-        <v>837760</v>
+        <v>983360</v>
       </c>
       <c r="H110" s="0">
-        <v>910000</v>
+        <v>897680</v>
       </c>
       <c r="I110" s="0">
-        <v>1067920</v>
+        <v>792960</v>
       </c>
       <c r="J110" s="0">
-        <v>314462.31904466223</v>
+        <v>82776.22531865357</v>
+      </c>
+      <c r="K110" s="0">
+        <v>85202.2577136903</v>
+      </c>
+      <c r="L110" s="0">
+        <v>77778.59858487788</v>
+      </c>
+      <c r="M110" s="0">
+        <v>68705.23742744047</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B111" s="0">
-        <v>1447</v>
+        <v>1686</v>
       </c>
       <c r="C111" s="0">
-        <v>1470</v>
+        <v>1672</v>
       </c>
       <c r="D111" s="0">
-        <v>1442</v>
+        <v>1487</v>
       </c>
       <c r="E111" s="0">
-        <v>1772</v>
+        <v>1286</v>
       </c>
       <c r="F111" s="0">
-        <v>983960</v>
+        <v>1146480</v>
       </c>
       <c r="G111" s="0">
-        <v>999600</v>
+        <v>1136960</v>
       </c>
       <c r="H111" s="0">
-        <v>980560</v>
+        <v>1011160</v>
       </c>
       <c r="I111" s="0">
-        <v>1204960</v>
+        <v>874480</v>
       </c>
       <c r="J111" s="0">
-        <v>361229.9407013793</v>
+        <v>99336.76072786258</v>
+      </c>
+      <c r="K111" s="0">
+        <v>98511.90031849718</v>
+      </c>
+      <c r="L111" s="0">
+        <v>87611.95919474002</v>
+      </c>
+      <c r="M111" s="0">
+        <v>75769.32046027953</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B112" s="0">
-        <v>1460</v>
+        <v>1708</v>
       </c>
       <c r="C112" s="0">
-        <v>1489</v>
+        <v>1782</v>
       </c>
       <c r="D112" s="0">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="E112" s="0">
-        <v>2008</v>
+        <v>1462</v>
       </c>
       <c r="F112" s="0">
-        <v>554800</v>
+        <v>649040</v>
       </c>
       <c r="G112" s="0">
-        <v>565820</v>
+        <v>677160</v>
       </c>
       <c r="H112" s="0">
-        <v>650940</v>
+        <v>652840</v>
       </c>
       <c r="I112" s="0">
-        <v>763040</v>
+        <v>555560</v>
       </c>
       <c r="J112" s="0">
-        <v>219613.35697954564</v>
+        <v>56236.82364633642</v>
+      </c>
+      <c r="K112" s="0">
+        <v>58673.313663800654</v>
+      </c>
+      <c r="L112" s="0">
+        <v>56566.079054101865</v>
+      </c>
+      <c r="M112" s="0">
+        <v>48137.140615306715</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B113" s="0">
-        <v>1533</v>
+        <v>1789</v>
       </c>
       <c r="C113" s="0">
-        <v>1466</v>
+        <v>1721</v>
       </c>
       <c r="D113" s="0">
-        <v>1640</v>
+        <v>1648</v>
       </c>
       <c r="E113" s="0">
-        <v>1869</v>
+        <v>1350</v>
       </c>
       <c r="F113" s="0">
-        <v>889140</v>
+        <v>1037620</v>
       </c>
       <c r="G113" s="0">
-        <v>850280</v>
+        <v>998180</v>
       </c>
       <c r="H113" s="0">
-        <v>951200</v>
+        <v>955840</v>
       </c>
       <c r="I113" s="0">
-        <v>1084020</v>
+        <v>783000</v>
       </c>
       <c r="J113" s="0">
-        <v>327052.7545693647</v>
+        <v>89904.32973641572</v>
+      </c>
+      <c r="K113" s="0">
+        <v>86487.06063519925</v>
+      </c>
+      <c r="L113" s="0">
+        <v>82818.52174712862</v>
+      </c>
+      <c r="M113" s="0">
+        <v>67842.84245062113</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B114" s="0">
-        <v>2774</v>
+        <v>3194</v>
       </c>
       <c r="C114" s="0">
-        <v>2734</v>
+        <v>3263</v>
       </c>
       <c r="D114" s="0">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="E114" s="0">
-        <v>3529</v>
+        <v>2582</v>
       </c>
       <c r="F114" s="0">
-        <v>305140</v>
+        <v>351340</v>
       </c>
       <c r="G114" s="0">
-        <v>300740</v>
+        <v>358930</v>
       </c>
       <c r="H114" s="0">
-        <v>332860</v>
+        <v>332640</v>
       </c>
       <c r="I114" s="0">
-        <v>388190</v>
+        <v>284020</v>
       </c>
       <c r="J114" s="0">
-        <v>114971.10401061297</v>
+        <v>30441.65681919073</v>
+      </c>
+      <c r="K114" s="0">
+        <v>31099.288103011695</v>
+      </c>
+      <c r="L114" s="0">
+        <v>28821.405830066615</v>
+      </c>
+      <c r="M114" s="0">
+        <v>24608.753258343917</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B115" s="0">
-        <v>1621</v>
+        <v>1880</v>
       </c>
       <c r="C115" s="0">
-        <v>1453</v>
+        <v>1699</v>
       </c>
       <c r="D115" s="0">
-        <v>1641</v>
+        <v>1652</v>
       </c>
       <c r="E115" s="0">
-        <v>2013</v>
+        <v>1497</v>
       </c>
       <c r="F115" s="0">
-        <v>567350</v>
+        <v>658000</v>
       </c>
       <c r="G115" s="0">
-        <v>508550</v>
+        <v>594650</v>
       </c>
       <c r="H115" s="0">
-        <v>574350</v>
+        <v>578200</v>
       </c>
       <c r="I115" s="0">
-        <v>704550</v>
+        <v>523950</v>
       </c>
       <c r="J115" s="0">
-        <v>204030.53563442337</v>
+        <v>57012.0997313787</v>
+      </c>
+      <c r="K115" s="0">
+        <v>51523.16885298533</v>
+      </c>
+      <c r="L115" s="0">
+        <v>50097.866359700856</v>
+      </c>
+      <c r="M115" s="0">
+        <v>45397.40069035846</v>
       </c>
     </row>
   </sheetData>
@@ -5890,7 +6916,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J1:M1"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
